--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Element</t>
   </si>
@@ -28,24 +28,27 @@
     <t>MFPP [USD/ton]</t>
   </si>
   <si>
-    <t>Biodiesel production [gal/ton]</t>
-  </si>
-  <si>
-    <t>Ethanol production [gal/ton]</t>
-  </si>
-  <si>
-    <t>Electricity production [kWhr/ton]</t>
-  </si>
-  <si>
-    <t>Natural gas consumption [cf/ton]</t>
-  </si>
-  <si>
-    <t>Productivity [GGE/ton]</t>
+    <t>Biodiesel production [MMGal/yr]</t>
+  </si>
+  <si>
+    <t>Ethanol production [MMGal/yr]</t>
+  </si>
+  <si>
+    <t>Electricity production [MMWhr/yr]</t>
+  </si>
+  <si>
+    <t>Natural gas consumption [MMcf/yr]</t>
+  </si>
+  <si>
+    <t>Productivity [MMGGE/yr]</t>
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
   </si>
   <si>
+    <t>Heat exchanger network error [%]</t>
+  </si>
+  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -64,21 +67,18 @@
     <t>biorefinery</t>
   </si>
   <si>
-    <t>Fermentation</t>
+    <t>Lipid content [dry wt. %]</t>
+  </si>
+  <si>
+    <t>Lipid retention [%]</t>
+  </si>
+  <si>
+    <t>Additional lipid extraction efficiency [%]</t>
   </si>
   <si>
     <t>Capacity [ton/hr]</t>
   </si>
   <si>
-    <t>Lipid content [dry wt. %]</t>
-  </si>
-  <si>
-    <t>Efficiency [%]</t>
-  </si>
-  <si>
-    <t>Lipid retention [%]</t>
-  </si>
-  <si>
     <t>Price [USD/gal]</t>
   </si>
   <si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>IRR [%]</t>
-  </si>
-  <si>
-    <t>Solids loading [%]</t>
   </si>
 </sst>
 </file>
@@ -452,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +468,9 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -497,294 +495,301 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.3888610368610368</v>
+        <v>0.05831578188463128</v>
       </c>
       <c r="D4">
-        <v>0.02970094170094171</v>
+        <v>0.9696456182418246</v>
       </c>
       <c r="E4">
-        <v>-0.02851416451416452</v>
+        <v>-0.975222476192899</v>
       </c>
       <c r="F4">
-        <v>0.05552436752436753</v>
+        <v>0.9008582696983307</v>
       </c>
       <c r="H4">
-        <v>0.09387080187080188</v>
+        <v>0.2997154556046182</v>
       </c>
       <c r="I4">
-        <v>0.994872682872683</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.7344220184648806</v>
+      </c>
+      <c r="J4">
+        <v>0.9747178511291853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C5">
-        <v>0.05127195927195927</v>
+        <v>0.03243359736134389</v>
       </c>
       <c r="D5">
-        <v>0.9758213918213919</v>
+        <v>0.05167930421117217</v>
       </c>
       <c r="E5">
-        <v>-0.9994397554397555</v>
+        <v>0.002486588163463526</v>
       </c>
       <c r="F5">
-        <v>0.9954676434676435</v>
+        <v>0.02176502659860106</v>
       </c>
       <c r="H5">
-        <v>0.8731298491298493</v>
+        <v>0.06440701774428069</v>
       </c>
       <c r="I5">
-        <v>0.116002292002292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.02732779376511175</v>
+      </c>
+      <c r="J5">
+        <v>0.02134413969549851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.02422501222501222</v>
+        <v>0.04771422210056887</v>
       </c>
       <c r="D6">
-        <v>0.174006066006066</v>
+        <v>0.07955843799833751</v>
       </c>
       <c r="E6">
-        <v>-0.03806445806445807</v>
+        <v>0.006257323738292948</v>
       </c>
       <c r="F6">
-        <v>-0.01649203649203649</v>
+        <v>-0.04567332989093319</v>
       </c>
       <c r="H6">
-        <v>0.1343105183105183</v>
+        <v>0.01550142657205706</v>
       </c>
       <c r="I6">
-        <v>0.08436410436410437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-0.03496981800679272</v>
+      </c>
+      <c r="J6">
+        <v>0.006310359231291893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.05304546504546505</v>
+        <v>0.06227084946683397</v>
       </c>
       <c r="D7">
-        <v>0.2085697365697366</v>
+        <v>0.171234376257375</v>
       </c>
       <c r="E7">
-        <v>-0.04747375147375148</v>
+        <v>0.1901031738441269</v>
       </c>
       <c r="F7">
-        <v>0.1088373848373848</v>
+        <v>0.3424159088326363</v>
       </c>
       <c r="H7">
-        <v>0.4854551814551815</v>
+        <v>0.8119513938540557</v>
       </c>
       <c r="I7">
-        <v>-0.002973674973674974</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.6532162222246488</v>
+      </c>
+      <c r="J7">
+        <v>-0.03414283544528255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C8">
-        <v>0.8271602151602152</v>
+        <v>0.6944015667200626</v>
       </c>
       <c r="D8">
-        <v>0.04431489231489232</v>
+        <v>0.0003540920781636831</v>
       </c>
       <c r="E8">
-        <v>-0.04643134643134644</v>
+        <v>-0.01226857450674298</v>
       </c>
       <c r="F8">
-        <v>0.05022937422937423</v>
+        <v>-0.005716891140675645</v>
       </c>
       <c r="H8">
-        <v>0.04717718317718318</v>
+        <v>-0.02644223241768929</v>
       </c>
       <c r="I8">
-        <v>0.03626667626667627</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.01013140562125622</v>
+      </c>
+      <c r="J8">
+        <v>0.001995862832744627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.2325055005055005</v>
+        <v>0.4278411499456459</v>
       </c>
       <c r="D9">
-        <v>0.01098069498069498</v>
+        <v>-0.00877362227094489</v>
       </c>
       <c r="E9">
-        <v>-0.006356658356658357</v>
+        <v>0.01120768172830727</v>
       </c>
       <c r="F9">
-        <v>0.008595512595512595</v>
+        <v>-0.004911329476453179</v>
       </c>
       <c r="H9">
-        <v>0.01444349044349044</v>
+        <v>0.006724478860979153</v>
       </c>
       <c r="I9">
-        <v>0.03643900843900844</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-0.003638879569555182</v>
+      </c>
+      <c r="J9">
+        <v>-0.01375664753253893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-0.007503907503907504</v>
+        <v>0.02697139461485578</v>
       </c>
       <c r="D10">
-        <v>0.03296974496974497</v>
+        <v>0.003825071385002854</v>
       </c>
       <c r="E10">
-        <v>-0.02396270396270396</v>
+        <v>-0.01243446164937846</v>
       </c>
       <c r="F10">
-        <v>0.02476239676239676</v>
+        <v>0.004270110698804427</v>
       </c>
       <c r="H10">
-        <v>0.03884322284322284</v>
+        <v>-0.008363663662546546</v>
       </c>
       <c r="I10">
-        <v>-0.0235991755991756</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.007364543334581732</v>
+      </c>
+      <c r="J10">
+        <v>0.00709263868693979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.1710435270435271</v>
+        <v>0.2113271460530858</v>
       </c>
       <c r="D11">
-        <v>-0.00359023559023559</v>
+        <v>0.0001760622790424911</v>
       </c>
       <c r="E11">
-        <v>0.006983970983970984</v>
+        <v>-0.001315681492627259</v>
       </c>
       <c r="F11">
-        <v>-0.01384359784359784</v>
+        <v>-0.001323811348952454</v>
       </c>
       <c r="H11">
-        <v>-0.01823627423627424</v>
+        <v>-0.006028763377150534</v>
       </c>
       <c r="I11">
-        <v>-0.01488534288534289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.002312393372495735</v>
+      </c>
+      <c r="J11">
+        <v>-0.003385883176979289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.1347063747063747</v>
+        <v>0.1284625938745037</v>
       </c>
       <c r="D12">
-        <v>-0.0447997887997888</v>
+        <v>0.1313715268548611</v>
       </c>
       <c r="E12">
-        <v>0.02955282555282556</v>
+        <v>0.0815810350072414</v>
       </c>
       <c r="F12">
-        <v>-0.02356334356334357</v>
+        <v>0.2299450315978012</v>
       </c>
       <c r="H12">
-        <v>-0.04006162006162007</v>
+        <v>0.4708211171688446</v>
       </c>
       <c r="I12">
-        <v>0.0728093528093528</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.01965921784236871</v>
+      </c>
+      <c r="J12">
+        <v>0.0241950540668351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-0.2569000129000129</v>
+        <v>-0.3693392228055689</v>
       </c>
       <c r="D13">
-        <v>0.004621384621384622</v>
+        <v>0.01216134144645366</v>
       </c>
       <c r="E13">
-        <v>-0.009213189213189213</v>
+        <v>-0.01501264648850586</v>
       </c>
       <c r="F13">
-        <v>0.001095217095217095</v>
+        <v>0.007245784417831376</v>
       </c>
       <c r="H13">
-        <v>-0.01967747567747568</v>
+        <v>-0.00708484953139398</v>
       </c>
       <c r="I13">
-        <v>0.001071217071217071</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>-0.01598096798096798</v>
-      </c>
-      <c r="D14">
-        <v>-0.02825596025596026</v>
-      </c>
-      <c r="E14">
-        <v>0.02223881823881824</v>
-      </c>
-      <c r="F14">
-        <v>-0.02294247494247495</v>
-      </c>
-      <c r="H14">
-        <v>-0.03631215631215631</v>
-      </c>
-      <c r="I14">
-        <v>0.003181455181455182</v>
+        <v>0.009378053943122156</v>
+      </c>
+      <c r="J13">
+        <v>0.01133482879456183</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C1:J1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A11:A13"/>
   </mergeCells>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
@@ -73,7 +73,7 @@
     <t>Lipid retention [%]</t>
   </si>
   <si>
-    <t>Additional lipid extraction efficiency [%]</t>
+    <t>Bagasse lipid extraction efficiency [%]</t>
   </si>
   <si>
     <t>Capacity [ton/hr]</t>
@@ -515,25 +515,25 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.05831578188463128</v>
+        <v>0.01444236105902648</v>
       </c>
       <c r="D4">
-        <v>0.9696456182418246</v>
+        <v>0.9054916372909324</v>
       </c>
       <c r="E4">
-        <v>-0.975222476192899</v>
+        <v>-0.9773569339233482</v>
       </c>
       <c r="F4">
-        <v>0.9008582696983307</v>
+        <v>0.8608070201755045</v>
       </c>
       <c r="H4">
-        <v>0.2997154556046182</v>
+        <v>0.109868746718668</v>
       </c>
       <c r="I4">
-        <v>0.7344220184648806</v>
+        <v>0.6153678841971051</v>
       </c>
       <c r="J4">
-        <v>0.9747178511291853</v>
+        <v>0.9290407260181506</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -542,25 +542,25 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>0.03243359736134389</v>
+        <v>0.1106382659566489</v>
       </c>
       <c r="D5">
-        <v>0.05167930421117217</v>
+        <v>0.2132198304957624</v>
       </c>
       <c r="E5">
-        <v>0.002486588163463526</v>
+        <v>-0.04777619440486013</v>
       </c>
       <c r="F5">
-        <v>0.02176502659860106</v>
+        <v>0.1837830945773645</v>
       </c>
       <c r="H5">
-        <v>0.06440701774428069</v>
+        <v>0.2848241206030152</v>
       </c>
       <c r="I5">
-        <v>0.02732779376511175</v>
+        <v>0.1814535363384085</v>
       </c>
       <c r="J5">
-        <v>0.02134413969549851</v>
+        <v>0.112870321758044</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -569,25 +569,25 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.04771422210056887</v>
+        <v>0.1157818945473637</v>
       </c>
       <c r="D6">
-        <v>0.07955843799833751</v>
+        <v>0.3366729168229206</v>
       </c>
       <c r="E6">
-        <v>0.006257323738292948</v>
+        <v>-0.01833195829895748</v>
       </c>
       <c r="F6">
-        <v>-0.04567332989093319</v>
+        <v>-0.1367209180229506</v>
       </c>
       <c r="H6">
-        <v>0.01550142657205706</v>
+        <v>0.06141303532588316</v>
       </c>
       <c r="I6">
-        <v>-0.03496981800679272</v>
+        <v>-0.1361899047476187</v>
       </c>
       <c r="J6">
-        <v>0.006310359231291893</v>
+        <v>0.06338858471461788</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -596,25 +596,25 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.06227084946683397</v>
+        <v>0.1319132978324458</v>
       </c>
       <c r="D7">
-        <v>0.171234376257375</v>
+        <v>0.09170779269481738</v>
       </c>
       <c r="E7">
-        <v>0.1901031738441269</v>
+        <v>0.2503607590189755</v>
       </c>
       <c r="F7">
-        <v>0.3424159088326363</v>
+        <v>0.2926633165829146</v>
       </c>
       <c r="H7">
-        <v>0.8119513938540557</v>
+        <v>0.8045796144903624</v>
       </c>
       <c r="I7">
-        <v>0.6532162222246488</v>
+        <v>0.6976464411610291</v>
       </c>
       <c r="J7">
-        <v>-0.03414283544528255</v>
+        <v>-0.07246681167029177</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -625,25 +625,25 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>0.6944015667200626</v>
+        <v>0.7028215705392636</v>
       </c>
       <c r="D8">
-        <v>0.0003540920781636831</v>
+        <v>0.04548113702842571</v>
       </c>
       <c r="E8">
-        <v>-0.01226857450674298</v>
+        <v>-0.02687617190429761</v>
       </c>
       <c r="F8">
-        <v>-0.005716891140675645</v>
+        <v>0.07186379659491487</v>
       </c>
       <c r="H8">
-        <v>-0.02644223241768929</v>
+        <v>0.04589064726618167</v>
       </c>
       <c r="I8">
-        <v>-0.01013140562125622</v>
+        <v>0.06453761344033601</v>
       </c>
       <c r="J8">
-        <v>0.001995862832744627</v>
+        <v>0.02938423460586515</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -654,25 +654,25 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.4278411499456459</v>
+        <v>0.4342368559213981</v>
       </c>
       <c r="D9">
-        <v>-0.00877362227094489</v>
+        <v>-0.09235580889522239</v>
       </c>
       <c r="E9">
-        <v>0.01120768172830727</v>
+        <v>0.08013350333758347</v>
       </c>
       <c r="F9">
-        <v>-0.004911329476453179</v>
+        <v>-0.0853206330158254</v>
       </c>
       <c r="H9">
-        <v>0.006724478860979153</v>
+        <v>-0.01752793819845496</v>
       </c>
       <c r="I9">
-        <v>-0.003638879569555182</v>
+        <v>-0.02825170629265732</v>
       </c>
       <c r="J9">
-        <v>-0.01375664753253893</v>
+        <v>-0.08870321758043952</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -683,25 +683,25 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0.02697139461485578</v>
+        <v>0.09866796669916748</v>
       </c>
       <c r="D10">
-        <v>0.003825071385002854</v>
+        <v>-0.002994074851871297</v>
       </c>
       <c r="E10">
-        <v>-0.01243446164937846</v>
+        <v>-0.04183604590114753</v>
       </c>
       <c r="F10">
-        <v>0.004270110698804427</v>
+        <v>0.01905497637440936</v>
       </c>
       <c r="H10">
-        <v>-0.008363663662546546</v>
+        <v>-0.002796069901747544</v>
       </c>
       <c r="I10">
-        <v>-0.007364543334581732</v>
+        <v>-0.01152028800720018</v>
       </c>
       <c r="J10">
-        <v>0.00709263868693979</v>
+        <v>0.04182854571364285</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -712,25 +712,25 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.2113271460530858</v>
+        <v>0.2010365259131479</v>
       </c>
       <c r="D11">
-        <v>0.0001760622790424911</v>
+        <v>0.0634215855396385</v>
       </c>
       <c r="E11">
-        <v>-0.001315681492627259</v>
+        <v>-0.03498987474686868</v>
       </c>
       <c r="F11">
-        <v>-0.001323811348952454</v>
+        <v>0.07256581414535364</v>
       </c>
       <c r="H11">
-        <v>-0.006028763377150534</v>
+        <v>0.08938723468086704</v>
       </c>
       <c r="I11">
-        <v>0.002312393372495735</v>
+        <v>0.1057781444536114</v>
       </c>
       <c r="J11">
-        <v>-0.003385883176979289</v>
+        <v>0.08425260631515789</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -739,25 +739,25 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.1284625938745037</v>
+        <v>0.1235865896647416</v>
       </c>
       <c r="D12">
-        <v>0.1313715268548611</v>
+        <v>0.08455411385284634</v>
       </c>
       <c r="E12">
-        <v>0.0815810350072414</v>
+        <v>0.09969549238730969</v>
       </c>
       <c r="F12">
-        <v>0.2299450315978012</v>
+        <v>0.1820535513387835</v>
       </c>
       <c r="H12">
-        <v>0.4708211171688446</v>
+        <v>0.4177814445361135</v>
       </c>
       <c r="I12">
-        <v>0.01965921784236871</v>
+        <v>-0.07653491337283434</v>
       </c>
       <c r="J12">
-        <v>0.0241950540668351</v>
+        <v>-0.01932948323708093</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -766,25 +766,25 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-0.3693392228055689</v>
+        <v>-0.3042901072526814</v>
       </c>
       <c r="D13">
-        <v>0.01216134144645366</v>
+        <v>0.002371559288982225</v>
       </c>
       <c r="E13">
-        <v>-0.01501264648850586</v>
+        <v>-0.003367584189604741</v>
       </c>
       <c r="F13">
-        <v>0.007245784417831376</v>
+        <v>0.02346058651466287</v>
       </c>
       <c r="H13">
-        <v>-0.00708484953139398</v>
+        <v>0.02072601815045376</v>
       </c>
       <c r="I13">
-        <v>0.009378053943122156</v>
+        <v>0.0548068701717543</v>
       </c>
       <c r="J13">
-        <v>0.01133482879456183</v>
+        <v>-0.01204980124503113</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Element</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
+  </si>
+  <si>
+    <t>Feedstock consumption [ton/yr]</t>
   </si>
   <si>
     <t>Heat exchanger network error [%]</t>
@@ -449,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +472,9 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -498,298 +502,361 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>0.01444236105902648</v>
+        <v>-0.7639510987774696</v>
       </c>
       <c r="D4">
-        <v>0.9054916372909324</v>
+        <v>0.9498207455186382</v>
       </c>
       <c r="E4">
-        <v>-0.9773569339233482</v>
+        <v>-0.9780214505362635</v>
       </c>
       <c r="F4">
-        <v>0.8608070201755045</v>
+        <v>-0.9881992049801247</v>
+      </c>
+      <c r="G4">
+        <v>0.9861157360345191</v>
       </c>
       <c r="H4">
-        <v>0.109868746718668</v>
+        <v>-0.9853971349283733</v>
       </c>
       <c r="I4">
-        <v>0.6153678841971051</v>
+        <v>0.9383169579239482</v>
       </c>
       <c r="J4">
-        <v>0.9290407260181506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>-0.07455936398409961</v>
+      </c>
+      <c r="K4">
+        <v>0.7652816320408012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>0.1106382659566489</v>
+        <v>-0.06547363684092103</v>
       </c>
       <c r="D5">
-        <v>0.2132198304957624</v>
+        <v>0.05502287557188931</v>
       </c>
       <c r="E5">
-        <v>-0.04777619440486013</v>
+        <v>-0.04880822020550515</v>
       </c>
       <c r="F5">
-        <v>0.1837830945773645</v>
+        <v>-0.0601515037875947</v>
+      </c>
+      <c r="G5">
+        <v>0.07853100852049111</v>
       </c>
       <c r="H5">
-        <v>0.2848241206030152</v>
+        <v>-0.0647851196279907</v>
       </c>
       <c r="I5">
-        <v>0.1814535363384085</v>
+        <v>0.1163894097352434</v>
       </c>
       <c r="J5">
-        <v>0.112870321758044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>0.1357848946223656</v>
+      </c>
+      <c r="K5">
+        <v>-0.0144513612840321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>0.1157818945473637</v>
+        <v>0.07710792769819247</v>
       </c>
       <c r="D6">
-        <v>0.3366729168229206</v>
+        <v>0.2264696617415436</v>
       </c>
       <c r="E6">
-        <v>-0.01833195829895748</v>
+        <v>-0.0186724668116703</v>
       </c>
       <c r="F6">
-        <v>-0.1367209180229506</v>
+        <v>-0.06441911047776196</v>
+      </c>
+      <c r="G6">
+        <v>0.0607470636243027</v>
       </c>
       <c r="H6">
-        <v>0.06141303532588316</v>
+        <v>-0.02975624390609766</v>
       </c>
       <c r="I6">
-        <v>-0.1361899047476187</v>
+        <v>0.003304582614565365</v>
       </c>
       <c r="J6">
-        <v>0.06338858471461788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>-0.06317257931448288</v>
+      </c>
+      <c r="K6">
+        <v>0.2507012675316883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>0.1319132978324458</v>
+        <v>0.2086117152928824</v>
       </c>
       <c r="D7">
-        <v>0.09170779269481738</v>
+        <v>0.08200555013875346</v>
       </c>
       <c r="E7">
-        <v>0.2503607590189755</v>
+        <v>0.247660691517288</v>
       </c>
       <c r="F7">
-        <v>0.2926633165829146</v>
+        <v>0.1620685517137928</v>
+      </c>
+      <c r="G7">
+        <v>-0.1714561668778564</v>
       </c>
       <c r="H7">
-        <v>0.8045796144903624</v>
+        <v>0.2294307357683943</v>
       </c>
       <c r="I7">
-        <v>0.6976464411610291</v>
+        <v>0.1273726843171079</v>
       </c>
       <c r="J7">
-        <v>-0.07246681167029177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>0.8632430810770271</v>
+      </c>
+      <c r="K7">
+        <v>0.04958673966849172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>0.7028215705392636</v>
+        <v>0.3525238130953275</v>
       </c>
       <c r="D8">
-        <v>0.04548113702842571</v>
+        <v>0.05234530863271583</v>
       </c>
       <c r="E8">
-        <v>-0.02687617190429761</v>
+        <v>-0.02727218180454512</v>
       </c>
       <c r="F8">
-        <v>0.07186379659491487</v>
+        <v>-0.0563939098477462</v>
+      </c>
+      <c r="G8">
+        <v>0.04852958272556034</v>
       </c>
       <c r="H8">
-        <v>0.04589064726618167</v>
+        <v>-0.0376929423235581</v>
       </c>
       <c r="I8">
-        <v>0.06453761344033601</v>
+        <v>0.06905272631815797</v>
       </c>
       <c r="J8">
-        <v>0.02938423460586515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>0.04300307507687693</v>
+      </c>
+      <c r="K8">
+        <v>-0.0008625215630390762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0.4342368559213981</v>
+        <v>0.4398424960624016</v>
       </c>
       <c r="D9">
-        <v>-0.09235580889522239</v>
+        <v>-0.09131928298207456</v>
       </c>
       <c r="E9">
-        <v>0.08013350333758347</v>
+        <v>0.07982449561239033</v>
       </c>
       <c r="F9">
-        <v>-0.0853206330158254</v>
+        <v>0.09366534163354084</v>
+      </c>
+      <c r="G9">
+        <v>-0.09636335745143992</v>
       </c>
       <c r="H9">
-        <v>-0.01752793819845496</v>
+        <v>0.08894922373059329</v>
       </c>
       <c r="I9">
-        <v>-0.02825170629265732</v>
+        <v>-0.08968424210605266</v>
       </c>
       <c r="J9">
-        <v>-0.08870321758043952</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>-0.005701642541063528</v>
+      </c>
+      <c r="K9">
+        <v>-0.007197179929498239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>0.09866796669916748</v>
+        <v>0.0112532813320333</v>
       </c>
       <c r="D10">
-        <v>-0.002994074851871297</v>
+        <v>0.01836795919897998</v>
       </c>
       <c r="E10">
-        <v>-0.04183604590114753</v>
+        <v>-0.04202805070126753</v>
       </c>
       <c r="F10">
-        <v>0.01905497637440936</v>
+        <v>-0.0989484737118428</v>
+      </c>
+      <c r="G10">
+        <v>0.03083639539454768</v>
       </c>
       <c r="H10">
-        <v>-0.002796069901747544</v>
+        <v>-0.04698267456686418</v>
       </c>
       <c r="I10">
-        <v>-0.01152028800720018</v>
+        <v>0.002701567539188481</v>
       </c>
       <c r="J10">
-        <v>0.04182854571364285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>-0.01775744393609841</v>
+      </c>
+      <c r="K10">
+        <v>0.0456761419035476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>0.2010365259131479</v>
+        <v>-0.0371814295357384</v>
       </c>
       <c r="D11">
-        <v>0.0634215855396385</v>
+        <v>0.07894547363684093</v>
       </c>
       <c r="E11">
-        <v>-0.03498987474686868</v>
+        <v>-0.03430585764644117</v>
       </c>
       <c r="F11">
-        <v>0.07256581414535364</v>
+        <v>-0.02637815945398635</v>
+      </c>
+      <c r="G11">
+        <v>0.04706384804797197</v>
       </c>
       <c r="H11">
-        <v>0.08938723468086704</v>
+        <v>-0.03370584264606616</v>
       </c>
       <c r="I11">
-        <v>0.1057781444536114</v>
+        <v>0.1046861171529288</v>
       </c>
       <c r="J11">
-        <v>0.08425260631515789</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>0.1039225980649516</v>
+      </c>
+      <c r="K11">
+        <v>0.01912397809945249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>0.1235865896647416</v>
+        <v>0.06499812495312383</v>
       </c>
       <c r="D12">
-        <v>0.08455411385284634</v>
+        <v>0.07178579464486613</v>
       </c>
       <c r="E12">
-        <v>0.09969549238730969</v>
+        <v>0.09856746418660468</v>
       </c>
       <c r="F12">
-        <v>0.1820535513387835</v>
+        <v>-0.01183529588239706</v>
+      </c>
+      <c r="G12">
+        <v>0.007761284448612976</v>
       </c>
       <c r="H12">
-        <v>0.4177814445361135</v>
+        <v>0.02279756993924848</v>
       </c>
       <c r="I12">
-        <v>-0.07653491337283434</v>
+        <v>-0.05253131328283208</v>
       </c>
       <c r="J12">
-        <v>-0.01932948323708093</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>0.401225530638266</v>
+      </c>
+      <c r="K12">
+        <v>0.003517587939698493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>-0.3042901072526814</v>
+        <v>-0.1751098777469437</v>
       </c>
       <c r="D13">
-        <v>0.002371559288982225</v>
+        <v>0.0006960174004350109</v>
       </c>
       <c r="E13">
-        <v>-0.003367584189604741</v>
+        <v>-0.003400585014625366</v>
       </c>
       <c r="F13">
-        <v>0.02346058651466287</v>
+        <v>0.007677191929798246</v>
+      </c>
+      <c r="G13">
+        <v>0.01263042782029202</v>
       </c>
       <c r="H13">
-        <v>0.02072601815045376</v>
+        <v>-0.002031050776269407</v>
       </c>
       <c r="I13">
-        <v>0.0548068701717543</v>
+        <v>0.05007125178129453</v>
       </c>
       <c r="J13">
-        <v>-0.01204980124503113</v>
+        <v>0.01811745293632341</v>
+      </c>
+      <c r="K13">
+        <v>0.008608715217880447</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C1:K1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A11:A13"/>
   </mergeCells>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Element</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Natural gas consumption [MMcf/yr]</t>
-  </si>
-  <si>
-    <t>Productivity [MMGGE/yr]</t>
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
@@ -452,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,9 +469,8 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -502,361 +498,298 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>-0.7639510987774696</v>
+        <v>0.3932798319958</v>
       </c>
       <c r="D4">
-        <v>0.9498207455186382</v>
+        <v>0.9586484662116554</v>
       </c>
       <c r="E4">
         <v>-0.9780214505362635</v>
       </c>
       <c r="F4">
-        <v>-0.9881992049801247</v>
-      </c>
-      <c r="G4">
-        <v>0.9861157360345191</v>
+        <v>0.9128703217580439</v>
       </c>
       <c r="H4">
-        <v>-0.9853971349283733</v>
+        <v>0.6879996999924999</v>
       </c>
       <c r="I4">
-        <v>0.9383169579239482</v>
+        <v>-0.07455936398409961</v>
       </c>
       <c r="J4">
-        <v>-0.07455936398409961</v>
-      </c>
-      <c r="K4">
-        <v>0.7652816320408012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>0.5704627615690393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>-0.06547363684092103</v>
+        <v>0.003972099302482562</v>
       </c>
       <c r="D5">
-        <v>0.05502287557188931</v>
+        <v>0.05310882772069302</v>
       </c>
       <c r="E5">
         <v>-0.04880822020550515</v>
       </c>
       <c r="F5">
-        <v>-0.0601515037875947</v>
-      </c>
-      <c r="G5">
-        <v>0.07853100852049111</v>
+        <v>0.1784009600240006</v>
       </c>
       <c r="H5">
-        <v>-0.0647851196279907</v>
+        <v>0.1673381834545864</v>
       </c>
       <c r="I5">
-        <v>0.1163894097352434</v>
+        <v>0.1357848946223656</v>
       </c>
       <c r="J5">
-        <v>0.1357848946223656</v>
-      </c>
-      <c r="K5">
-        <v>-0.0144513612840321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0.1161989049726243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>0.07710792769819247</v>
+        <v>0.06856971424285609</v>
       </c>
       <c r="D6">
-        <v>0.2264696617415436</v>
+        <v>0.1873516837920948</v>
       </c>
       <c r="E6">
         <v>-0.0186724668116703</v>
       </c>
       <c r="F6">
-        <v>-0.06441911047776196</v>
-      </c>
-      <c r="G6">
-        <v>0.0607470636243027</v>
+        <v>-0.0958298957473937</v>
       </c>
       <c r="H6">
-        <v>-0.02975624390609766</v>
+        <v>-0.08560414010350259</v>
       </c>
       <c r="I6">
-        <v>0.003304582614565365</v>
+        <v>-0.06317257931448288</v>
       </c>
       <c r="J6">
-        <v>-0.06317257931448288</v>
-      </c>
-      <c r="K6">
-        <v>0.2507012675316883</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>-0.1596204905122628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>0.2086117152928824</v>
+        <v>0.06268056701417536</v>
       </c>
       <c r="D7">
-        <v>0.08200555013875346</v>
+        <v>0.0837290932273307</v>
       </c>
       <c r="E7">
         <v>0.247660691517288</v>
       </c>
       <c r="F7">
-        <v>0.1620685517137928</v>
-      </c>
-      <c r="G7">
-        <v>-0.1714561668778564</v>
+        <v>0.2487602190054752</v>
       </c>
       <c r="H7">
-        <v>0.2294307357683943</v>
+        <v>0.6338543463586591</v>
       </c>
       <c r="I7">
-        <v>0.1273726843171079</v>
+        <v>0.8632430810770271</v>
       </c>
       <c r="J7">
-        <v>0.8632430810770271</v>
-      </c>
-      <c r="K7">
-        <v>0.04958673966849172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>-0.3382719567989201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>0.3525238130953275</v>
+        <v>0.540601515037876</v>
       </c>
       <c r="D8">
-        <v>0.05234530863271583</v>
+        <v>0.04690167254181355</v>
       </c>
       <c r="E8">
         <v>-0.02727218180454512</v>
       </c>
       <c r="F8">
-        <v>-0.0563939098477462</v>
-      </c>
-      <c r="G8">
-        <v>0.04852958272556034</v>
+        <v>0.06855171379284483</v>
       </c>
       <c r="H8">
-        <v>-0.0376929423235581</v>
+        <v>0.06841671041776046</v>
       </c>
       <c r="I8">
-        <v>0.06905272631815797</v>
+        <v>0.04300307507687693</v>
       </c>
       <c r="J8">
-        <v>0.04300307507687693</v>
-      </c>
-      <c r="K8">
-        <v>-0.0008625215630390762</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>-0.002331058276456912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>0.4398424960624016</v>
+        <v>0.5568184204605116</v>
       </c>
       <c r="D9">
-        <v>-0.09131928298207456</v>
+        <v>-0.09276981924548115</v>
       </c>
       <c r="E9">
         <v>0.07982449561239033</v>
       </c>
       <c r="F9">
-        <v>0.09366534163354084</v>
-      </c>
-      <c r="G9">
-        <v>-0.09636335745143992</v>
+        <v>-0.09091727293182331</v>
       </c>
       <c r="H9">
-        <v>0.08894922373059329</v>
+        <v>-0.04249906247656193</v>
       </c>
       <c r="I9">
-        <v>-0.08968424210605266</v>
+        <v>-0.005701642541063528</v>
       </c>
       <c r="J9">
-        <v>-0.005701642541063528</v>
-      </c>
-      <c r="K9">
-        <v>-0.007197179929498239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>0.004129603240081003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>0.0112532813320333</v>
+        <v>0.07990399759994002</v>
       </c>
       <c r="D10">
-        <v>0.01836795919897998</v>
+        <v>0.01854796369909248</v>
       </c>
       <c r="E10">
         <v>-0.04202805070126753</v>
       </c>
       <c r="F10">
-        <v>-0.0989484737118428</v>
-      </c>
-      <c r="G10">
-        <v>0.03083639539454768</v>
+        <v>0.01186229655741394</v>
       </c>
       <c r="H10">
-        <v>-0.04698267456686418</v>
+        <v>-0.007225680642016051</v>
       </c>
       <c r="I10">
-        <v>0.002701567539188481</v>
+        <v>-0.01775744393609841</v>
       </c>
       <c r="J10">
-        <v>-0.01775744393609841</v>
-      </c>
-      <c r="K10">
-        <v>0.0456761419035476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>0.005188629715742894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>-0.0371814295357384</v>
+        <v>0.1152583814595365</v>
       </c>
       <c r="D11">
-        <v>0.07894547363684093</v>
+        <v>0.08453311332783321</v>
       </c>
       <c r="E11">
         <v>-0.03430585764644117</v>
       </c>
       <c r="F11">
-        <v>-0.02637815945398635</v>
-      </c>
-      <c r="G11">
-        <v>0.04706384804797197</v>
+        <v>0.086579164479112</v>
       </c>
       <c r="H11">
-        <v>-0.03370584264606616</v>
+        <v>0.1108707717692942</v>
       </c>
       <c r="I11">
-        <v>0.1046861171529288</v>
+        <v>0.1039225980649516</v>
       </c>
       <c r="J11">
-        <v>0.1039225980649516</v>
-      </c>
-      <c r="K11">
-        <v>0.01912397809945249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>-0.02898522463061577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>0.06499812495312383</v>
+        <v>0.07033975849396236</v>
       </c>
       <c r="D12">
-        <v>0.07178579464486613</v>
+        <v>0.06853521338033451</v>
       </c>
       <c r="E12">
         <v>0.09856746418660468</v>
       </c>
       <c r="F12">
-        <v>-0.01183529588239706</v>
-      </c>
-      <c r="G12">
-        <v>0.007761284448612976</v>
+        <v>0.1125448136203405</v>
       </c>
       <c r="H12">
-        <v>0.02279756993924848</v>
+        <v>-0.08560114002850072</v>
       </c>
       <c r="I12">
-        <v>-0.05253131328283208</v>
+        <v>0.401225530638266</v>
       </c>
       <c r="J12">
-        <v>0.401225530638266</v>
-      </c>
-      <c r="K12">
-        <v>0.003517587939698493</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0.01810245256131403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>-0.1751098777469437</v>
+        <v>-0.2635475886897173</v>
       </c>
       <c r="D13">
-        <v>0.0006960174004350109</v>
+        <v>0.004506112652816321</v>
       </c>
       <c r="E13">
         <v>-0.003400585014625366</v>
       </c>
       <c r="F13">
-        <v>0.007677191929798246</v>
-      </c>
-      <c r="G13">
-        <v>0.01263042782029202</v>
+        <v>0.02306757668941723</v>
       </c>
       <c r="H13">
-        <v>-0.002031050776269407</v>
+        <v>0.05160429010725268</v>
       </c>
       <c r="I13">
-        <v>0.05007125178129453</v>
+        <v>0.01811745293632341</v>
       </c>
       <c r="J13">
-        <v>0.01811745293632341</v>
-      </c>
-      <c r="K13">
-        <v>0.008608715217880447</v>
+        <v>0.03300682517062927</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C1:J1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A11:A13"/>
   </mergeCells>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
@@ -515,7 +515,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.3932798319958</v>
+        <v>0.4025305632640817</v>
       </c>
       <c r="D4">
         <v>0.9586484662116554</v>
@@ -524,16 +524,16 @@
         <v>-0.9780214505362635</v>
       </c>
       <c r="F4">
-        <v>0.9128703217580439</v>
+        <v>0.9191284782119555</v>
       </c>
       <c r="H4">
-        <v>0.6879996999924999</v>
+        <v>0.6936323408085203</v>
       </c>
       <c r="I4">
         <v>-0.07455936398409961</v>
       </c>
       <c r="J4">
-        <v>0.5704627615690393</v>
+        <v>-0.9836585914647867</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -542,7 +542,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>0.003972099302482562</v>
+        <v>0.007771694292357309</v>
       </c>
       <c r="D5">
         <v>0.05310882772069302</v>
@@ -551,16 +551,16 @@
         <v>-0.04880822020550515</v>
       </c>
       <c r="F5">
-        <v>0.1784009600240006</v>
+        <v>0.1760054001350034</v>
       </c>
       <c r="H5">
-        <v>0.1673381834545864</v>
+        <v>0.1662026550663767</v>
       </c>
       <c r="I5">
         <v>0.1357848946223656</v>
       </c>
       <c r="J5">
-        <v>0.1161989049726243</v>
+        <v>-0.03965499137478438</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -569,7 +569,7 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.06856971424285609</v>
+        <v>0.07621990549763745</v>
       </c>
       <c r="D6">
         <v>0.1873516837920948</v>
@@ -578,16 +578,16 @@
         <v>-0.0186724668116703</v>
       </c>
       <c r="F6">
-        <v>-0.0958298957473937</v>
+        <v>-0.09211730293257334</v>
       </c>
       <c r="H6">
-        <v>-0.08560414010350259</v>
+        <v>-0.08408160204005101</v>
       </c>
       <c r="I6">
         <v>-0.06317257931448288</v>
       </c>
       <c r="J6">
-        <v>-0.1596204905122628</v>
+        <v>-0.1621960549013726</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -596,7 +596,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.06268056701417536</v>
+        <v>0.06087452186304658</v>
       </c>
       <c r="D7">
         <v>0.0837290932273307</v>
@@ -605,16 +605,16 @@
         <v>0.247660691517288</v>
       </c>
       <c r="F7">
-        <v>0.2487602190054752</v>
+        <v>0.2360579014475362</v>
       </c>
       <c r="H7">
-        <v>0.6338543463586591</v>
+        <v>0.6283222080552016</v>
       </c>
       <c r="I7">
         <v>0.8632430810770271</v>
       </c>
       <c r="J7">
-        <v>-0.3382719567989201</v>
+        <v>0.05459236480912024</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -625,7 +625,7 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>0.540601515037876</v>
+        <v>0.5385254631365785</v>
       </c>
       <c r="D8">
         <v>0.04690167254181355</v>
@@ -634,16 +634,16 @@
         <v>-0.02727218180454512</v>
       </c>
       <c r="F8">
-        <v>0.06855171379284483</v>
+        <v>0.06597464936623416</v>
       </c>
       <c r="H8">
-        <v>0.06841671041776046</v>
+        <v>0.06518562964074102</v>
       </c>
       <c r="I8">
         <v>0.04300307507687693</v>
       </c>
       <c r="J8">
-        <v>-0.002331058276456912</v>
+        <v>-0.04677716942923574</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -654,7 +654,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.5568184204605116</v>
+        <v>0.5534808370209255</v>
       </c>
       <c r="D9">
         <v>-0.09276981924548115</v>
@@ -663,16 +663,16 @@
         <v>0.07982449561239033</v>
       </c>
       <c r="F9">
-        <v>-0.09091727293182331</v>
+        <v>-0.08738168454211356</v>
       </c>
       <c r="H9">
-        <v>-0.04249906247656193</v>
+        <v>-0.04232205805145129</v>
       </c>
       <c r="I9">
         <v>-0.005701642541063528</v>
       </c>
       <c r="J9">
-        <v>0.004129603240081003</v>
+        <v>0.09258231455786398</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -683,7 +683,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0.07990399759994002</v>
+        <v>0.07819695492387312</v>
       </c>
       <c r="D10">
         <v>0.01854796369909248</v>
@@ -692,16 +692,16 @@
         <v>-0.04202805070126753</v>
       </c>
       <c r="F10">
-        <v>0.01186229655741394</v>
+        <v>0.0124443111077777</v>
       </c>
       <c r="H10">
-        <v>-0.007225680642016051</v>
+        <v>-0.01108227705692643</v>
       </c>
       <c r="I10">
         <v>-0.01775744393609841</v>
       </c>
       <c r="J10">
-        <v>0.005188629715742894</v>
+        <v>-0.02968874221855547</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -712,7 +712,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.1152583814595365</v>
+        <v>0.1124773119327983</v>
       </c>
       <c r="D11">
         <v>0.08453311332783321</v>
@@ -721,16 +721,16 @@
         <v>-0.03430585764644117</v>
       </c>
       <c r="F11">
-        <v>0.086579164479112</v>
+        <v>0.08379659491487287</v>
       </c>
       <c r="H11">
-        <v>0.1108707717692942</v>
+        <v>0.1108422710567764</v>
       </c>
       <c r="I11">
         <v>0.1039225980649516</v>
       </c>
       <c r="J11">
-        <v>-0.02898522463061577</v>
+        <v>-0.06259206480162005</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -739,7 +739,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.07033975849396236</v>
+        <v>0.06986874671866797</v>
       </c>
       <c r="D12">
         <v>0.06853521338033451</v>
@@ -748,16 +748,16 @@
         <v>0.09856746418660468</v>
       </c>
       <c r="F12">
-        <v>0.1125448136203405</v>
+        <v>0.1127443186079652</v>
       </c>
       <c r="H12">
-        <v>-0.08560114002850072</v>
+        <v>-0.08446111152778819</v>
       </c>
       <c r="I12">
         <v>0.401225530638266</v>
       </c>
       <c r="J12">
-        <v>0.01810245256131403</v>
+        <v>0.01282682067051676</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -766,7 +766,7 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-0.2635475886897173</v>
+        <v>-0.2605955148878722</v>
       </c>
       <c r="D13">
         <v>0.004506112652816321</v>
@@ -775,16 +775,16 @@
         <v>-0.003400585014625366</v>
       </c>
       <c r="F13">
-        <v>0.02306757668941723</v>
+        <v>0.02152553813845346</v>
       </c>
       <c r="H13">
-        <v>0.05160429010725268</v>
+        <v>0.05384384609615241</v>
       </c>
       <c r="I13">
         <v>0.01811745293632341</v>
       </c>
       <c r="J13">
-        <v>0.03300682517062927</v>
+        <v>0.00414910372759319</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Element</t>
   </si>
@@ -28,16 +28,16 @@
     <t>MFPP [USD/ton]</t>
   </si>
   <si>
-    <t>Biodiesel production [MMGal/yr]</t>
-  </si>
-  <si>
-    <t>Ethanol production [MMGal/yr]</t>
-  </si>
-  <si>
-    <t>Electricity production [MMWhr/yr]</t>
-  </si>
-  <si>
-    <t>Natural gas consumption [MMcf/yr]</t>
+    <t>Biodiesel production [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Ethanol production [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Electricity production [kWhr/ton]</t>
+  </si>
+  <si>
+    <t>Natural gas consumption [cf/ton]</t>
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
@@ -49,6 +49,24 @@
     <t>Heat exchanger network error [%]</t>
   </si>
   <si>
+    <t>MFPP derivative [USD/ton]</t>
+  </si>
+  <si>
+    <t>Biodiesel production derivative [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Ethanol production derivative [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Electricity production derivative [kWhr/ton]</t>
+  </si>
+  <si>
+    <t>Natural gas consumption derivative [cf/ton]</t>
+  </si>
+  <si>
+    <t>TCI derivative [10^6*USD]</t>
+  </si>
+  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -67,7 +85,10 @@
     <t>biorefinery</t>
   </si>
   <si>
-    <t>Lipid content [dry wt. %]</t>
+    <t>Cane lipid content [dry wt. %]</t>
+  </si>
+  <si>
+    <t>Relative sorghum lipid content [dry wt. %]</t>
   </si>
   <si>
     <t>Lipid retention [%]</t>
@@ -449,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +490,14 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -498,300 +525,510 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>0.4025305632640817</v>
+        <v>0.431067611067611</v>
       </c>
       <c r="D4">
-        <v>0.9586484662116554</v>
+        <v>0.9784802944802945</v>
       </c>
       <c r="E4">
-        <v>-0.9780214505362635</v>
+        <v>-0.9971929571929571</v>
       </c>
       <c r="F4">
-        <v>0.9191284782119555</v>
+        <v>0.9840882960882961</v>
       </c>
       <c r="H4">
-        <v>0.6936323408085203</v>
+        <v>0.7031537231537232</v>
       </c>
       <c r="I4">
-        <v>-0.07455936398409961</v>
+        <v>-0.0415929295929296</v>
       </c>
       <c r="J4">
-        <v>-0.9836585914647867</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>0.1414308651280355</v>
+      </c>
+      <c r="K4">
+        <v>0.1745465585465586</v>
+      </c>
+      <c r="L4">
+        <v>-0.007428091428091429</v>
+      </c>
+      <c r="M4">
+        <v>-0.01683266883266883</v>
+      </c>
+      <c r="N4">
+        <v>-0.5314256674256674</v>
+      </c>
+      <c r="P4">
+        <v>-0.6082373722373723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>0.007771694292357309</v>
+        <v>0.09759030159030159</v>
       </c>
       <c r="D5">
-        <v>0.05310882772069302</v>
+        <v>0.0692101412101412</v>
       </c>
       <c r="E5">
-        <v>-0.04880822020550515</v>
+        <v>-0.07398553398553399</v>
       </c>
       <c r="F5">
-        <v>0.1760054001350034</v>
+        <v>0.07104527904527906</v>
       </c>
       <c r="H5">
-        <v>0.1662026550663767</v>
+        <v>-0.04511192111192112</v>
       </c>
       <c r="I5">
-        <v>0.1357848946223656</v>
+        <v>0.02059155259155259</v>
       </c>
       <c r="J5">
-        <v>-0.03965499137478438</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>-0.1342409738518655</v>
+      </c>
+      <c r="K5">
+        <v>0.7467412947412948</v>
+      </c>
+      <c r="L5">
+        <v>0.004672972672972673</v>
+      </c>
+      <c r="M5">
+        <v>0.2198303798303798</v>
+      </c>
+      <c r="N5">
+        <v>-0.04686579486579486</v>
+      </c>
+      <c r="P5">
+        <v>-0.137944913944914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>0.07621990549763745</v>
+        <v>-0.01274691674691675</v>
       </c>
       <c r="D6">
-        <v>0.1873516837920948</v>
+        <v>-0.04546107346107347</v>
       </c>
       <c r="E6">
-        <v>-0.0186724668116703</v>
+        <v>-0.008132636132636133</v>
       </c>
       <c r="F6">
-        <v>-0.09211730293257334</v>
+        <v>0.05494329094329095</v>
       </c>
       <c r="H6">
-        <v>-0.08408160204005101</v>
+        <v>0.06550898950898952</v>
       </c>
       <c r="I6">
-        <v>-0.06317257931448288</v>
+        <v>0.06424772824772824</v>
       </c>
       <c r="J6">
-        <v>-0.1621960549013726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>0.002347112375277724</v>
+      </c>
+      <c r="K6">
+        <v>-0.02444619644619645</v>
+      </c>
+      <c r="L6">
+        <v>-0.2681077721077721</v>
+      </c>
+      <c r="M6">
+        <v>0.01745000945000945</v>
+      </c>
+      <c r="N6">
+        <v>0.06446572046572047</v>
+      </c>
+      <c r="P6">
+        <v>0.05521810321810322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>0.04838226038226039</v>
+      </c>
+      <c r="D7">
+        <v>0.1726261726261726</v>
+      </c>
+      <c r="E7">
+        <v>0.003989559989559991</v>
+      </c>
+      <c r="F7">
+        <v>-0.1344897264897265</v>
+      </c>
+      <c r="H7">
+        <v>-0.1092421212421213</v>
+      </c>
+      <c r="I7">
+        <v>-0.04071701271701272</v>
+      </c>
+      <c r="J7">
+        <v>-0.01514085332254356</v>
+      </c>
+      <c r="K7">
+        <v>0.1512186192186192</v>
+      </c>
+      <c r="L7">
+        <v>0.9664648024648024</v>
+      </c>
+      <c r="M7">
+        <v>-0.03169349569349569</v>
+      </c>
+      <c r="N7">
+        <v>-0.4061300021300022</v>
+      </c>
+      <c r="P7">
+        <v>-0.2413116613116614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>0.03876750276750277</v>
+      </c>
+      <c r="D8">
+        <v>-0.03220647220647221</v>
+      </c>
+      <c r="E8">
+        <v>0.01965917565917566</v>
+      </c>
+      <c r="F8">
+        <v>0.03233260433260433</v>
+      </c>
+      <c r="H8">
+        <v>0.6626244386244386</v>
+      </c>
+      <c r="I8">
+        <v>0.8663863223863224</v>
+      </c>
+      <c r="J8">
+        <v>-0.08344514444648618</v>
+      </c>
+      <c r="K8">
+        <v>0.1653675093675094</v>
+      </c>
+      <c r="L8">
+        <v>-0.0503981663981664</v>
+      </c>
+      <c r="M8">
+        <v>0.2380619140619141</v>
+      </c>
+      <c r="N8">
+        <v>0.02553625353625354</v>
+      </c>
+      <c r="P8">
+        <v>0.1235269475269476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>0.5493061653061654</v>
+      </c>
+      <c r="D9">
+        <v>-0.002866238866238866</v>
+      </c>
+      <c r="E9">
+        <v>-0.01033811833811834</v>
+      </c>
+      <c r="F9">
+        <v>0.01388204588204589</v>
+      </c>
+      <c r="H9">
+        <v>0.0009636369636369639</v>
+      </c>
+      <c r="I9">
+        <v>-0.01252329652329653</v>
+      </c>
+      <c r="J9">
+        <v>0.02696358928715236</v>
+      </c>
+      <c r="K9">
+        <v>-0.307037299037299</v>
+      </c>
+      <c r="L9">
+        <v>-0.05478385878385879</v>
+      </c>
+      <c r="M9">
+        <v>-0.01420867420867421</v>
+      </c>
+      <c r="N9">
+        <v>0.05875991875991876</v>
+      </c>
+      <c r="P9">
+        <v>0.02214742614742615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
-        <v>0.06087452186304658</v>
-      </c>
-      <c r="D7">
-        <v>0.0837290932273307</v>
-      </c>
-      <c r="E7">
-        <v>0.247660691517288</v>
-      </c>
-      <c r="F7">
-        <v>0.2360579014475362</v>
-      </c>
-      <c r="H7">
-        <v>0.6283222080552016</v>
-      </c>
-      <c r="I7">
-        <v>0.8632430810770271</v>
-      </c>
-      <c r="J7">
-        <v>0.05459236480912024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>0.5545257145257145</v>
+      </c>
+      <c r="D10">
+        <v>0.001023385023385023</v>
+      </c>
+      <c r="E10">
+        <v>-0.001463509463509463</v>
+      </c>
+      <c r="F10">
+        <v>0.001857469857469857</v>
+      </c>
+      <c r="H10">
+        <v>0.007024507024507025</v>
+      </c>
+      <c r="I10">
+        <v>0.04376230376230376</v>
+      </c>
+      <c r="J10">
+        <v>0.007215811302401039</v>
+      </c>
+      <c r="K10">
+        <v>0.3685019245019245</v>
+      </c>
+      <c r="L10">
+        <v>-0.001847425847425847</v>
+      </c>
+      <c r="M10">
+        <v>0.007473163473163473</v>
+      </c>
+      <c r="N10">
+        <v>0.008105744105744106</v>
+      </c>
+      <c r="P10">
+        <v>0.007810963810963811</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
-        <v>0.5385254631365785</v>
-      </c>
-      <c r="D8">
-        <v>0.04690167254181355</v>
-      </c>
-      <c r="E8">
-        <v>-0.02727218180454512</v>
-      </c>
-      <c r="F8">
-        <v>0.06597464936623416</v>
-      </c>
-      <c r="H8">
-        <v>0.06518562964074102</v>
-      </c>
-      <c r="I8">
-        <v>0.04300307507687693</v>
-      </c>
-      <c r="J8">
-        <v>-0.04677716942923574</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>0.5534808370209255</v>
-      </c>
-      <c r="D9">
-        <v>-0.09276981924548115</v>
-      </c>
-      <c r="E9">
-        <v>0.07982449561239033</v>
-      </c>
-      <c r="F9">
-        <v>-0.08738168454211356</v>
-      </c>
-      <c r="H9">
-        <v>-0.04232205805145129</v>
-      </c>
-      <c r="I9">
-        <v>-0.005701642541063528</v>
-      </c>
-      <c r="J9">
-        <v>0.09258231455786398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>0.01876455076455077</v>
+      </c>
+      <c r="D11">
+        <v>0.07523874323874324</v>
+      </c>
+      <c r="E11">
+        <v>-0.07661047661047661</v>
+      </c>
+      <c r="F11">
+        <v>0.07143969543969544</v>
+      </c>
+      <c r="H11">
+        <v>0.01500645900645901</v>
+      </c>
+      <c r="I11">
+        <v>-0.05291790491790493</v>
+      </c>
+      <c r="J11">
+        <v>-0.01387215803862393</v>
+      </c>
+      <c r="K11">
+        <v>0.08962958962958964</v>
+      </c>
+      <c r="L11">
+        <v>-0.006748986748986749</v>
+      </c>
+      <c r="M11">
+        <v>0.0352968112968113</v>
+      </c>
+      <c r="N11">
+        <v>-0.03391764991764992</v>
+      </c>
+      <c r="P11">
+        <v>-0.05374068574068575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10">
-        <v>0.07819695492387312</v>
-      </c>
-      <c r="D10">
-        <v>0.01854796369909248</v>
-      </c>
-      <c r="E10">
-        <v>-0.04202805070126753</v>
-      </c>
-      <c r="F10">
-        <v>0.0124443111077777</v>
-      </c>
-      <c r="H10">
-        <v>-0.01108227705692643</v>
-      </c>
-      <c r="I10">
-        <v>-0.01775744393609841</v>
-      </c>
-      <c r="J10">
-        <v>-0.02968874221855547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>0.1124773119327983</v>
-      </c>
-      <c r="D11">
-        <v>0.08453311332783321</v>
-      </c>
-      <c r="E11">
-        <v>-0.03430585764644117</v>
-      </c>
-      <c r="F11">
-        <v>0.08379659491487287</v>
-      </c>
-      <c r="H11">
-        <v>0.1108422710567764</v>
-      </c>
-      <c r="I11">
-        <v>0.1039225980649516</v>
-      </c>
-      <c r="J11">
-        <v>-0.06259206480162005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>0.06986874671866797</v>
+        <v>0.07982562782562783</v>
       </c>
       <c r="D12">
-        <v>0.06853521338033451</v>
+        <v>-0.004921120921120922</v>
       </c>
       <c r="E12">
-        <v>0.09856746418660468</v>
+        <v>0.00640851040851041</v>
       </c>
       <c r="F12">
-        <v>0.1127443186079652</v>
+        <v>-0.004309060309060309</v>
       </c>
       <c r="H12">
-        <v>-0.08446111152778819</v>
+        <v>-0.01422213822213822</v>
       </c>
       <c r="I12">
-        <v>0.401225530638266</v>
+        <v>-0.02510431310431311</v>
       </c>
       <c r="J12">
-        <v>0.01282682067051676</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>-0.01380924797495895</v>
+      </c>
+      <c r="K12">
+        <v>0.01382462582462583</v>
+      </c>
+      <c r="L12">
+        <v>-0.01795276195276195</v>
+      </c>
+      <c r="M12">
+        <v>0.02876110076110076</v>
+      </c>
+      <c r="N12">
+        <v>-0.02526765726765727</v>
+      </c>
+      <c r="P12">
+        <v>-0.02224835824835825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>-0.2605955148878722</v>
+        <v>0.0860867060867061</v>
       </c>
       <c r="D13">
-        <v>0.004506112652816321</v>
+        <v>-0.03281552081552082</v>
       </c>
       <c r="E13">
-        <v>-0.003400585014625366</v>
+        <v>0.03022866622866623</v>
       </c>
       <c r="F13">
-        <v>0.02152553813845346</v>
+        <v>-0.02393565593565593</v>
       </c>
       <c r="H13">
-        <v>0.05384384609615241</v>
+        <v>-0.02446617646617647</v>
       </c>
       <c r="I13">
-        <v>0.01811745293632341</v>
+        <v>0.4709067749067749</v>
       </c>
       <c r="J13">
-        <v>0.00414910372759319</v>
+        <v>0.01360649576977372</v>
+      </c>
+      <c r="K13">
+        <v>-0.0551988071988072</v>
+      </c>
+      <c r="L13">
+        <v>-0.01862464262464263</v>
+      </c>
+      <c r="M13">
+        <v>-0.06141858141858143</v>
+      </c>
+      <c r="N13">
+        <v>-0.001158625158625159</v>
+      </c>
+      <c r="P13">
+        <v>0.03529018729018729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>-0.2934805974805975</v>
+      </c>
+      <c r="D14">
+        <v>-0.04790468390468391</v>
+      </c>
+      <c r="E14">
+        <v>0.05247172047172047</v>
+      </c>
+      <c r="F14">
+        <v>-0.05953957153957154</v>
+      </c>
+      <c r="H14">
+        <v>-0.05596549996549996</v>
+      </c>
+      <c r="I14">
+        <v>-0.02643480243480243</v>
+      </c>
+      <c r="J14">
+        <v>-0.04441554294852947</v>
+      </c>
+      <c r="K14">
+        <v>-0.0492000012000012</v>
+      </c>
+      <c r="L14">
+        <v>0.01557841557841558</v>
+      </c>
+      <c r="M14">
+        <v>0.01156094356094356</v>
+      </c>
+      <c r="N14">
+        <v>0.04026492426492427</v>
+      </c>
+      <c r="P14">
+        <v>0.02647419847419847</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
@@ -560,40 +560,40 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>0.431067611067611</v>
+        <v>0.4786078607860785</v>
       </c>
       <c r="D4">
-        <v>0.9784802944802945</v>
+        <v>0.9807140714071406</v>
       </c>
       <c r="E4">
-        <v>-0.9971929571929571</v>
+        <v>-0.9975997599759974</v>
       </c>
       <c r="F4">
-        <v>0.9840882960882961</v>
+        <v>0.9814101410141013</v>
       </c>
       <c r="H4">
-        <v>0.7031537231537232</v>
+        <v>0.698013801380138</v>
       </c>
       <c r="I4">
-        <v>-0.0415929295929296</v>
+        <v>-0.03313531353135313</v>
       </c>
       <c r="J4">
-        <v>0.1414308651280355</v>
+        <v>-0.3424422442244224</v>
       </c>
       <c r="K4">
-        <v>0.1745465585465586</v>
+        <v>0.1583798379837984</v>
       </c>
       <c r="L4">
-        <v>-0.007428091428091429</v>
+        <v>-0.0722112211221122</v>
       </c>
       <c r="M4">
-        <v>-0.01683266883266883</v>
+        <v>0.0326072607260726</v>
       </c>
       <c r="N4">
-        <v>-0.5314256674256674</v>
+        <v>0.3872187218721871</v>
       </c>
       <c r="P4">
-        <v>-0.6082373722373723</v>
+        <v>0.03977197719771978</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -602,40 +602,40 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>0.09759030159030159</v>
+        <v>0.00528052805280528</v>
       </c>
       <c r="D5">
-        <v>0.0692101412101412</v>
+        <v>-0.1148874887488749</v>
       </c>
       <c r="E5">
-        <v>-0.07398553398553399</v>
+        <v>0.1164476447644764</v>
       </c>
       <c r="F5">
-        <v>0.07104527904527906</v>
+        <v>-0.1027542754275428</v>
       </c>
       <c r="H5">
-        <v>-0.04511192111192112</v>
+        <v>-0.2465886588658865</v>
       </c>
       <c r="I5">
-        <v>0.02059155259155259</v>
+        <v>-0.1426222622262226</v>
       </c>
       <c r="J5">
-        <v>-0.1342409738518655</v>
+        <v>-0.06929492949294928</v>
       </c>
       <c r="K5">
-        <v>0.7467412947412948</v>
+        <v>0.1991839183918392</v>
       </c>
       <c r="L5">
-        <v>0.004672972672972673</v>
+        <v>-0.02035403540354035</v>
       </c>
       <c r="M5">
-        <v>0.2198303798303798</v>
+        <v>0.042004200420042</v>
       </c>
       <c r="N5">
-        <v>-0.04686579486579486</v>
+        <v>0.118967896789679</v>
       </c>
       <c r="P5">
-        <v>-0.137944913944914</v>
+        <v>0.01635763576357635</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -644,40 +644,40 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>-0.01274691674691675</v>
+        <v>0.1398499849984998</v>
       </c>
       <c r="D6">
-        <v>-0.04546107346107347</v>
+        <v>0.09605760576057605</v>
       </c>
       <c r="E6">
-        <v>-0.008132636132636133</v>
+        <v>-0.1193759375937594</v>
       </c>
       <c r="F6">
-        <v>0.05494329094329095</v>
+        <v>0.1609120912091209</v>
       </c>
       <c r="H6">
-        <v>0.06550898950898952</v>
+        <v>0.08194419441944194</v>
       </c>
       <c r="I6">
-        <v>0.06424772824772824</v>
+        <v>-0.04927692769276927</v>
       </c>
       <c r="J6">
-        <v>0.002347112375277724</v>
+        <v>0.03259525952595259</v>
       </c>
       <c r="K6">
-        <v>-0.02444619644619645</v>
+        <v>-0.02126612661266126</v>
       </c>
       <c r="L6">
-        <v>-0.2681077721077721</v>
+        <v>-0.1233483348334833</v>
       </c>
       <c r="M6">
-        <v>0.01745000945000945</v>
+        <v>0.01782178217821782</v>
       </c>
       <c r="N6">
-        <v>0.06446572046572047</v>
+        <v>-0.03426342634263426</v>
       </c>
       <c r="P6">
-        <v>0.05521810321810322</v>
+        <v>0.01292529252925292</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -686,40 +686,40 @@
         <v>26</v>
       </c>
       <c r="C7">
-        <v>0.04838226038226039</v>
+        <v>0.1547434743474347</v>
       </c>
       <c r="D7">
-        <v>0.1726261726261726</v>
+        <v>0.1198679867986799</v>
       </c>
       <c r="E7">
-        <v>0.003989559989559991</v>
+        <v>0.04458445844584458</v>
       </c>
       <c r="F7">
-        <v>-0.1344897264897265</v>
+        <v>-0.1604320432043204</v>
       </c>
       <c r="H7">
-        <v>-0.1092421212421213</v>
+        <v>-0.08806480648064806</v>
       </c>
       <c r="I7">
-        <v>-0.04071701271701272</v>
+        <v>0.007704770477047704</v>
       </c>
       <c r="J7">
-        <v>-0.01514085332254356</v>
+        <v>0.1778697869786978</v>
       </c>
       <c r="K7">
-        <v>0.1512186192186192</v>
+        <v>0.1843864386438644</v>
       </c>
       <c r="L7">
-        <v>0.9664648024648024</v>
+        <v>0.9638283828382838</v>
       </c>
       <c r="M7">
-        <v>-0.03169349569349569</v>
+        <v>-0.06255025502550254</v>
       </c>
       <c r="N7">
-        <v>-0.4061300021300022</v>
+        <v>-0.4957815781578156</v>
       </c>
       <c r="P7">
-        <v>-0.2413116613116614</v>
+        <v>-0.06159015901590158</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -728,40 +728,40 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>0.03876750276750277</v>
+        <v>0.04123612361236123</v>
       </c>
       <c r="D8">
-        <v>-0.03220647220647221</v>
+        <v>-0.06366636663666365</v>
       </c>
       <c r="E8">
-        <v>0.01965917565917566</v>
+        <v>0.07192319231923192</v>
       </c>
       <c r="F8">
-        <v>0.03233260433260433</v>
+        <v>-0.01816981698169817</v>
       </c>
       <c r="H8">
-        <v>0.6626244386244386</v>
+        <v>0.6435643564356436</v>
       </c>
       <c r="I8">
-        <v>0.8663863223863224</v>
+        <v>0.8634503450345034</v>
       </c>
       <c r="J8">
-        <v>-0.08344514444648618</v>
+        <v>-0.1334293429342934</v>
       </c>
       <c r="K8">
-        <v>0.1653675093675094</v>
+        <v>-0.00096009600960096</v>
       </c>
       <c r="L8">
-        <v>-0.0503981663981664</v>
+        <v>0.004872487248724872</v>
       </c>
       <c r="M8">
-        <v>0.2380619140619141</v>
+        <v>-0.1418781878187819</v>
       </c>
       <c r="N8">
-        <v>0.02553625353625354</v>
+        <v>-0.0257065706570657</v>
       </c>
       <c r="P8">
-        <v>0.1235269475269476</v>
+        <v>0.1338493849384938</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -772,40 +772,40 @@
         <v>28</v>
       </c>
       <c r="C9">
-        <v>0.5493061653061654</v>
+        <v>0.4663306330633062</v>
       </c>
       <c r="D9">
-        <v>-0.002866238866238866</v>
+        <v>0.02339033903390339</v>
       </c>
       <c r="E9">
-        <v>-0.01033811833811834</v>
+        <v>-0.03906390639063906</v>
       </c>
       <c r="F9">
-        <v>0.01388204588204589</v>
+        <v>0.02047404740474047</v>
       </c>
       <c r="H9">
-        <v>0.0009636369636369639</v>
+        <v>0.02973897389738973</v>
       </c>
       <c r="I9">
-        <v>-0.01252329652329653</v>
+        <v>0.09438943894389439</v>
       </c>
       <c r="J9">
-        <v>0.02696358928715236</v>
+        <v>-0.1061386138613861</v>
       </c>
       <c r="K9">
-        <v>-0.307037299037299</v>
+        <v>-0.6338433843384337</v>
       </c>
       <c r="L9">
-        <v>-0.05478385878385879</v>
+        <v>-0.03203120312031203</v>
       </c>
       <c r="M9">
-        <v>-0.01420867420867421</v>
+        <v>-0.1226162616261626</v>
       </c>
       <c r="N9">
-        <v>0.05875991875991876</v>
+        <v>0.1318811881188119</v>
       </c>
       <c r="P9">
-        <v>0.02214742614742615</v>
+        <v>0.06294629462946294</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -816,40 +816,40 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>0.5545257145257145</v>
+        <v>0.4871767176717672</v>
       </c>
       <c r="D10">
-        <v>0.001023385023385023</v>
+        <v>-0.04802880288028803</v>
       </c>
       <c r="E10">
-        <v>-0.001463509463509463</v>
+        <v>0.06327032703270327</v>
       </c>
       <c r="F10">
-        <v>0.001857469857469857</v>
+        <v>-0.0571137113711371</v>
       </c>
       <c r="H10">
-        <v>0.007024507024507025</v>
+        <v>-0.0114971497149715</v>
       </c>
       <c r="I10">
-        <v>0.04376230376230376</v>
+        <v>-0.03294329432943294</v>
       </c>
       <c r="J10">
-        <v>0.007215811302401039</v>
+        <v>-0.006948694869486947</v>
       </c>
       <c r="K10">
-        <v>0.3685019245019245</v>
+        <v>0.6153975397539753</v>
       </c>
       <c r="L10">
-        <v>-0.001847425847425847</v>
+        <v>0.07278727872787277</v>
       </c>
       <c r="M10">
-        <v>0.007473163473163473</v>
+        <v>-0.07955595559555954</v>
       </c>
       <c r="N10">
-        <v>0.008105744105744106</v>
+        <v>-0.05945394539453944</v>
       </c>
       <c r="P10">
-        <v>0.007810963810963811</v>
+        <v>-0.04014401440144014</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -860,40 +860,40 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>0.01876455076455077</v>
+        <v>-0.1402820282028203</v>
       </c>
       <c r="D11">
-        <v>0.07523874323874324</v>
+        <v>0.0919051905190519</v>
       </c>
       <c r="E11">
-        <v>-0.07661047661047661</v>
+        <v>-0.1138553855385538</v>
       </c>
       <c r="F11">
-        <v>0.07143969543969544</v>
+        <v>0.1194959495949595</v>
       </c>
       <c r="H11">
-        <v>0.01500645900645901</v>
+        <v>-0.06720672067206719</v>
       </c>
       <c r="I11">
-        <v>-0.05291790491790493</v>
+        <v>-0.1291929192919292</v>
       </c>
       <c r="J11">
-        <v>-0.01387215803862393</v>
+        <v>-0.1872787278727873</v>
       </c>
       <c r="K11">
-        <v>0.08962958962958964</v>
+        <v>-0.03692769276927692</v>
       </c>
       <c r="L11">
-        <v>-0.006748986748986749</v>
+        <v>-0.1444944494449445</v>
       </c>
       <c r="M11">
-        <v>0.0352968112968113</v>
+        <v>-0.06367836783678367</v>
       </c>
       <c r="N11">
-        <v>-0.03391764991764992</v>
+        <v>0.1699129912991299</v>
       </c>
       <c r="P11">
-        <v>-0.05374068574068575</v>
+        <v>-0.04688868886888688</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -904,40 +904,40 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>0.07982562782562783</v>
+        <v>-0.02157815781578157</v>
       </c>
       <c r="D12">
-        <v>-0.004921120921120922</v>
+        <v>-0.1859345934593459</v>
       </c>
       <c r="E12">
-        <v>0.00640851040851041</v>
+        <v>0.1747254725472547</v>
       </c>
       <c r="F12">
-        <v>-0.004309060309060309</v>
+        <v>-0.1805460546054605</v>
       </c>
       <c r="H12">
-        <v>-0.01422213822213822</v>
+        <v>-0.1992559255925593</v>
       </c>
       <c r="I12">
-        <v>-0.02510431310431311</v>
+        <v>-0.1041584158415841</v>
       </c>
       <c r="J12">
-        <v>-0.01380924797495895</v>
+        <v>0.1633843384338434</v>
       </c>
       <c r="K12">
-        <v>0.01382462582462583</v>
+        <v>0.04046804680468046</v>
       </c>
       <c r="L12">
-        <v>-0.01795276195276195</v>
+        <v>0.04136813681368137</v>
       </c>
       <c r="M12">
-        <v>0.02876110076110076</v>
+        <v>-0.1804860486048605</v>
       </c>
       <c r="N12">
-        <v>-0.02526765726765727</v>
+        <v>-0.08296429642964295</v>
       </c>
       <c r="P12">
-        <v>-0.02224835824835825</v>
+        <v>-0.07615961596159614</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -946,40 +946,40 @@
         <v>31</v>
       </c>
       <c r="C13">
-        <v>0.0860867060867061</v>
+        <v>0.1688688868886888</v>
       </c>
       <c r="D13">
-        <v>-0.03281552081552082</v>
+        <v>0.07761176117611761</v>
       </c>
       <c r="E13">
-        <v>0.03022866622866623</v>
+        <v>-0.08174017401740175</v>
       </c>
       <c r="F13">
-        <v>-0.02393565593565593</v>
+        <v>0.05948994899489948</v>
       </c>
       <c r="H13">
-        <v>-0.02446617646617647</v>
+        <v>0.03918391839183918</v>
       </c>
       <c r="I13">
-        <v>0.4709067749067749</v>
+        <v>0.4652265226522652</v>
       </c>
       <c r="J13">
-        <v>0.01360649576977372</v>
+        <v>-0.01045304530453045</v>
       </c>
       <c r="K13">
-        <v>-0.0551988071988072</v>
+        <v>-0.2018361836183618</v>
       </c>
       <c r="L13">
-        <v>-0.01862464262464263</v>
+        <v>-0.004908490849084907</v>
       </c>
       <c r="M13">
-        <v>-0.06141858141858143</v>
+        <v>0.08784878487848785</v>
       </c>
       <c r="N13">
-        <v>-0.001158625158625159</v>
+        <v>0.07075907590759076</v>
       </c>
       <c r="P13">
-        <v>0.03529018729018729</v>
+        <v>0.09366936693669366</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -988,40 +988,40 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>-0.2934805974805975</v>
+        <v>-0.2346234623462346</v>
       </c>
       <c r="D14">
-        <v>-0.04790468390468391</v>
+        <v>-0.01711371137113711</v>
       </c>
       <c r="E14">
-        <v>0.05247172047172047</v>
+        <v>-0.01274527452745275</v>
       </c>
       <c r="F14">
-        <v>-0.05953957153957154</v>
+        <v>0.004584458445844585</v>
       </c>
       <c r="H14">
-        <v>-0.05596549996549996</v>
+        <v>0.04301230123012301</v>
       </c>
       <c r="I14">
-        <v>-0.02643480243480243</v>
+        <v>-0.03866786678667866</v>
       </c>
       <c r="J14">
-        <v>-0.04441554294852947</v>
+        <v>-0.1127272727272727</v>
       </c>
       <c r="K14">
-        <v>-0.0492000012000012</v>
+        <v>-0.09989798979897989</v>
       </c>
       <c r="L14">
-        <v>0.01557841557841558</v>
+        <v>-0.1572397239723972</v>
       </c>
       <c r="M14">
-        <v>0.01156094356094356</v>
+        <v>-0.03512751275127513</v>
       </c>
       <c r="N14">
-        <v>0.04026492426492427</v>
+        <v>0.115031503150315</v>
       </c>
       <c r="P14">
-        <v>0.02647419847419847</v>
+        <v>-0.1078667866786679</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Element</t>
   </si>
@@ -85,6 +85,24 @@
     <t>biorefinery</t>
   </si>
   <si>
+    <t>Stream-crude glycerol</t>
+  </si>
+  <si>
+    <t>Stream-pure glycerine</t>
+  </si>
+  <si>
+    <t>Stream-cellulase</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system</t>
+  </si>
+  <si>
+    <t>Pretreatment and saccharification</t>
+  </si>
+  <si>
+    <t>Cofermenation</t>
+  </si>
+  <si>
     <t>Cane lipid content [dry wt. %]</t>
   </si>
   <si>
@@ -113,6 +131,27 @@
   </si>
   <si>
     <t>IRR [%]</t>
+  </si>
+  <si>
+    <t>Price [USD/kg]</t>
+  </si>
+  <si>
+    <t>Cellulase loading [wt. % cellulose]</t>
+  </si>
+  <si>
+    <t>Base cost [million USD]</t>
+  </si>
+  <si>
+    <t>Glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Glucose to ethanol yield [%]</t>
+  </si>
+  <si>
+    <t>Xylose to ethanol yield [%]</t>
   </si>
 </sst>
 </file>
@@ -470,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -557,211 +596,211 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>0.4786078607860785</v>
+        <v>0.3925642702625707</v>
       </c>
       <c r="D4">
-        <v>0.9807140714071406</v>
+        <v>0.9797707734948308</v>
       </c>
       <c r="E4">
-        <v>-0.9975997599759974</v>
+        <v>-0.9975800101112003</v>
       </c>
       <c r="F4">
-        <v>0.9814101410141013</v>
+        <v>0.9722028207441126</v>
       </c>
       <c r="H4">
-        <v>0.698013801380138</v>
+        <v>0.3432684312027372</v>
       </c>
       <c r="I4">
-        <v>-0.03313531353135313</v>
+        <v>-0.01926712281868491</v>
       </c>
       <c r="J4">
-        <v>-0.3424422442244224</v>
+        <v>-0.4343641299481895</v>
       </c>
       <c r="K4">
-        <v>0.1583798379837984</v>
+        <v>0.2049077885163115</v>
       </c>
       <c r="L4">
-        <v>-0.0722112211221122</v>
+        <v>-0.02016103213444128</v>
       </c>
       <c r="M4">
-        <v>0.0326072607260726</v>
+        <v>-0.1124552970102119</v>
       </c>
       <c r="N4">
-        <v>0.3872187218721871</v>
+        <v>0.4328303448332137</v>
       </c>
       <c r="P4">
-        <v>0.03977197719771978</v>
+        <v>-0.02030907431636297</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>0.00528052805280528</v>
+        <v>0.05497512344700493</v>
       </c>
       <c r="D5">
-        <v>-0.1148874887488749</v>
+        <v>0.05219927431197097</v>
       </c>
       <c r="E5">
-        <v>0.1164476447644764</v>
+        <v>-0.06097719123908764</v>
       </c>
       <c r="F5">
-        <v>-0.1027542754275428</v>
+        <v>0.0617641326465653</v>
       </c>
       <c r="H5">
-        <v>-0.2465886588658865</v>
+        <v>-0.04099717037588681</v>
       </c>
       <c r="I5">
-        <v>-0.1426222622262226</v>
+        <v>-0.0009816489032659559</v>
       </c>
       <c r="J5">
-        <v>-0.06929492949294928</v>
+        <v>-0.03726880996240864</v>
       </c>
       <c r="K5">
-        <v>0.1991839183918392</v>
+        <v>0.02915672209426888</v>
       </c>
       <c r="L5">
-        <v>-0.02035403540354035</v>
+        <v>-0.01842707939308317</v>
       </c>
       <c r="M5">
-        <v>0.042004200420042</v>
+        <v>-0.05648201323528051</v>
       </c>
       <c r="N5">
-        <v>0.118967896789679</v>
+        <v>0.08103514183340567</v>
       </c>
       <c r="P5">
-        <v>0.01635763576357635</v>
+        <v>-0.02424978596199143</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>0.1398499849984998</v>
+        <v>-0.02240319708812788</v>
       </c>
       <c r="D6">
-        <v>0.09605760576057605</v>
+        <v>-0.02322252044890081</v>
       </c>
       <c r="E6">
-        <v>-0.1193759375937594</v>
+        <v>-0.02192370606094824</v>
       </c>
       <c r="F6">
-        <v>0.1609120912091209</v>
+        <v>0.05994378681375146</v>
       </c>
       <c r="H6">
-        <v>0.08194419441944194</v>
+        <v>0.01381396567255862</v>
       </c>
       <c r="I6">
-        <v>-0.04927692769276927</v>
+        <v>-0.003178638271145531</v>
       </c>
       <c r="J6">
-        <v>0.03259525952595259</v>
+        <v>-0.0284987061669772</v>
       </c>
       <c r="K6">
-        <v>-0.02126612661266126</v>
+        <v>-0.05243951288158051</v>
       </c>
       <c r="L6">
-        <v>-0.1233483348334833</v>
+        <v>-0.2331768854550754</v>
       </c>
       <c r="M6">
-        <v>0.01782178217821782</v>
+        <v>0.00974849674193987</v>
       </c>
       <c r="N6">
-        <v>-0.03426342634263426</v>
+        <v>0.1260034839841393</v>
       </c>
       <c r="P6">
-        <v>0.01292529252925292</v>
+        <v>0.0439333527653341</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>0.1547434743474347</v>
+        <v>0.1038636521545461</v>
       </c>
       <c r="D7">
-        <v>0.1198679867986799</v>
+        <v>0.157358723958349</v>
       </c>
       <c r="E7">
-        <v>0.04458445844584458</v>
+        <v>0.01680739286429571</v>
       </c>
       <c r="F7">
-        <v>-0.1604320432043204</v>
+        <v>-0.1457053364842134</v>
       </c>
       <c r="H7">
-        <v>-0.08806480648064806</v>
+        <v>-0.04200138110405523</v>
       </c>
       <c r="I7">
-        <v>0.007704770477047704</v>
+        <v>0.0009264983410599334</v>
       </c>
       <c r="J7">
-        <v>0.1778697869786978</v>
+        <v>0.04553172135235947</v>
       </c>
       <c r="K7">
-        <v>0.1843864386438644</v>
+        <v>0.1158569155462766</v>
       </c>
       <c r="L7">
-        <v>0.9638283828382838</v>
+        <v>0.9654475098499002</v>
       </c>
       <c r="M7">
-        <v>-0.06255025502550254</v>
+        <v>0.0172639626425585</v>
       </c>
       <c r="N7">
-        <v>-0.4957815781578156</v>
+        <v>-0.4789352690454107</v>
       </c>
       <c r="P7">
-        <v>-0.06159015901590158</v>
+        <v>-0.157580526111221</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>0.04123612361236123</v>
+        <v>0.1976175951687038</v>
       </c>
       <c r="D8">
-        <v>-0.06366636663666365</v>
+        <v>-0.01733970357358814</v>
       </c>
       <c r="E8">
-        <v>0.07192319231923192</v>
+        <v>0.01955431547017262</v>
       </c>
       <c r="F8">
-        <v>-0.01816981698169817</v>
+        <v>0.1238548683461947</v>
       </c>
       <c r="H8">
-        <v>0.6435643564356436</v>
+        <v>0.9259361108934443</v>
       </c>
       <c r="I8">
-        <v>0.8634503450345034</v>
+        <v>0.974378954879158</v>
       </c>
       <c r="J8">
-        <v>-0.1334293429342934</v>
+        <v>-0.2351818071604199</v>
       </c>
       <c r="K8">
-        <v>-0.00096009600960096</v>
+        <v>0.03831322406052896</v>
       </c>
       <c r="L8">
-        <v>0.004872487248724872</v>
+        <v>0.006964321718572869</v>
       </c>
       <c r="M8">
-        <v>-0.1418781878187819</v>
+        <v>0.06226665887466634</v>
       </c>
       <c r="N8">
-        <v>-0.0257065706570657</v>
+        <v>0.0213548375901935</v>
       </c>
       <c r="P8">
-        <v>0.1338493849384938</v>
+        <v>0.4040943495717739</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -769,43 +808,43 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>0.4663306330633062</v>
+        <v>0.5385114609004584</v>
       </c>
       <c r="D9">
-        <v>0.02339033903390339</v>
+        <v>-0.01445556125022245</v>
       </c>
       <c r="E9">
-        <v>-0.03906390639063906</v>
+        <v>0.01462494711299788</v>
       </c>
       <c r="F9">
-        <v>0.02047404740474047</v>
+        <v>-0.0197011125320445</v>
       </c>
       <c r="H9">
-        <v>0.02973897389738973</v>
+        <v>-0.03049036038761441</v>
       </c>
       <c r="I9">
-        <v>0.09438943894389439</v>
+        <v>-0.02604824427392977</v>
       </c>
       <c r="J9">
-        <v>-0.1061386138613861</v>
+        <v>0.002824726439632813</v>
       </c>
       <c r="K9">
-        <v>-0.6338433843384337</v>
+        <v>-0.5806897349715894</v>
       </c>
       <c r="L9">
-        <v>-0.03203120312031203</v>
+        <v>-0.000647626777905071</v>
       </c>
       <c r="M9">
-        <v>-0.1226162616261626</v>
+        <v>0.008319893612795743</v>
       </c>
       <c r="N9">
-        <v>0.1318811881188119</v>
+        <v>0.005317019828680792</v>
       </c>
       <c r="P9">
-        <v>0.06294629462946294</v>
+        <v>0.02254798294991931</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -813,43 +852,43 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>0.4871767176717672</v>
+        <v>0.5510589240583569</v>
       </c>
       <c r="D10">
-        <v>-0.04802880288028803</v>
+        <v>-0.0131350099654004</v>
       </c>
       <c r="E10">
-        <v>0.06327032703270327</v>
+        <v>0.01134727955789118</v>
       </c>
       <c r="F10">
-        <v>-0.0571137113711371</v>
+        <v>-0.008061933538477339</v>
       </c>
       <c r="H10">
-        <v>-0.0114971497149715</v>
+        <v>0.004805977344239093</v>
       </c>
       <c r="I10">
-        <v>-0.03294329432943294</v>
+        <v>0.008461169330446773</v>
       </c>
       <c r="J10">
-        <v>-0.006948694869486947</v>
+        <v>0.003419399664818414</v>
       </c>
       <c r="K10">
-        <v>0.6153975397539753</v>
+        <v>0.6209243935409757</v>
       </c>
       <c r="L10">
-        <v>0.07278727872787277</v>
+        <v>-0.01280303888012155</v>
       </c>
       <c r="M10">
-        <v>-0.07955595559555954</v>
+        <v>0.01197210412688416</v>
       </c>
       <c r="N10">
-        <v>-0.05945394539453944</v>
+        <v>0.006337469917498796</v>
       </c>
       <c r="P10">
-        <v>-0.04014401440144014</v>
+        <v>0.009165517998620719</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -857,43 +896,43 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>-0.1402820282028203</v>
+        <v>-0.0007268414690736587</v>
       </c>
       <c r="D11">
-        <v>0.0919051905190519</v>
+        <v>0.01424486149779446</v>
       </c>
       <c r="E11">
-        <v>-0.1138553855385538</v>
+        <v>-0.01564700376188015</v>
       </c>
       <c r="F11">
-        <v>0.1194959495949595</v>
+        <v>0.01553685633347425</v>
       </c>
       <c r="H11">
-        <v>-0.06720672067206719</v>
+        <v>0.01313819140552766</v>
       </c>
       <c r="I11">
-        <v>-0.1291929192919292</v>
+        <v>0.00758259678330387</v>
       </c>
       <c r="J11">
-        <v>-0.1872787278727873</v>
+        <v>-0.01160887911565925</v>
       </c>
       <c r="K11">
-        <v>-0.03692769276927692</v>
+        <v>0.01063400336936013</v>
       </c>
       <c r="L11">
-        <v>-0.1444944494449445</v>
+        <v>-0.00182123575284943</v>
       </c>
       <c r="M11">
-        <v>-0.06367836783678367</v>
+        <v>0.0105482526139301</v>
       </c>
       <c r="N11">
-        <v>0.1699129912991299</v>
+        <v>0.01677344831893793</v>
       </c>
       <c r="P11">
-        <v>-0.04688868886888688</v>
+        <v>0.005987420687496827</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -901,134 +940,527 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C12">
-        <v>-0.02157815781578157</v>
+        <v>0.08802729251309169</v>
       </c>
       <c r="D12">
-        <v>-0.1859345934593459</v>
+        <v>-0.0114688576107543</v>
       </c>
       <c r="E12">
-        <v>0.1747254725472547</v>
+        <v>0.01153088580523543</v>
       </c>
       <c r="F12">
-        <v>-0.1805460546054605</v>
+        <v>-0.00867737228309489</v>
       </c>
       <c r="H12">
-        <v>-0.1992559255925593</v>
+        <v>0.01734109797364392</v>
       </c>
       <c r="I12">
-        <v>-0.1041584158415841</v>
+        <v>0.0207861575674463</v>
       </c>
       <c r="J12">
-        <v>0.1633843384338434</v>
+        <v>-0.007467227836252033</v>
       </c>
       <c r="K12">
-        <v>0.04046804680468046</v>
+        <v>0.01927204166688166</v>
       </c>
       <c r="L12">
-        <v>0.04136813681368137</v>
+        <v>0.005533804061352162</v>
       </c>
       <c r="M12">
-        <v>-0.1804860486048605</v>
+        <v>0.03348659212346368</v>
       </c>
       <c r="N12">
-        <v>-0.08296429642964295</v>
+        <v>-0.008115810852632433</v>
       </c>
       <c r="P12">
-        <v>-0.07615961596159614</v>
+        <v>0.01083437054537482</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>0.1688688868886888</v>
+        <v>0.07226011930640476</v>
       </c>
       <c r="D13">
-        <v>0.07761176117611761</v>
+        <v>0.001449199161967966</v>
       </c>
       <c r="E13">
-        <v>-0.08174017401740175</v>
+        <v>-0.003343184293727371</v>
       </c>
       <c r="F13">
-        <v>0.05948994899489948</v>
+        <v>0.002803762288150491</v>
       </c>
       <c r="H13">
-        <v>0.03918391839183918</v>
+        <v>-0.01070291889211675</v>
       </c>
       <c r="I13">
-        <v>0.4652265226522652</v>
+        <v>0.2067890159195606</v>
       </c>
       <c r="J13">
-        <v>-0.01045304530453045</v>
+        <v>0.01443667150742191</v>
       </c>
       <c r="K13">
-        <v>-0.2018361836183618</v>
+        <v>0.004549332085973284</v>
       </c>
       <c r="L13">
-        <v>-0.004908490849084907</v>
+        <v>-0.01599598671983946</v>
       </c>
       <c r="M13">
-        <v>0.08784878487848785</v>
+        <v>-0.00217837026313481</v>
       </c>
       <c r="N13">
-        <v>0.07075907590759076</v>
+        <v>0.01008456616338264</v>
       </c>
       <c r="P13">
-        <v>0.09366936693669366</v>
+        <v>-0.004523519700940787</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>-0.2346234623462346</v>
+        <v>-0.2129071684522867</v>
       </c>
       <c r="D14">
-        <v>-0.01711371137113711</v>
+        <v>0.01771137603645504</v>
       </c>
       <c r="E14">
-        <v>-0.01274527452745275</v>
+        <v>-0.01814850149394006</v>
       </c>
       <c r="F14">
-        <v>0.004584458445844585</v>
+        <v>0.01734335637373425</v>
       </c>
       <c r="H14">
-        <v>0.04301230123012301</v>
+        <v>0.02384039586561583</v>
       </c>
       <c r="I14">
-        <v>-0.03866786678667866</v>
+        <v>0.02511686980467479</v>
       </c>
       <c r="J14">
-        <v>-0.1127272727272727</v>
+        <v>0.003919665910005691</v>
       </c>
       <c r="K14">
-        <v>-0.09989798979897989</v>
+        <v>-0.02403602908944116</v>
       </c>
       <c r="L14">
-        <v>-0.1572397239723972</v>
+        <v>0.005143052845722113</v>
       </c>
       <c r="M14">
-        <v>-0.03512751275127513</v>
+        <v>0.0003192926527717061</v>
       </c>
       <c r="N14">
-        <v>0.115031503150315</v>
+        <v>0.0106989401719576</v>
       </c>
       <c r="P14">
-        <v>-0.1078667866786679</v>
+        <v>0.0309392826135713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>0.0126665650826626</v>
+      </c>
+      <c r="D15">
+        <v>-0.01079409892776396</v>
+      </c>
+      <c r="E15">
+        <v>0.01062400228096009</v>
+      </c>
+      <c r="F15">
+        <v>-0.009326589301063571</v>
+      </c>
+      <c r="H15">
+        <v>-0.00149954300398172</v>
+      </c>
+      <c r="I15">
+        <v>0.003835622073424882</v>
+      </c>
+      <c r="J15">
+        <v>0.007905727966823388</v>
+      </c>
+      <c r="K15">
+        <v>0.03465386836215473</v>
+      </c>
+      <c r="L15">
+        <v>0.003851736634069465</v>
+      </c>
+      <c r="M15">
+        <v>0.007751374582054982</v>
+      </c>
+      <c r="N15">
+        <v>-0.0006995548119821923</v>
+      </c>
+      <c r="P15">
+        <v>0.009610889760435589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>-0.04442976609719064</v>
+      </c>
+      <c r="D16">
+        <v>0.009868746058749841</v>
+      </c>
+      <c r="E16">
+        <v>-0.01036044310241772</v>
+      </c>
+      <c r="F16">
+        <v>0.01380739821629593</v>
+      </c>
+      <c r="H16">
+        <v>0.02594457146978285</v>
+      </c>
+      <c r="I16">
+        <v>0.02279120855964833</v>
+      </c>
+      <c r="J16">
+        <v>-0.02261850374193887</v>
+      </c>
+      <c r="K16">
+        <v>-0.03014361739774469</v>
+      </c>
+      <c r="L16">
+        <v>0.001252289714091588</v>
+      </c>
+      <c r="M16">
+        <v>-0.007107210716288427</v>
+      </c>
+      <c r="N16">
+        <v>0.001620574528822981</v>
+      </c>
+      <c r="P16">
+        <v>0.01906895481075819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>0.03458557155942285</v>
+      </c>
+      <c r="D17">
+        <v>0.03651969227678769</v>
+      </c>
+      <c r="E17">
+        <v>-0.03672708194908328</v>
+      </c>
+      <c r="F17">
+        <v>0.04086084873843394</v>
+      </c>
+      <c r="H17">
+        <v>0.0521425178617007</v>
+      </c>
+      <c r="I17">
+        <v>0.04670276855611073</v>
+      </c>
+      <c r="J17">
+        <v>-0.029535512210888</v>
+      </c>
+      <c r="K17">
+        <v>0.02119716958388678</v>
+      </c>
+      <c r="L17">
+        <v>-0.003989532927581316</v>
+      </c>
+      <c r="M17">
+        <v>0.01843452342538093</v>
+      </c>
+      <c r="N17">
+        <v>0.008820296224811846</v>
+      </c>
+      <c r="P17">
+        <v>0.03071370046054801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>0.03345820482632818</v>
+      </c>
+      <c r="D18">
+        <v>0.003766020438640817</v>
+      </c>
+      <c r="E18">
+        <v>-0.0009341751733670067</v>
+      </c>
+      <c r="F18">
+        <v>0.002285365723414629</v>
+      </c>
+      <c r="H18">
+        <v>0.01083172910526916</v>
+      </c>
+      <c r="I18">
+        <v>0.01622840628113625</v>
+      </c>
+      <c r="J18">
+        <v>0.02840507208301161</v>
+      </c>
+      <c r="K18">
+        <v>-0.007170885310835412</v>
+      </c>
+      <c r="L18">
+        <v>0.01376441901457676</v>
+      </c>
+      <c r="M18">
+        <v>0.008613477848539114</v>
+      </c>
+      <c r="N18">
+        <v>-0.0211178726207149</v>
+      </c>
+      <c r="P18">
+        <v>-0.01489944385997775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>0.001059184074367363</v>
+      </c>
+      <c r="D19">
+        <v>-0.01535635549425422</v>
+      </c>
+      <c r="E19">
+        <v>0.01661107381644295</v>
+      </c>
+      <c r="F19">
+        <v>-0.0163121700284868</v>
+      </c>
+      <c r="H19">
+        <v>-0.00398049827121993</v>
+      </c>
+      <c r="I19">
+        <v>0.003863478394539135</v>
+      </c>
+      <c r="J19">
+        <v>-0.00666033297007842</v>
+      </c>
+      <c r="K19">
+        <v>-0.007872403706896148</v>
+      </c>
+      <c r="L19">
+        <v>0.01314858916594357</v>
+      </c>
+      <c r="M19">
+        <v>-0.003758987574359502</v>
+      </c>
+      <c r="N19">
+        <v>-0.008242473833698954</v>
+      </c>
+      <c r="P19">
+        <v>-0.001801644168065766</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <v>-0.005094231179769247</v>
+      </c>
+      <c r="D20">
+        <v>-0.00327093277083731</v>
+      </c>
+      <c r="E20">
+        <v>0.001112566796502672</v>
+      </c>
+      <c r="F20">
+        <v>0.001379542039181681</v>
+      </c>
+      <c r="H20">
+        <v>-0.0008957617318304693</v>
+      </c>
+      <c r="I20">
+        <v>-0.001004246920169877</v>
+      </c>
+      <c r="J20">
+        <v>0.005117390088731705</v>
+      </c>
+      <c r="K20">
+        <v>-0.02339926288797051</v>
+      </c>
+      <c r="L20">
+        <v>-0.01020149551205982</v>
+      </c>
+      <c r="M20">
+        <v>-0.0105815850632634</v>
+      </c>
+      <c r="N20">
+        <v>-0.005819754376790174</v>
+      </c>
+      <c r="P20">
+        <v>-0.01438959340758373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>0.02421519159260766</v>
+      </c>
+      <c r="D21">
+        <v>0.01866298884251955</v>
+      </c>
+      <c r="E21">
+        <v>-0.02117968174318727</v>
+      </c>
+      <c r="F21">
+        <v>0.02339938682397547</v>
+      </c>
+      <c r="H21">
+        <v>0.0298681301227252</v>
+      </c>
+      <c r="I21">
+        <v>0.02428224865128994</v>
+      </c>
+      <c r="J21">
+        <v>-0.01275664316426935</v>
+      </c>
+      <c r="K21">
+        <v>-0.01941687965667518</v>
+      </c>
+      <c r="L21">
+        <v>-0.0110183300727332</v>
+      </c>
+      <c r="M21">
+        <v>0.02162021040080841</v>
+      </c>
+      <c r="N21">
+        <v>0.01999766230390649</v>
+      </c>
+      <c r="P21">
+        <v>0.0001676649667065986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>0.00996484302259372</v>
+      </c>
+      <c r="D22">
+        <v>0.007573749134949965</v>
+      </c>
+      <c r="E22">
+        <v>-0.00969690854787634</v>
+      </c>
+      <c r="F22">
+        <v>0.009994172079766881</v>
+      </c>
+      <c r="H22">
+        <v>-6.975590679023627E-05</v>
+      </c>
+      <c r="I22">
+        <v>-0.0009532179261287168</v>
+      </c>
+      <c r="J22">
+        <v>-0.0009649336248668687</v>
+      </c>
+      <c r="K22">
+        <v>-0.009575737823029512</v>
+      </c>
+      <c r="L22">
+        <v>-0.01427603903504156</v>
+      </c>
+      <c r="M22">
+        <v>-0.01470792414031696</v>
+      </c>
+      <c r="N22">
+        <v>0.01156032699041308</v>
+      </c>
+      <c r="P22">
+        <v>-0.01463011162520446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>0.003886389179455567</v>
+      </c>
+      <c r="D23">
+        <v>0.002589019783560791</v>
+      </c>
+      <c r="E23">
+        <v>-3.865248154609925E-06</v>
+      </c>
+      <c r="F23">
+        <v>-0.0007099159963966399</v>
+      </c>
+      <c r="H23">
+        <v>-0.007274590274983609</v>
+      </c>
+      <c r="I23">
+        <v>-0.01008051323522053</v>
+      </c>
+      <c r="J23">
+        <v>-0.001349223129142298</v>
+      </c>
+      <c r="K23">
+        <v>0.01512738089309523</v>
+      </c>
+      <c r="L23">
+        <v>0.01263221080928843</v>
+      </c>
+      <c r="M23">
+        <v>-0.01479260660770426</v>
+      </c>
+      <c r="N23">
+        <v>0.004892431299697251</v>
+      </c>
+      <c r="P23">
+        <v>0.01553522702140908</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Element</t>
   </si>
@@ -118,6 +118,21 @@
     <t>Capacity [ton/hr]</t>
   </si>
   <si>
+    <t>Cane  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Cane  FFA [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  FFA [% lipid]</t>
+  </si>
+  <si>
+    <t>TAG to  FFA conversion [% lipid]</t>
+  </si>
+  <si>
     <t>Price [USD/gal]</t>
   </si>
   <si>
@@ -142,10 +157,16 @@
     <t>Base cost [million USD]</t>
   </si>
   <si>
-    <t>Glucose yield [%]</t>
-  </si>
-  <si>
-    <t>Xylose yield [%]</t>
+    <t>Cane glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Cane xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum xylose yield [%]</t>
   </si>
   <si>
     <t>Glucose to ethanol yield [%]</t>
@@ -509,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,25 +620,40 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>0.4031895748795829</v>
+        <v>0.4211471291471292</v>
       </c>
       <c r="D4">
-        <v>0.9797707734948308</v>
+        <v>0.9845521085521086</v>
       </c>
       <c r="E4">
-        <v>-0.9975973927358956</v>
+        <v>-0.9977520737520738</v>
       </c>
       <c r="F4">
-        <v>0.9764284623211383</v>
+        <v>0.9762086082086083</v>
       </c>
       <c r="H4">
-        <v>0.350890476307619</v>
+        <v>0.3546770106770107</v>
       </c>
       <c r="I4">
-        <v>-0.01926712281868491</v>
+        <v>0.02927555327555328</v>
       </c>
       <c r="J4">
-        <v>-0.4202285778587175</v>
+        <v>0.2017620067884369</v>
+      </c>
+      <c r="K4">
+        <v>-0.03688338088338088</v>
+      </c>
+      <c r="L4">
+        <v>-0.02896962496962498</v>
+      </c>
+      <c r="M4">
+        <v>0.016997836997837</v>
+      </c>
+      <c r="N4">
+        <v>-0.719848655848656</v>
+      </c>
+      <c r="P4">
+        <v>-0.3803125163125163</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -626,25 +662,40 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0.05564811726592469</v>
+        <v>0.008855120855120855</v>
       </c>
       <c r="D5">
-        <v>0.05219927431197097</v>
+        <v>0.05085561885561886</v>
       </c>
       <c r="E5">
-        <v>-0.06074259151770365</v>
+        <v>-0.05608142008142009</v>
       </c>
       <c r="F5">
-        <v>0.06203865800154631</v>
+        <v>0.05232410832410832</v>
       </c>
       <c r="H5">
-        <v>-0.04093875677355027</v>
+        <v>-0.03652980052980053</v>
       </c>
       <c r="I5">
-        <v>-0.0009816489032659559</v>
+        <v>-0.005886209886209887</v>
       </c>
       <c r="J5">
-        <v>-0.04538800182552302</v>
+        <v>0.121167068984575</v>
+      </c>
+      <c r="K5">
+        <v>-0.006981018981018982</v>
+      </c>
+      <c r="L5">
+        <v>-0.03407733407733408</v>
+      </c>
+      <c r="M5">
+        <v>0.05568829968829969</v>
+      </c>
+      <c r="N5">
+        <v>-0.01494511494511495</v>
+      </c>
+      <c r="P5">
+        <v>-0.002861366861366861</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -653,25 +704,40 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-0.02252832541313301</v>
+        <v>-0.01723354123354123</v>
       </c>
       <c r="D6">
-        <v>-0.02322252044890081</v>
+        <v>-0.06024418824418825</v>
       </c>
       <c r="E6">
-        <v>-0.02194485918179436</v>
+        <v>-0.0293987933987934</v>
       </c>
       <c r="F6">
-        <v>0.06003094627323784</v>
+        <v>0.1178666858666859</v>
       </c>
       <c r="H6">
-        <v>0.01442726793709071</v>
+        <v>0.05541345141345141</v>
       </c>
       <c r="I6">
-        <v>-0.003178638271145531</v>
+        <v>0.02856575256575257</v>
       </c>
       <c r="J6">
-        <v>-0.03383706226043651</v>
+        <v>-0.006897361000821416</v>
+      </c>
+      <c r="K6">
+        <v>-0.1051990531990532</v>
+      </c>
+      <c r="L6">
+        <v>-0.5536183576183576</v>
+      </c>
+      <c r="M6">
+        <v>-0.02619096219096219</v>
+      </c>
+      <c r="N6">
+        <v>0.3483437523437524</v>
+      </c>
+      <c r="P6">
+        <v>0.1377760737760738</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -680,25 +746,40 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>0.1033320990772839</v>
+        <v>0.08099906099906101</v>
       </c>
       <c r="D7">
-        <v>0.157358723958349</v>
+        <v>0.1142082302082302</v>
       </c>
       <c r="E7">
-        <v>0.01683822902552916</v>
+        <v>0.004870936870936871</v>
       </c>
       <c r="F7">
-        <v>-0.1477668159906726</v>
+        <v>-0.1261653901653902</v>
       </c>
       <c r="H7">
-        <v>-0.04210533058021321</v>
+        <v>-0.0934953334953335</v>
       </c>
       <c r="I7">
-        <v>0.0009264983410599334</v>
+        <v>-0.05188736788736789</v>
       </c>
       <c r="J7">
-        <v>0.05109231578102878</v>
+        <v>-0.04847229719938166</v>
+      </c>
+      <c r="K7">
+        <v>0.1392611832611833</v>
+      </c>
+      <c r="L7">
+        <v>0.7714171594171595</v>
+      </c>
+      <c r="M7">
+        <v>-0.0193966873966874</v>
+      </c>
+      <c r="N7">
+        <v>-0.4677522837522838</v>
+      </c>
+      <c r="P7">
+        <v>-0.2325285285285286</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -707,460 +788,994 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.186491175043647</v>
+        <v>0.1571337971337972</v>
       </c>
       <c r="D8">
-        <v>-0.01733970357358814</v>
+        <v>0.01042732642732643</v>
       </c>
       <c r="E8">
-        <v>0.01980355384814215</v>
+        <v>-0.01893682293682294</v>
       </c>
       <c r="F8">
-        <v>0.09162530584101222</v>
+        <v>0.1480755400755401</v>
       </c>
       <c r="H8">
-        <v>0.9227121707964867</v>
+        <v>0.9361261921261921</v>
       </c>
       <c r="I8">
-        <v>0.974378954879158</v>
+        <v>0.9744730584730585</v>
       </c>
       <c r="J8">
-        <v>-0.221246885172587</v>
+        <v>-0.4255823879661237</v>
+      </c>
+      <c r="K8">
+        <v>-0.02694859494859495</v>
+      </c>
+      <c r="L8">
+        <v>-0.06756939156939157</v>
+      </c>
+      <c r="M8">
+        <v>0.0338025938025938</v>
+      </c>
+      <c r="N8">
+        <v>0.04900797700797702</v>
+      </c>
+      <c r="P8">
+        <v>0.5380741660741661</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>0.5334821458832858</v>
+        <v>-0.0007634647634647635</v>
       </c>
       <c r="D9">
-        <v>-0.01445556125022245</v>
+        <v>-0.01212453612453613</v>
       </c>
       <c r="E9">
-        <v>0.01464621562584862</v>
+        <v>-0.01577168777168778</v>
       </c>
       <c r="F9">
-        <v>-0.01937840362313614</v>
+        <v>-0.001848973848973849</v>
       </c>
       <c r="H9">
-        <v>-0.03044454524978181</v>
+        <v>0.03120720720720721</v>
       </c>
       <c r="I9">
-        <v>-0.02604824427392977</v>
+        <v>0.03017574617574618</v>
       </c>
       <c r="J9">
-        <v>-0.0005616130319741371</v>
+        <v>-0.00697946508415706</v>
+      </c>
+      <c r="K9">
+        <v>-0.04881129681129682</v>
+      </c>
+      <c r="L9">
+        <v>-0.236012936012936</v>
+      </c>
+      <c r="M9">
+        <v>0.9922551322551323</v>
+      </c>
+      <c r="N9">
+        <v>-0.1213250533250533</v>
+      </c>
+      <c r="P9">
+        <v>0.005891981891981892</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>0.5528566845462674</v>
+        <v>-0.012002268002268</v>
       </c>
       <c r="D10">
-        <v>-0.0131350099654004</v>
+        <v>0.0341949581949582</v>
       </c>
       <c r="E10">
-        <v>0.01142884221715369</v>
+        <v>-0.04385433185433186</v>
       </c>
       <c r="F10">
-        <v>-0.00836190379047615</v>
+        <v>0.02421848421848422</v>
       </c>
       <c r="H10">
-        <v>0.00460987602439504</v>
+        <v>-0.06185516585516586</v>
       </c>
       <c r="I10">
-        <v>0.008461169330446773</v>
+        <v>-0.09023705423705423</v>
       </c>
       <c r="J10">
-        <v>0.001928946850342883</v>
+        <v>0.05973275462874595</v>
+      </c>
+      <c r="K10">
+        <v>-0.02718377118377119</v>
+      </c>
+      <c r="L10">
+        <v>-0.05337534537534538</v>
+      </c>
+      <c r="M10">
+        <v>0.02984718584718585</v>
+      </c>
+      <c r="N10">
+        <v>-0.07130525930525931</v>
+      </c>
+      <c r="P10">
+        <v>-0.0403975843975844</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11">
-        <v>-0.0003343541893741675</v>
+        <v>-0.02317940317940318</v>
       </c>
       <c r="D11">
-        <v>0.01424486149779446</v>
+        <v>-0.02428971628971629</v>
       </c>
       <c r="E11">
-        <v>-0.01559365041574602</v>
+        <v>0.03438429438429439</v>
       </c>
       <c r="F11">
-        <v>0.01587544364301774</v>
+        <v>-0.0443927963927964</v>
       </c>
       <c r="H11">
-        <v>0.01355699939027998</v>
+        <v>-0.02399585999586</v>
       </c>
       <c r="I11">
-        <v>0.00758259678330387</v>
+        <v>-0.01304689304689305</v>
       </c>
       <c r="J11">
-        <v>-0.01934389556175221</v>
+        <v>0.0116941618695743</v>
+      </c>
+      <c r="K11">
+        <v>0.06834960834960835</v>
+      </c>
+      <c r="L11">
+        <v>0.08305198705198706</v>
+      </c>
+      <c r="M11">
+        <v>0.04128254928254929</v>
+      </c>
+      <c r="N11">
+        <v>-0.01074429474429475</v>
+      </c>
+      <c r="P11">
+        <v>-0.02337803937803938</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>0.08472812998112519</v>
+        <v>0.01686833286833287</v>
       </c>
       <c r="D12">
-        <v>-0.0114688576107543</v>
+        <v>0.02618383418383418</v>
       </c>
       <c r="E12">
-        <v>0.01153428276537131</v>
+        <v>-0.01102185502185502</v>
       </c>
       <c r="F12">
-        <v>-0.009541055133642205</v>
+        <v>-0.008437412437412438</v>
       </c>
       <c r="H12">
-        <v>0.01707125818685033</v>
+        <v>-0.04364833964833965</v>
       </c>
       <c r="I12">
-        <v>0.0207861575674463</v>
+        <v>-0.03650521250521251</v>
       </c>
       <c r="J12">
-        <v>-0.002022670022343738</v>
+        <v>0.007207117315224076</v>
+      </c>
+      <c r="K12">
+        <v>0.04317105117105118</v>
+      </c>
+      <c r="L12">
+        <v>0.07813959013959014</v>
+      </c>
+      <c r="M12">
+        <v>0.01656509256509257</v>
+      </c>
+      <c r="N12">
+        <v>-0.05814178614178615</v>
+      </c>
+      <c r="P12">
+        <v>-0.05753810153810154</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13">
-        <v>0.0722026904721076</v>
+        <v>0.04060854460854461</v>
       </c>
       <c r="D13">
-        <v>0.001449199161967966</v>
+        <v>0.03847975447975448</v>
       </c>
       <c r="E13">
-        <v>-0.003314462628578505</v>
+        <v>-0.03679510879510879</v>
       </c>
       <c r="F13">
-        <v>0.002516339236653569</v>
+        <v>0.03587428787428788</v>
       </c>
       <c r="H13">
-        <v>-0.01049353798774152</v>
+        <v>0.02479128079128079</v>
       </c>
       <c r="I13">
-        <v>0.2067890159195606</v>
+        <v>0.01803684603684604</v>
       </c>
       <c r="J13">
-        <v>0.01592753789591474</v>
+        <v>0.0007059847165744872</v>
+      </c>
+      <c r="K13">
+        <v>-0.01295407295407295</v>
+      </c>
+      <c r="L13">
+        <v>0.01264191664191664</v>
+      </c>
+      <c r="M13">
+        <v>-0.02059568059568059</v>
+      </c>
+      <c r="N13">
+        <v>-0.04275727875727876</v>
+      </c>
+      <c r="P13">
+        <v>0.01868002268002268</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14">
-        <v>-0.2131287878211515</v>
+        <v>0.508990912990913</v>
       </c>
       <c r="D14">
-        <v>0.01771137603645504</v>
+        <v>-0.0601956241956242</v>
       </c>
       <c r="E14">
-        <v>-0.01816644226265769</v>
+        <v>0.04974030174030175</v>
       </c>
       <c r="F14">
-        <v>0.01731773685270947</v>
+        <v>-0.03931083931083931</v>
       </c>
       <c r="H14">
-        <v>0.02394055362962215</v>
+        <v>-0.004349992349992351</v>
       </c>
       <c r="I14">
-        <v>0.02511686980467479</v>
+        <v>0.002276042276042276</v>
       </c>
       <c r="J14">
-        <v>-0.004607667460692108</v>
+        <v>-0.02341103976220536</v>
+      </c>
+      <c r="K14">
+        <v>-0.6034874314874316</v>
+      </c>
+      <c r="L14">
+        <v>-0.05044223044223045</v>
+      </c>
+      <c r="M14">
+        <v>0.008562980562980563</v>
+      </c>
+      <c r="N14">
+        <v>0.06968301368301369</v>
+      </c>
+      <c r="P14">
+        <v>0.07542283542283543</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C15">
-        <v>0.01279452483178099</v>
+        <v>0.5513159273159274</v>
       </c>
       <c r="D15">
-        <v>-0.01079409892776396</v>
+        <v>-0.013994473994474</v>
       </c>
       <c r="E15">
-        <v>0.01066721044268842</v>
+        <v>0.02073350073350073</v>
       </c>
       <c r="F15">
-        <v>-0.009242219985688799</v>
+        <v>-0.03438755838755839</v>
       </c>
       <c r="H15">
-        <v>-0.001461011290440452</v>
+        <v>-0.05978641178641179</v>
       </c>
       <c r="I15">
-        <v>0.003835622073424882</v>
+        <v>-0.06354027954027953</v>
       </c>
       <c r="J15">
-        <v>0.006686487453432776</v>
+        <v>0.04560494228901642</v>
+      </c>
+      <c r="K15">
+        <v>0.7591191031191031</v>
+      </c>
+      <c r="L15">
+        <v>0.03833858633858633</v>
+      </c>
+      <c r="M15">
+        <v>0.008420672420672421</v>
+      </c>
+      <c r="N15">
+        <v>-0.009674037674037675</v>
+      </c>
+      <c r="P15">
+        <v>-0.03056884256884257</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>-0.04467373849094954</v>
+        <v>-0.04397623997623998</v>
       </c>
       <c r="D16">
-        <v>0.009868746058749841</v>
+        <v>-0.01795007395007395</v>
       </c>
       <c r="E16">
-        <v>-0.01032124169284967</v>
+        <v>0.01562480762480763</v>
       </c>
       <c r="F16">
-        <v>0.01261445896857836</v>
+        <v>-0.01638384438384438</v>
       </c>
       <c r="H16">
-        <v>0.02574818550992742</v>
+        <v>-0.004451032451032451</v>
       </c>
       <c r="I16">
-        <v>0.02279120855964833</v>
+        <v>-0.009078741078741079</v>
       </c>
       <c r="J16">
-        <v>-0.02022046612717126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>-0.01014845230067908</v>
+      </c>
+      <c r="K16">
+        <v>0.02194418194418195</v>
+      </c>
+      <c r="L16">
+        <v>-0.01549123549123549</v>
+      </c>
+      <c r="M16">
+        <v>0.0484943764943765</v>
+      </c>
+      <c r="N16">
+        <v>0.008806916806916807</v>
+      </c>
+      <c r="P16">
+        <v>-0.0214960894960895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>0.03448317315532692</v>
+        <v>0.02678443478443479</v>
       </c>
       <c r="D17">
-        <v>0.03651969227678769</v>
+        <v>0.006344334344334345</v>
       </c>
       <c r="E17">
-        <v>-0.03668060546722421</v>
+        <v>-0.005547089547089548</v>
       </c>
       <c r="F17">
-        <v>0.03954269802970792</v>
+        <v>0.001703689703689703</v>
       </c>
       <c r="H17">
-        <v>0.05229030957961238</v>
+        <v>-3.723603723603724E-05</v>
       </c>
       <c r="I17">
-        <v>0.04670276855611073</v>
+        <v>0.001922293922293922</v>
       </c>
       <c r="J17">
-        <v>-0.03242172349601853</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>-0.01450120471872279</v>
+      </c>
+      <c r="K17">
+        <v>0.01418483018483018</v>
+      </c>
+      <c r="L17">
+        <v>0.007447219447219447</v>
+      </c>
+      <c r="M17">
+        <v>-0.006715050715050716</v>
+      </c>
+      <c r="N17">
+        <v>0.002474834474834475</v>
+      </c>
+      <c r="P17">
+        <v>-0.05431495831495831</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>0.03340069967202798</v>
+        <v>0.07624024024024025</v>
       </c>
       <c r="D18">
-        <v>0.003766020438640817</v>
+        <v>0.05413529413529414</v>
       </c>
       <c r="E18">
-        <v>-0.0009566446462657858</v>
+        <v>-0.05164128364128365</v>
       </c>
       <c r="F18">
-        <v>0.002013519536540781</v>
+        <v>0.04705931905931907</v>
       </c>
       <c r="H18">
-        <v>0.01073995684559827</v>
+        <v>0.00308031908031908</v>
       </c>
       <c r="I18">
-        <v>0.01622840628113625</v>
+        <v>0.2044309804309805</v>
       </c>
       <c r="J18">
-        <v>0.02598211838912467</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>0.01480826703039104</v>
+      </c>
+      <c r="K18">
+        <v>-0.0002358002358002358</v>
+      </c>
+      <c r="L18">
+        <v>0.009576693576693576</v>
+      </c>
+      <c r="M18">
+        <v>-0.1248851208851209</v>
+      </c>
+      <c r="N18">
+        <v>-0.03979095979095979</v>
+      </c>
+      <c r="P18">
+        <v>-0.02524316524316524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19">
-        <v>0.0008938079397523176</v>
+        <v>-0.2262929142929143</v>
       </c>
       <c r="D19">
-        <v>-0.01535635549425422</v>
+        <v>0.01594202794202794</v>
       </c>
       <c r="E19">
-        <v>0.01659556405582256</v>
+        <v>-0.01323108123108123</v>
       </c>
       <c r="F19">
-        <v>-0.0164377626095105</v>
+        <v>0.009760965760965761</v>
       </c>
       <c r="H19">
-        <v>-0.004140229125609164</v>
+        <v>-0.001023301023301023</v>
       </c>
       <c r="I19">
-        <v>0.003863478394539135</v>
+        <v>-0.01207676407676408</v>
       </c>
       <c r="J19">
-        <v>0.0004556733314517831</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>-0.04016110076351728</v>
+      </c>
+      <c r="K19">
+        <v>-0.09225831225831226</v>
+      </c>
+      <c r="L19">
+        <v>0.04817564417564418</v>
+      </c>
+      <c r="M19">
+        <v>-0.03131404331404332</v>
+      </c>
+      <c r="N19">
+        <v>8.664008664008666E-06</v>
+      </c>
+      <c r="P19">
+        <v>-0.02737205137205137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>-0.005189924847596994</v>
+        <v>0.04725573525573526</v>
       </c>
       <c r="D20">
-        <v>-0.00327093277083731</v>
+        <v>-0.002562302562302562</v>
       </c>
       <c r="E20">
-        <v>0.001162035214481408</v>
+        <v>0.001228885228885229</v>
       </c>
       <c r="F20">
-        <v>0.0008999491559979661</v>
+        <v>-0.0009061569061569063</v>
       </c>
       <c r="H20">
-        <v>-0.0009950914958036597</v>
+        <v>0.009604497604497605</v>
       </c>
       <c r="I20">
-        <v>-0.001004246920169877</v>
+        <v>0.01021394221394222</v>
       </c>
       <c r="J20">
-        <v>0.01009170604679475</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1"/>
+        <v>0.02866213109206307</v>
+      </c>
+      <c r="K20">
+        <v>0.02826302826302826</v>
+      </c>
+      <c r="L20">
+        <v>-0.005688605688605689</v>
+      </c>
+      <c r="M20">
+        <v>0.02022700422700423</v>
+      </c>
+      <c r="N20">
+        <v>0.00541012141012141</v>
+      </c>
+      <c r="P20">
+        <v>0.01714213714213714</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21">
-        <v>0.02457404143096165</v>
+        <v>-0.00572954972954973</v>
       </c>
       <c r="D21">
-        <v>0.01866298884251955</v>
+        <v>0.01934635934635935</v>
       </c>
       <c r="E21">
-        <v>-0.02106781034671241</v>
+        <v>-0.01692926892926893</v>
       </c>
       <c r="F21">
-        <v>0.02442647828905913</v>
+        <v>0.01390287790287791</v>
       </c>
       <c r="H21">
-        <v>0.03003059947322398</v>
+        <v>-0.003265167265167266</v>
       </c>
       <c r="I21">
-        <v>0.02428224865128994</v>
+        <v>0.004638220638220639</v>
       </c>
       <c r="J21">
-        <v>-0.009842024292136332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>0.01501539924063023</v>
+      </c>
+      <c r="K21">
+        <v>-0.003101511101511102</v>
+      </c>
+      <c r="L21">
+        <v>0.009850269850269851</v>
+      </c>
+      <c r="M21">
+        <v>-0.02378515178515178</v>
+      </c>
+      <c r="N21">
+        <v>-0.00165019365019365</v>
+      </c>
+      <c r="P21">
+        <v>-0.005377961377961379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C22">
-        <v>0.01033764655750586</v>
+        <v>-0.03116524316524317</v>
       </c>
       <c r="D22">
-        <v>0.007573749134949965</v>
+        <v>-0.01427653427653428</v>
       </c>
       <c r="E22">
-        <v>-0.009724717156988685</v>
+        <v>0.01096946296946297</v>
       </c>
       <c r="F22">
-        <v>0.01106892629875705</v>
+        <v>-0.00595979395979396</v>
       </c>
       <c r="H22">
-        <v>-6.642614665704585E-05</v>
+        <v>0.02009326409326409</v>
       </c>
       <c r="I22">
-        <v>-0.0009532179261287168</v>
+        <v>0.02262506262506263</v>
       </c>
       <c r="J22">
-        <v>0.006602667209854658</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>-0.0267254911263735</v>
+      </c>
+      <c r="K22">
+        <v>0.00217014217014217</v>
+      </c>
+      <c r="L22">
+        <v>-0.02476720876720877</v>
+      </c>
+      <c r="M22">
+        <v>0.01396116196116196</v>
+      </c>
+      <c r="N22">
+        <v>0.003795351795351795</v>
+      </c>
+      <c r="P22">
+        <v>-0.001061293061293061</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C23">
-        <v>0.003900186492007459</v>
+        <v>-0.01024785424785425</v>
       </c>
       <c r="D23">
-        <v>0.002589019783560791</v>
+        <v>-0.02897848097848098</v>
       </c>
       <c r="E23">
-        <v>-6.126672245066889E-05</v>
+        <v>0.01968954768954769</v>
       </c>
       <c r="F23">
-        <v>-0.0003983705439348217</v>
+        <v>-0.01203928803928804</v>
       </c>
       <c r="H23">
-        <v>-0.007099737691989507</v>
+        <v>0.008793224793224794</v>
       </c>
       <c r="I23">
-        <v>-0.01008051323522053</v>
+        <v>0.02420587220587221</v>
       </c>
       <c r="J23">
-        <v>-0.000247516234565973</v>
+        <v>0.07545387458568271</v>
+      </c>
+      <c r="K23">
+        <v>0.0006748206748206748</v>
+      </c>
+      <c r="L23">
+        <v>-0.06783939183939185</v>
+      </c>
+      <c r="M23">
+        <v>0.02098316098316098</v>
+      </c>
+      <c r="N23">
+        <v>0.0566007926007926</v>
+      </c>
+      <c r="P23">
+        <v>0.0402963522963523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>0.003943371943371943</v>
+      </c>
+      <c r="D24">
+        <v>0.02858402858402859</v>
+      </c>
+      <c r="E24">
+        <v>-0.02603759003759004</v>
+      </c>
+      <c r="F24">
+        <v>0.01677126477126477</v>
+      </c>
+      <c r="H24">
+        <v>-0.03832481032481033</v>
+      </c>
+      <c r="I24">
+        <v>-0.05215466815466815</v>
+      </c>
+      <c r="J24">
+        <v>0.05098463174940122</v>
+      </c>
+      <c r="K24">
+        <v>0.0435962115962116</v>
+      </c>
+      <c r="L24">
+        <v>0.03994616794616795</v>
+      </c>
+      <c r="M24">
+        <v>-0.01572239172239173</v>
+      </c>
+      <c r="N24">
+        <v>-0.04526447726447727</v>
+      </c>
+      <c r="P24">
+        <v>-0.04495766095766096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>-0.001113985113985114</v>
+      </c>
+      <c r="D25">
+        <v>-0.0220980340980341</v>
+      </c>
+      <c r="E25">
+        <v>0.03096507096507097</v>
+      </c>
+      <c r="F25">
+        <v>-0.0367005127005127</v>
+      </c>
+      <c r="H25">
+        <v>-0.02347405147405147</v>
+      </c>
+      <c r="I25">
+        <v>-0.01586763986763987</v>
+      </c>
+      <c r="J25">
+        <v>-0.02848135090857118</v>
+      </c>
+      <c r="K25">
+        <v>0.007619239619239619</v>
+      </c>
+      <c r="L25">
+        <v>0.04452584052584053</v>
+      </c>
+      <c r="M25">
+        <v>-0.01084363084363085</v>
+      </c>
+      <c r="N25">
+        <v>-0.01158275958275958</v>
+      </c>
+      <c r="P25">
+        <v>-0.02435454035454036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>0.04663150663150663</v>
+      </c>
+      <c r="D26">
+        <v>0.03846227046227047</v>
+      </c>
+      <c r="E26">
+        <v>-0.03793983793983795</v>
+      </c>
+      <c r="F26">
+        <v>0.0353038913038913</v>
+      </c>
+      <c r="H26">
+        <v>0.01244904044904045</v>
+      </c>
+      <c r="I26">
+        <v>0.001016713016713017</v>
+      </c>
+      <c r="J26">
+        <v>-0.0157924180293043</v>
+      </c>
+      <c r="K26">
+        <v>-0.07862544662544664</v>
+      </c>
+      <c r="L26">
+        <v>-0.01004955404955405</v>
+      </c>
+      <c r="M26">
+        <v>0.0003793083793083793</v>
+      </c>
+      <c r="N26">
+        <v>-0.005034365034365034</v>
+      </c>
+      <c r="P26">
+        <v>-0.03606777606777607</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27">
+        <v>-0.0031002271002271</v>
+      </c>
+      <c r="D27">
+        <v>0.01442625842625843</v>
+      </c>
+      <c r="E27">
+        <v>-0.020006024006024</v>
+      </c>
+      <c r="F27">
+        <v>0.02702270702270703</v>
+      </c>
+      <c r="H27">
+        <v>0.001810873810873811</v>
+      </c>
+      <c r="I27">
+        <v>-0.01690915690915691</v>
+      </c>
+      <c r="J27">
+        <v>-0.03866469924466973</v>
+      </c>
+      <c r="K27">
+        <v>-0.02346190746190746</v>
+      </c>
+      <c r="L27">
+        <v>-0.02608730608730609</v>
+      </c>
+      <c r="M27">
+        <v>0.00785125985125985</v>
+      </c>
+      <c r="N27">
+        <v>-0.008843576843576844</v>
+      </c>
+      <c r="P27">
+        <v>0.005074049074049075</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>-0.00435968835968836</v>
+      </c>
+      <c r="D28">
+        <v>0.01127975927975928</v>
+      </c>
+      <c r="E28">
+        <v>-0.004898848898848899</v>
+      </c>
+      <c r="F28">
+        <v>-0.002412146412146412</v>
+      </c>
+      <c r="H28">
+        <v>-0.02862896862896863</v>
+      </c>
+      <c r="I28">
+        <v>-0.02806369606369606</v>
+      </c>
+      <c r="J28">
+        <v>0.00540620948730263</v>
+      </c>
+      <c r="K28">
+        <v>-0.006368466368466369</v>
+      </c>
+      <c r="L28">
+        <v>0.02727069927069927</v>
+      </c>
+      <c r="M28">
+        <v>0.003168267168267168</v>
+      </c>
+      <c r="N28">
+        <v>-0.01642109242109242</v>
+      </c>
+      <c r="P28">
+        <v>0.003121491121491122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29">
+        <v>-0.03154435954435954</v>
+      </c>
+      <c r="D29">
+        <v>-0.04801058401058401</v>
+      </c>
+      <c r="E29">
+        <v>0.05114157914157914</v>
+      </c>
+      <c r="F29">
+        <v>-0.05051239451239451</v>
+      </c>
+      <c r="H29">
+        <v>-0.01259173259173259</v>
+      </c>
+      <c r="I29">
+        <v>-0.007856875856875858</v>
+      </c>
+      <c r="J29">
+        <v>-0.01823531450884423</v>
+      </c>
+      <c r="K29">
+        <v>-0.007588399588399589</v>
+      </c>
+      <c r="L29">
+        <v>0.008589236589236588</v>
+      </c>
+      <c r="M29">
+        <v>-0.001518493518493519</v>
+      </c>
+      <c r="N29">
+        <v>0.03707455307455308</v>
+      </c>
+      <c r="P29">
+        <v>-0.02488688488688489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30">
+        <v>0.01209213609213609</v>
+      </c>
+      <c r="D30">
+        <v>0.01478559878559878</v>
+      </c>
+      <c r="E30">
+        <v>-0.01022794622794623</v>
+      </c>
+      <c r="F30">
+        <v>0.01008782208782209</v>
+      </c>
+      <c r="H30">
+        <v>0.02832528432528433</v>
+      </c>
+      <c r="I30">
+        <v>0.02671746271746272</v>
+      </c>
+      <c r="J30">
+        <v>0.01894654323074138</v>
+      </c>
+      <c r="K30">
+        <v>0.02336284736284736</v>
+      </c>
+      <c r="L30">
+        <v>0.04941244941244941</v>
+      </c>
+      <c r="M30">
+        <v>-0.04763617163617164</v>
+      </c>
+      <c r="N30">
+        <v>-0.006828006828006829</v>
+      </c>
+      <c r="P30">
+        <v>0.02228413028413028</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C1:P1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
@@ -620,40 +620,40 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>0.4211471291471292</v>
+        <v>0.4015774615774615</v>
       </c>
       <c r="D4">
-        <v>0.9845521085521086</v>
+        <v>0.9837141837141837</v>
       </c>
       <c r="E4">
-        <v>-0.9977520737520738</v>
+        <v>-0.9963292803292804</v>
       </c>
       <c r="F4">
-        <v>0.9762086082086083</v>
+        <v>0.9773338613338614</v>
       </c>
       <c r="H4">
-        <v>0.3546770106770107</v>
+        <v>0.3628100668100669</v>
       </c>
       <c r="I4">
-        <v>0.02927555327555328</v>
+        <v>0.02838746838746839</v>
       </c>
       <c r="J4">
-        <v>0.2017620067884369</v>
+        <v>-0.8252210142564296</v>
       </c>
       <c r="K4">
-        <v>-0.03688338088338088</v>
+        <v>0.05004002604002605</v>
       </c>
       <c r="L4">
-        <v>-0.02896962496962498</v>
+        <v>-0.02898331698331699</v>
       </c>
       <c r="M4">
-        <v>0.016997836997837</v>
+        <v>0.01361913761913762</v>
       </c>
       <c r="N4">
-        <v>-0.719848655848656</v>
+        <v>0.1603463083463083</v>
       </c>
       <c r="P4">
-        <v>-0.3803125163125163</v>
+        <v>-0.368027612027612</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -662,40 +662,40 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0.008855120855120855</v>
+        <v>-0.02720213120213121</v>
       </c>
       <c r="D5">
-        <v>0.05085561885561886</v>
+        <v>0.06723693123693124</v>
       </c>
       <c r="E5">
-        <v>-0.05608142008142009</v>
+        <v>-0.07527141927141927</v>
       </c>
       <c r="F5">
-        <v>0.05232410832410832</v>
+        <v>0.0712889272889273</v>
       </c>
       <c r="H5">
-        <v>-0.03652980052980053</v>
+        <v>0.1178526338526339</v>
       </c>
       <c r="I5">
-        <v>-0.005886209886209887</v>
+        <v>-0.00532930132930133</v>
       </c>
       <c r="J5">
-        <v>0.121167068984575</v>
+        <v>-0.2307237359267055</v>
       </c>
       <c r="K5">
-        <v>-0.006981018981018982</v>
+        <v>0.00468006468006468</v>
       </c>
       <c r="L5">
-        <v>-0.03407733407733408</v>
+        <v>-0.03355170955170956</v>
       </c>
       <c r="M5">
-        <v>0.05568829968829969</v>
+        <v>0.05461731061731063</v>
       </c>
       <c r="N5">
-        <v>-0.01494511494511495</v>
+        <v>0.02042446442446443</v>
       </c>
       <c r="P5">
-        <v>-0.002861366861366861</v>
+        <v>-0.1344088584088584</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -704,40 +704,40 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-0.01723354123354123</v>
+        <v>-0.02059187659187659</v>
       </c>
       <c r="D6">
-        <v>-0.06024418824418825</v>
+        <v>-0.05889766689766691</v>
       </c>
       <c r="E6">
-        <v>-0.0293987933987934</v>
+        <v>-0.02928484128484128</v>
       </c>
       <c r="F6">
-        <v>0.1178666858666859</v>
+        <v>0.1122046002046002</v>
       </c>
       <c r="H6">
-        <v>0.05541345141345141</v>
+        <v>0.0545969105969106</v>
       </c>
       <c r="I6">
-        <v>0.02856575256575257</v>
+        <v>0.02813134013134014</v>
       </c>
       <c r="J6">
-        <v>-0.006897361000821416</v>
+        <v>0.1289922999356116</v>
       </c>
       <c r="K6">
-        <v>-0.1051990531990532</v>
+        <v>-0.1033957633957634</v>
       </c>
       <c r="L6">
-        <v>-0.5536183576183576</v>
+        <v>-0.5551046791046792</v>
       </c>
       <c r="M6">
-        <v>-0.02619096219096219</v>
+        <v>-0.02797764397764398</v>
       </c>
       <c r="N6">
-        <v>0.3483437523437524</v>
+        <v>0.5632484752484753</v>
       </c>
       <c r="P6">
-        <v>0.1377760737760738</v>
+        <v>0.1451037251037251</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -746,40 +746,40 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>0.08099906099906101</v>
+        <v>0.08241194241194241</v>
       </c>
       <c r="D7">
-        <v>0.1142082302082302</v>
+        <v>0.1128295248295248</v>
       </c>
       <c r="E7">
-        <v>0.004870936870936871</v>
+        <v>0.00482050082050082</v>
       </c>
       <c r="F7">
-        <v>-0.1261653901653902</v>
+        <v>-0.120966840966841</v>
       </c>
       <c r="H7">
-        <v>-0.0934953334953335</v>
+        <v>-0.08380407580407581</v>
       </c>
       <c r="I7">
-        <v>-0.05188736788736789</v>
+        <v>-0.05220785220785221</v>
       </c>
       <c r="J7">
-        <v>-0.04847229719938166</v>
+        <v>-0.05239161045528587</v>
       </c>
       <c r="K7">
-        <v>0.1392611832611833</v>
+        <v>0.1375298095298095</v>
       </c>
       <c r="L7">
-        <v>0.7714171594171595</v>
+        <v>0.7736304656304657</v>
       </c>
       <c r="M7">
-        <v>-0.0193966873966874</v>
+        <v>-0.01611053211053212</v>
       </c>
       <c r="N7">
-        <v>-0.4677522837522838</v>
+        <v>-0.7684511764511764</v>
       </c>
       <c r="P7">
-        <v>-0.2325285285285286</v>
+        <v>-0.2133596133596134</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -788,40 +788,40 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.1571337971337972</v>
+        <v>0.1616114936114936</v>
       </c>
       <c r="D8">
-        <v>0.01042732642732643</v>
+        <v>0.0112010632010632</v>
       </c>
       <c r="E8">
-        <v>-0.01893682293682294</v>
+        <v>-0.01888291888291889</v>
       </c>
       <c r="F8">
-        <v>0.1480755400755401</v>
+        <v>0.141989205989206</v>
       </c>
       <c r="H8">
-        <v>0.9361261921261921</v>
+        <v>0.9250558810558812</v>
       </c>
       <c r="I8">
-        <v>0.9744730584730585</v>
+        <v>0.977944025944026</v>
       </c>
       <c r="J8">
-        <v>-0.4255823879661237</v>
+        <v>-0.09807987210477222</v>
       </c>
       <c r="K8">
-        <v>-0.02694859494859495</v>
+        <v>-0.0288012888012888</v>
       </c>
       <c r="L8">
-        <v>-0.06756939156939157</v>
+        <v>-0.0663948783948784</v>
       </c>
       <c r="M8">
-        <v>0.0338025938025938</v>
+        <v>0.0310983310983311</v>
       </c>
       <c r="N8">
-        <v>0.04900797700797702</v>
+        <v>0.07577933177933178</v>
       </c>
       <c r="P8">
-        <v>0.5380741660741661</v>
+        <v>0.5258422778422779</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,40 +830,40 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-0.0007634647634647635</v>
+        <v>0.01212777612777613</v>
       </c>
       <c r="D9">
-        <v>-0.01212453612453613</v>
+        <v>-0.008373404373404374</v>
       </c>
       <c r="E9">
-        <v>-0.01577168777168778</v>
+        <v>-0.02416779616779617</v>
       </c>
       <c r="F9">
-        <v>-0.001848973848973849</v>
+        <v>0.05024985824985825</v>
       </c>
       <c r="H9">
-        <v>0.03120720720720721</v>
+        <v>0.03738909738909739</v>
       </c>
       <c r="I9">
-        <v>0.03017574617574618</v>
+        <v>0.03047064647064647</v>
       </c>
       <c r="J9">
-        <v>-0.00697946508415706</v>
+        <v>-0.03815847751147289</v>
       </c>
       <c r="K9">
-        <v>-0.04881129681129682</v>
+        <v>-0.03058281058281059</v>
       </c>
       <c r="L9">
-        <v>-0.236012936012936</v>
+        <v>-0.2191070311070311</v>
       </c>
       <c r="M9">
-        <v>0.9922551322551323</v>
+        <v>0.9831689271689272</v>
       </c>
       <c r="N9">
-        <v>-0.1213250533250533</v>
+        <v>0.1428406548406548</v>
       </c>
       <c r="P9">
-        <v>0.005891981891981892</v>
+        <v>-0.01800015000015</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -872,40 +872,40 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-0.012002268002268</v>
+        <v>-0.01515800715800716</v>
       </c>
       <c r="D10">
-        <v>0.0341949581949582</v>
+        <v>0.03183227583227583</v>
       </c>
       <c r="E10">
-        <v>-0.04385433185433186</v>
+        <v>-0.04458812058812059</v>
       </c>
       <c r="F10">
-        <v>0.02421848421848422</v>
+        <v>0.03996137196137196</v>
       </c>
       <c r="H10">
-        <v>-0.06185516585516586</v>
+        <v>-0.04734739134739135</v>
       </c>
       <c r="I10">
-        <v>-0.09023705423705423</v>
+        <v>-0.0893987573987574</v>
       </c>
       <c r="J10">
-        <v>0.05973275462874595</v>
+        <v>-0.06125019273532216</v>
       </c>
       <c r="K10">
-        <v>-0.02718377118377119</v>
+        <v>-0.01963278763278764</v>
       </c>
       <c r="L10">
-        <v>-0.05337534537534538</v>
+        <v>-0.07154943554943556</v>
       </c>
       <c r="M10">
-        <v>0.02984718584718585</v>
+        <v>0.03536417936417937</v>
       </c>
       <c r="N10">
-        <v>-0.07130525930525931</v>
+        <v>0.0484923604923605</v>
       </c>
       <c r="P10">
-        <v>-0.0403975843975844</v>
+        <v>0.001198729198729199</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -914,40 +914,40 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-0.02317940317940318</v>
+        <v>-0.02200477000477</v>
       </c>
       <c r="D11">
-        <v>-0.02428971628971629</v>
+        <v>-0.025002637002637</v>
       </c>
       <c r="E11">
-        <v>0.03438429438429439</v>
+        <v>0.03443959043959044</v>
       </c>
       <c r="F11">
-        <v>-0.0443927963927964</v>
+        <v>-0.04172262572262573</v>
       </c>
       <c r="H11">
-        <v>-0.02399585999586</v>
+        <v>-0.02871266871266872</v>
       </c>
       <c r="I11">
-        <v>-0.01304689304689305</v>
+        <v>-0.01283276483276483</v>
       </c>
       <c r="J11">
-        <v>0.0116941618695743</v>
+        <v>0.02725887794131635</v>
       </c>
       <c r="K11">
-        <v>0.06834960834960835</v>
+        <v>0.06845120045120046</v>
       </c>
       <c r="L11">
-        <v>0.08305198705198706</v>
+        <v>0.08051429651429652</v>
       </c>
       <c r="M11">
-        <v>0.04128254928254929</v>
+        <v>0.1433018273018273</v>
       </c>
       <c r="N11">
-        <v>-0.01074429474429475</v>
+        <v>-0.06599993399993401</v>
       </c>
       <c r="P11">
-        <v>-0.02337803937803938</v>
+        <v>-0.05019181419181419</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -956,40 +956,40 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>0.01686833286833287</v>
+        <v>0.01838661038661039</v>
       </c>
       <c r="D12">
-        <v>0.02618383418383418</v>
+        <v>0.02669022269022269</v>
       </c>
       <c r="E12">
-        <v>-0.01102185502185502</v>
+        <v>-0.0116964476964477</v>
       </c>
       <c r="F12">
-        <v>-0.008437412437412438</v>
+        <v>-0.005136869136869137</v>
       </c>
       <c r="H12">
-        <v>-0.04364833964833965</v>
+        <v>-0.03493903093903094</v>
       </c>
       <c r="I12">
-        <v>-0.03650521250521251</v>
+        <v>-0.03755493755493756</v>
       </c>
       <c r="J12">
-        <v>0.007207117315224076</v>
+        <v>-0.3947969404127419</v>
       </c>
       <c r="K12">
-        <v>0.04317105117105118</v>
+        <v>0.04540826140826142</v>
       </c>
       <c r="L12">
-        <v>0.07813959013959014</v>
+        <v>0.08188229788229789</v>
       </c>
       <c r="M12">
-        <v>0.01656509256509257</v>
+        <v>0.01980683580683581</v>
       </c>
       <c r="N12">
-        <v>-0.05814178614178615</v>
+        <v>-0.08027344427344428</v>
       </c>
       <c r="P12">
-        <v>-0.05753810153810154</v>
+        <v>-0.08420892020892022</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -998,40 +998,40 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0.04060854460854461</v>
+        <v>0.03908669108669108</v>
       </c>
       <c r="D13">
-        <v>0.03847975447975448</v>
+        <v>0.03895865095865096</v>
       </c>
       <c r="E13">
-        <v>-0.03679510879510879</v>
+        <v>-0.03671450471450471</v>
       </c>
       <c r="F13">
-        <v>0.03587428787428788</v>
+        <v>0.03407759807759808</v>
       </c>
       <c r="H13">
-        <v>0.02479128079128079</v>
+        <v>0.02870111270111271</v>
       </c>
       <c r="I13">
-        <v>0.01803684603684604</v>
+        <v>0.01813471813471814</v>
       </c>
       <c r="J13">
-        <v>0.0007059847165744872</v>
+        <v>-0.2039265887296992</v>
       </c>
       <c r="K13">
-        <v>-0.01295407295407295</v>
+        <v>-0.007694455694455695</v>
       </c>
       <c r="L13">
-        <v>0.01264191664191664</v>
+        <v>0.01272358872358872</v>
       </c>
       <c r="M13">
-        <v>-0.02059568059568059</v>
+        <v>-0.02107526107526108</v>
       </c>
       <c r="N13">
-        <v>-0.04275727875727876</v>
+        <v>-0.01122595122595123</v>
       </c>
       <c r="P13">
-        <v>0.01868002268002268</v>
+        <v>-0.008287172287172288</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1042,40 +1042,40 @@
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0.508990912990913</v>
+        <v>0.5087011367011367</v>
       </c>
       <c r="D14">
-        <v>-0.0601956241956242</v>
+        <v>-0.06049876849876851</v>
       </c>
       <c r="E14">
-        <v>0.04974030174030175</v>
+        <v>0.05004536604536605</v>
       </c>
       <c r="F14">
-        <v>-0.03931083931083931</v>
+        <v>-0.0403928683928684</v>
       </c>
       <c r="H14">
-        <v>-0.004349992349992351</v>
+        <v>-0.008429648429648429</v>
       </c>
       <c r="I14">
-        <v>0.002276042276042276</v>
+        <v>0.002840966840966841</v>
       </c>
       <c r="J14">
-        <v>-0.02341103976220536</v>
+        <v>0.07057357776462059</v>
       </c>
       <c r="K14">
-        <v>-0.6034874314874316</v>
+        <v>-0.628901272901273</v>
       </c>
       <c r="L14">
-        <v>-0.05044223044223045</v>
+        <v>-0.05092830292830293</v>
       </c>
       <c r="M14">
-        <v>0.008562980562980563</v>
+        <v>0.004642552642552643</v>
       </c>
       <c r="N14">
-        <v>0.06968301368301369</v>
+        <v>0.03559233559233559</v>
       </c>
       <c r="P14">
-        <v>0.07542283542283543</v>
+        <v>0.07654367254367254</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1086,40 +1086,40 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>0.5513159273159274</v>
+        <v>0.5634742434742435</v>
       </c>
       <c r="D15">
-        <v>-0.013994473994474</v>
+        <v>-0.01442781842781843</v>
       </c>
       <c r="E15">
-        <v>0.02073350073350073</v>
+        <v>0.02097242097242098</v>
       </c>
       <c r="F15">
-        <v>-0.03438755838755839</v>
+        <v>-0.03277287277287278</v>
       </c>
       <c r="H15">
-        <v>-0.05978641178641179</v>
+        <v>-0.06285525885525886</v>
       </c>
       <c r="I15">
-        <v>-0.06354027954027953</v>
+        <v>-0.06332244332244331</v>
       </c>
       <c r="J15">
-        <v>0.04560494228901642</v>
+        <v>0.01463221758713749</v>
       </c>
       <c r="K15">
-        <v>0.7591191031191031</v>
+        <v>0.7404229884229885</v>
       </c>
       <c r="L15">
-        <v>0.03833858633858633</v>
+        <v>0.03854384654384654</v>
       </c>
       <c r="M15">
-        <v>0.008420672420672421</v>
+        <v>0.01392699792699793</v>
       </c>
       <c r="N15">
-        <v>-0.009674037674037675</v>
+        <v>-0.04255180255180255</v>
       </c>
       <c r="P15">
-        <v>-0.03056884256884257</v>
+        <v>-0.04954784554784555</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1130,40 +1130,40 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>-0.04397623997623998</v>
+        <v>-0.04442127242127242</v>
       </c>
       <c r="D16">
-        <v>-0.01795007395007395</v>
+        <v>-0.01803598203598204</v>
       </c>
       <c r="E16">
-        <v>0.01562480762480763</v>
+        <v>0.01507987507987508</v>
       </c>
       <c r="F16">
-        <v>-0.01638384438384438</v>
+        <v>-0.01565959565959566</v>
       </c>
       <c r="H16">
-        <v>-0.004451032451032451</v>
+        <v>-0.006300282300282301</v>
       </c>
       <c r="I16">
-        <v>-0.009078741078741079</v>
+        <v>-0.008551280551280552</v>
       </c>
       <c r="J16">
-        <v>-0.01014845230067908</v>
+        <v>0.03814710749314442</v>
       </c>
       <c r="K16">
-        <v>0.02194418194418195</v>
+        <v>0.02007432807432807</v>
       </c>
       <c r="L16">
-        <v>-0.01549123549123549</v>
+        <v>-0.0147018867018867</v>
       </c>
       <c r="M16">
-        <v>0.0484943764943765</v>
+        <v>0.04806698406698407</v>
       </c>
       <c r="N16">
-        <v>0.008806916806916807</v>
+        <v>0.0120992280992281</v>
       </c>
       <c r="P16">
-        <v>-0.0214960894960895</v>
+        <v>0.002966342966342966</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1174,40 +1174,40 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>0.02678443478443479</v>
+        <v>0.04058852858852859</v>
       </c>
       <c r="D17">
-        <v>0.006344334344334345</v>
+        <v>0.006927474927474928</v>
       </c>
       <c r="E17">
-        <v>-0.005547089547089548</v>
+        <v>-0.006457230457230458</v>
       </c>
       <c r="F17">
-        <v>0.001703689703689703</v>
+        <v>0.001987909987909988</v>
       </c>
       <c r="H17">
-        <v>-3.723603723603724E-05</v>
+        <v>0.01050851850851851</v>
       </c>
       <c r="I17">
-        <v>0.001922293922293922</v>
+        <v>0.001472761472761473</v>
       </c>
       <c r="J17">
-        <v>-0.01450120471872279</v>
+        <v>-0.01424905096947283</v>
       </c>
       <c r="K17">
-        <v>0.01418483018483018</v>
+        <v>0.01324389724389725</v>
       </c>
       <c r="L17">
-        <v>0.007447219447219447</v>
+        <v>0.008068532068532069</v>
       </c>
       <c r="M17">
-        <v>-0.006715050715050716</v>
+        <v>-0.00938991338991339</v>
       </c>
       <c r="N17">
-        <v>0.002474834474834475</v>
+        <v>-0.01235158835158835</v>
       </c>
       <c r="P17">
-        <v>-0.05431495831495831</v>
+        <v>-0.04487805287805288</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1216,40 +1216,40 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>0.07624024024024025</v>
+        <v>0.08049393249393251</v>
       </c>
       <c r="D18">
-        <v>0.05413529413529414</v>
+        <v>0.05433136233136233</v>
       </c>
       <c r="E18">
-        <v>-0.05164128364128365</v>
+        <v>-0.04998220998220999</v>
       </c>
       <c r="F18">
-        <v>0.04705931905931907</v>
+        <v>0.04518896118896119</v>
       </c>
       <c r="H18">
-        <v>0.00308031908031908</v>
+        <v>-0.001010701010701011</v>
       </c>
       <c r="I18">
-        <v>0.2044309804309805</v>
+        <v>0.1891953571953572</v>
       </c>
       <c r="J18">
-        <v>0.01480826703039104</v>
+        <v>-0.05358500037903065</v>
       </c>
       <c r="K18">
-        <v>-0.0002358002358002358</v>
+        <v>0.004183912183912184</v>
       </c>
       <c r="L18">
-        <v>0.009576693576693576</v>
+        <v>0.01062849462849463</v>
       </c>
       <c r="M18">
-        <v>-0.1248851208851209</v>
+        <v>-0.1346738426738427</v>
       </c>
       <c r="N18">
-        <v>-0.03979095979095979</v>
+        <v>-0.001212493212493213</v>
       </c>
       <c r="P18">
-        <v>-0.02524316524316524</v>
+        <v>-0.006421998421998423</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1258,40 +1258,40 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>-0.2262929142929143</v>
+        <v>-0.2176730776730777</v>
       </c>
       <c r="D19">
-        <v>0.01594202794202794</v>
+        <v>0.01541732741732742</v>
       </c>
       <c r="E19">
-        <v>-0.01323108123108123</v>
+        <v>-0.01242469242469242</v>
       </c>
       <c r="F19">
-        <v>0.009760965760965761</v>
+        <v>0.007249327249327249</v>
       </c>
       <c r="H19">
-        <v>-0.001023301023301023</v>
+        <v>-0.003870375870375871</v>
       </c>
       <c r="I19">
-        <v>-0.01207676407676408</v>
+        <v>-0.01142872742872743</v>
       </c>
       <c r="J19">
-        <v>-0.04016110076351728</v>
+        <v>-0.01454975945421496</v>
       </c>
       <c r="K19">
-        <v>-0.09225831225831226</v>
+        <v>-0.09448160248160248</v>
       </c>
       <c r="L19">
-        <v>0.04817564417564418</v>
+        <v>0.04854196854196855</v>
       </c>
       <c r="M19">
-        <v>-0.03131404331404332</v>
+        <v>-0.02926565326565327</v>
       </c>
       <c r="N19">
-        <v>8.664008664008666E-06</v>
+        <v>-0.04994823794823795</v>
       </c>
       <c r="P19">
-        <v>-0.02737205137205137</v>
+        <v>-0.0307944547944548</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1302,40 +1302,40 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>0.04725573525573526</v>
+        <v>0.04493597693597694</v>
       </c>
       <c r="D20">
-        <v>-0.002562302562302562</v>
+        <v>-0.001254313254313254</v>
       </c>
       <c r="E20">
-        <v>0.001228885228885229</v>
+        <v>-0.0003846363846363846</v>
       </c>
       <c r="F20">
-        <v>-0.0009061569061569063</v>
+        <v>0.002156006156006156</v>
       </c>
       <c r="H20">
-        <v>0.009604497604497605</v>
+        <v>0.0186973746973747</v>
       </c>
       <c r="I20">
-        <v>0.01021394221394222</v>
+        <v>0.01041791841791842</v>
       </c>
       <c r="J20">
-        <v>0.02866213109206307</v>
+        <v>-0.03009217250858772</v>
       </c>
       <c r="K20">
-        <v>0.02826302826302826</v>
+        <v>0.02757747957747958</v>
       </c>
       <c r="L20">
-        <v>-0.005688605688605689</v>
+        <v>-0.004758268758268759</v>
       </c>
       <c r="M20">
-        <v>0.02022700422700423</v>
+        <v>0.02101792501792502</v>
       </c>
       <c r="N20">
-        <v>0.00541012141012141</v>
+        <v>-0.003088203088203089</v>
       </c>
       <c r="P20">
-        <v>0.01714213714213714</v>
+        <v>0.003664527664527665</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1346,40 +1346,40 @@
         <v>44</v>
       </c>
       <c r="C21">
-        <v>-0.00572954972954973</v>
+        <v>-0.005957429957429958</v>
       </c>
       <c r="D21">
-        <v>0.01934635934635935</v>
+        <v>0.01932310332310333</v>
       </c>
       <c r="E21">
-        <v>-0.01692926892926893</v>
+        <v>-0.0168996168996169</v>
       </c>
       <c r="F21">
-        <v>0.01390287790287791</v>
+        <v>0.01443307443307443</v>
       </c>
       <c r="H21">
-        <v>-0.003265167265167266</v>
+        <v>-0.001418953418953419</v>
       </c>
       <c r="I21">
-        <v>0.004638220638220639</v>
+        <v>0.003907131907131907</v>
       </c>
       <c r="J21">
-        <v>0.01501539924063023</v>
+        <v>-0.02262766847580582</v>
       </c>
       <c r="K21">
-        <v>-0.003101511101511102</v>
+        <v>-0.004096780096780097</v>
       </c>
       <c r="L21">
-        <v>0.009850269850269851</v>
+        <v>0.009287193287193287</v>
       </c>
       <c r="M21">
-        <v>-0.02378515178515178</v>
+        <v>-0.02871394071394072</v>
       </c>
       <c r="N21">
-        <v>-0.00165019365019365</v>
+        <v>-0.01374070974070974</v>
       </c>
       <c r="P21">
-        <v>-0.005377961377961379</v>
+        <v>-0.01943791943791944</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1390,40 +1390,40 @@
         <v>44</v>
       </c>
       <c r="C22">
-        <v>-0.03116524316524317</v>
+        <v>-0.03191045591045591</v>
       </c>
       <c r="D22">
-        <v>-0.01427653427653428</v>
+        <v>-0.01436841836841837</v>
       </c>
       <c r="E22">
-        <v>0.01096946296946297</v>
+        <v>0.01100863100863101</v>
       </c>
       <c r="F22">
-        <v>-0.00595979395979396</v>
+        <v>-0.005862521862521863</v>
       </c>
       <c r="H22">
-        <v>0.02009326409326409</v>
+        <v>0.01855889455889456</v>
       </c>
       <c r="I22">
-        <v>0.02262506262506263</v>
+        <v>0.02280578280578281</v>
       </c>
       <c r="J22">
-        <v>-0.0267254911263735</v>
+        <v>0.02670395504678054</v>
       </c>
       <c r="K22">
-        <v>0.00217014217014217</v>
+        <v>0.00345060345060345</v>
       </c>
       <c r="L22">
-        <v>-0.02476720876720877</v>
+        <v>-0.02589001389001389</v>
       </c>
       <c r="M22">
-        <v>0.01396116196116196</v>
+        <v>0.009458961458961459</v>
       </c>
       <c r="N22">
-        <v>0.003795351795351795</v>
+        <v>0.02724668724668725</v>
       </c>
       <c r="P22">
-        <v>-0.001061293061293061</v>
+        <v>0.001936585936585936</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1432,40 +1432,40 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>-0.01024785424785425</v>
+        <v>-0.008621168621168622</v>
       </c>
       <c r="D23">
-        <v>-0.02897848097848098</v>
+        <v>-0.028996552996553</v>
       </c>
       <c r="E23">
-        <v>0.01968954768954769</v>
+        <v>0.01948219948219948</v>
       </c>
       <c r="F23">
-        <v>-0.01203928803928804</v>
+        <v>-0.01075252675252675</v>
       </c>
       <c r="H23">
-        <v>0.008793224793224794</v>
+        <v>0.01063459063459063</v>
       </c>
       <c r="I23">
-        <v>0.02420587220587221</v>
+        <v>0.02353199953199953</v>
       </c>
       <c r="J23">
-        <v>0.07545387458568271</v>
+        <v>0.01395770849982872</v>
       </c>
       <c r="K23">
-        <v>0.0006748206748206748</v>
+        <v>0.001317469317469317</v>
       </c>
       <c r="L23">
-        <v>-0.06783939183939185</v>
+        <v>-0.06764699564699565</v>
       </c>
       <c r="M23">
-        <v>0.02098316098316098</v>
+        <v>0.02059338859338859</v>
       </c>
       <c r="N23">
-        <v>0.0566007926007926</v>
+        <v>0.06250505050505051</v>
       </c>
       <c r="P23">
-        <v>0.0402963522963523</v>
+        <v>0.04086289686289687</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1476,40 +1476,40 @@
         <v>46</v>
       </c>
       <c r="C24">
-        <v>0.003943371943371943</v>
+        <v>0.004307908307908308</v>
       </c>
       <c r="D24">
-        <v>0.02858402858402859</v>
+        <v>0.02865222465222465</v>
       </c>
       <c r="E24">
-        <v>-0.02603759003759004</v>
+        <v>-0.02639099039099039</v>
       </c>
       <c r="F24">
-        <v>0.01677126477126477</v>
+        <v>0.01676932076932077</v>
       </c>
       <c r="H24">
-        <v>-0.03832481032481033</v>
+        <v>-0.03408158208158208</v>
       </c>
       <c r="I24">
-        <v>-0.05215466815466815</v>
+        <v>-0.05177709977709978</v>
       </c>
       <c r="J24">
-        <v>0.05098463174940122</v>
+        <v>0.0007460652026572464</v>
       </c>
       <c r="K24">
-        <v>0.0435962115962116</v>
+        <v>0.04808023208023209</v>
       </c>
       <c r="L24">
-        <v>0.03994616794616795</v>
+        <v>0.03898431898431899</v>
       </c>
       <c r="M24">
-        <v>-0.01572239172239173</v>
+        <v>-0.01383682983682984</v>
       </c>
       <c r="N24">
-        <v>-0.04526447726447727</v>
+        <v>-0.03514619914619915</v>
       </c>
       <c r="P24">
-        <v>-0.04495766095766096</v>
+        <v>-0.03922675522675523</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1520,40 +1520,40 @@
         <v>47</v>
       </c>
       <c r="C25">
-        <v>-0.001113985113985114</v>
+        <v>0.001133317133317133</v>
       </c>
       <c r="D25">
-        <v>-0.0220980340980341</v>
+        <v>-0.02242093042093042</v>
       </c>
       <c r="E25">
-        <v>0.03096507096507097</v>
+        <v>0.03161657561657562</v>
       </c>
       <c r="F25">
-        <v>-0.0367005127005127</v>
+        <v>-0.03633528033528034</v>
       </c>
       <c r="H25">
-        <v>-0.02347405147405147</v>
+        <v>-0.02367116367116367</v>
       </c>
       <c r="I25">
-        <v>-0.01586763986763987</v>
+        <v>-0.01576635976635977</v>
       </c>
       <c r="J25">
-        <v>-0.02848135090857118</v>
+        <v>0.009234578886142895</v>
       </c>
       <c r="K25">
-        <v>0.007619239619239619</v>
+        <v>0.003975375975375976</v>
       </c>
       <c r="L25">
-        <v>0.04452584052584053</v>
+        <v>0.04383222783222784</v>
       </c>
       <c r="M25">
-        <v>-0.01084363084363085</v>
+        <v>-0.006384822384822386</v>
       </c>
       <c r="N25">
-        <v>-0.01158275958275958</v>
+        <v>-0.04455083655083655</v>
       </c>
       <c r="P25">
-        <v>-0.02435454035454036</v>
+        <v>0.02083610083610084</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1562,40 +1562,40 @@
         <v>48</v>
       </c>
       <c r="C26">
-        <v>0.04663150663150663</v>
+        <v>0.04408726408726409</v>
       </c>
       <c r="D26">
-        <v>0.03846227046227047</v>
+        <v>0.03833034233034233</v>
       </c>
       <c r="E26">
-        <v>-0.03793983793983795</v>
+        <v>-0.03843140643140643</v>
       </c>
       <c r="F26">
-        <v>0.0353038913038913</v>
+        <v>0.03635172035172036</v>
       </c>
       <c r="H26">
-        <v>0.01244904044904045</v>
+        <v>0.0157989877989878</v>
       </c>
       <c r="I26">
-        <v>0.001016713016713017</v>
+        <v>0.001316821316821317</v>
       </c>
       <c r="J26">
-        <v>-0.0157924180293043</v>
+        <v>-0.0406868695872414</v>
       </c>
       <c r="K26">
-        <v>-0.07862544662544664</v>
+        <v>-0.08032797232797233</v>
       </c>
       <c r="L26">
-        <v>-0.01004955404955405</v>
+        <v>-0.01062041862041862</v>
       </c>
       <c r="M26">
-        <v>0.0003793083793083793</v>
+        <v>0.0003569043569043569</v>
       </c>
       <c r="N26">
-        <v>-0.005034365034365034</v>
+        <v>0.01672152472152472</v>
       </c>
       <c r="P26">
-        <v>-0.03606777606777607</v>
+        <v>0.001788601788601789</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1604,40 +1604,40 @@
         <v>49</v>
       </c>
       <c r="C27">
-        <v>-0.0031002271002271</v>
+        <v>-0.001354885354885355</v>
       </c>
       <c r="D27">
-        <v>0.01442625842625843</v>
+        <v>0.01397793797793798</v>
       </c>
       <c r="E27">
-        <v>-0.020006024006024</v>
+        <v>-0.01985008385008385</v>
       </c>
       <c r="F27">
-        <v>0.02702270702270703</v>
+        <v>0.02745414345414345</v>
       </c>
       <c r="H27">
-        <v>0.001810873810873811</v>
+        <v>-0.005186993186993187</v>
       </c>
       <c r="I27">
-        <v>-0.01690915690915691</v>
+        <v>-0.01675240075240075</v>
       </c>
       <c r="J27">
-        <v>-0.03866469924466973</v>
+        <v>0.01713006961367543</v>
       </c>
       <c r="K27">
-        <v>-0.02346190746190746</v>
+        <v>-0.02011452811452812</v>
       </c>
       <c r="L27">
-        <v>-0.02608730608730609</v>
+        <v>-0.025993825993826</v>
       </c>
       <c r="M27">
-        <v>0.00785125985125985</v>
+        <v>0.01114090714090714</v>
       </c>
       <c r="N27">
-        <v>-0.008843576843576844</v>
+        <v>0.03314139314139314</v>
       </c>
       <c r="P27">
-        <v>0.005074049074049075</v>
+        <v>-0.007093111093111093</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1646,40 +1646,40 @@
         <v>50</v>
       </c>
       <c r="C28">
-        <v>-0.00435968835968836</v>
+        <v>-0.004396564396564396</v>
       </c>
       <c r="D28">
-        <v>0.01127975927975928</v>
+        <v>0.01196543996543997</v>
       </c>
       <c r="E28">
-        <v>-0.004898848898848899</v>
+        <v>-0.005197889197889198</v>
       </c>
       <c r="F28">
-        <v>-0.002412146412146412</v>
+        <v>-0.002304434304434305</v>
       </c>
       <c r="H28">
-        <v>-0.02862896862896863</v>
+        <v>-0.02688230688230689</v>
       </c>
       <c r="I28">
-        <v>-0.02806369606369606</v>
+        <v>-0.02799691599691599</v>
       </c>
       <c r="J28">
-        <v>0.00540620948730263</v>
+        <v>-0.01011389830360596</v>
       </c>
       <c r="K28">
-        <v>-0.006368466368466369</v>
+        <v>-0.005957597957597958</v>
       </c>
       <c r="L28">
-        <v>0.02727069927069927</v>
+        <v>0.02747625947625948</v>
       </c>
       <c r="M28">
-        <v>0.003168267168267168</v>
+        <v>0.005773241773241774</v>
       </c>
       <c r="N28">
-        <v>-0.01642109242109242</v>
+        <v>-0.02067606867606868</v>
       </c>
       <c r="P28">
-        <v>0.003121491121491122</v>
+        <v>0.005763845763845764</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1690,40 +1690,40 @@
         <v>51</v>
       </c>
       <c r="C29">
-        <v>-0.03154435954435954</v>
+        <v>-0.02761703161703162</v>
       </c>
       <c r="D29">
-        <v>-0.04801058401058401</v>
+        <v>-0.04866922866922867</v>
       </c>
       <c r="E29">
-        <v>0.05114157914157914</v>
+        <v>0.05163759963759965</v>
       </c>
       <c r="F29">
-        <v>-0.05051239451239451</v>
+        <v>-0.05057006657006657</v>
       </c>
       <c r="H29">
-        <v>-0.01259173259173259</v>
+        <v>-0.02034850434850435</v>
       </c>
       <c r="I29">
-        <v>-0.007856875856875858</v>
+        <v>-0.00714010314010314</v>
       </c>
       <c r="J29">
-        <v>-0.01823531450884423</v>
+        <v>0.01972425179549759</v>
       </c>
       <c r="K29">
-        <v>-0.007588399588399589</v>
+        <v>-0.01451378651378651</v>
       </c>
       <c r="L29">
-        <v>0.008589236589236588</v>
+        <v>0.008167544167544168</v>
       </c>
       <c r="M29">
-        <v>-0.001518493518493519</v>
+        <v>-0.0005731925731925733</v>
       </c>
       <c r="N29">
-        <v>0.03707455307455308</v>
+        <v>-0.01062503862503863</v>
       </c>
       <c r="P29">
-        <v>-0.02488688488688489</v>
+        <v>-0.02615779415779416</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1732,40 +1732,40 @@
         <v>52</v>
       </c>
       <c r="C30">
-        <v>0.01209213609213609</v>
+        <v>0.01072616272616273</v>
       </c>
       <c r="D30">
-        <v>0.01478559878559878</v>
+        <v>0.01470612270612271</v>
       </c>
       <c r="E30">
-        <v>-0.01022794622794623</v>
+        <v>-0.009960837960837961</v>
       </c>
       <c r="F30">
-        <v>0.01008782208782209</v>
+        <v>0.006717918717918717</v>
       </c>
       <c r="H30">
-        <v>0.02832528432528433</v>
+        <v>0.02854757254757255</v>
       </c>
       <c r="I30">
-        <v>0.02671746271746272</v>
+        <v>0.02638017838017838</v>
       </c>
       <c r="J30">
-        <v>0.01894654323074138</v>
+        <v>-0.02031590074923582</v>
       </c>
       <c r="K30">
-        <v>0.02336284736284736</v>
+        <v>0.02444533244533244</v>
       </c>
       <c r="L30">
-        <v>0.04941244941244941</v>
+        <v>0.04938554538554538</v>
       </c>
       <c r="M30">
-        <v>-0.04763617163617164</v>
+        <v>-0.04896690096690097</v>
       </c>
       <c r="N30">
-        <v>-0.006828006828006829</v>
+        <v>-0.03846947046947047</v>
       </c>
       <c r="P30">
-        <v>0.02228413028413028</v>
+        <v>0.0436948156948157</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
@@ -620,7 +620,7 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>0.4015774615774615</v>
+        <v>0.4450587250587252</v>
       </c>
       <c r="D4">
         <v>0.9837141837141837</v>
@@ -629,19 +629,19 @@
         <v>-0.9963292803292804</v>
       </c>
       <c r="F4">
-        <v>0.9773338613338614</v>
+        <v>0.9815481935481936</v>
       </c>
       <c r="H4">
-        <v>0.3628100668100669</v>
+        <v>0.398956550956551</v>
       </c>
       <c r="I4">
         <v>0.02838746838746839</v>
       </c>
       <c r="J4">
-        <v>-0.8252210142564296</v>
+        <v>0.2904358980202829</v>
       </c>
       <c r="K4">
-        <v>0.05004002604002605</v>
+        <v>-0.03217824817824818</v>
       </c>
       <c r="L4">
         <v>-0.02898331698331699</v>
@@ -650,10 +650,10 @@
         <v>0.01361913761913762</v>
       </c>
       <c r="N4">
-        <v>0.1603463083463083</v>
+        <v>-0.7553534393534395</v>
       </c>
       <c r="P4">
-        <v>-0.368027612027612</v>
+        <v>-0.5370557490557492</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -662,7 +662,7 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-0.02720213120213121</v>
+        <v>-0.02522546522546523</v>
       </c>
       <c r="D5">
         <v>0.06723693123693124</v>
@@ -671,19 +671,19 @@
         <v>-0.07527141927141927</v>
       </c>
       <c r="F5">
-        <v>0.0712889272889273</v>
+        <v>0.07346710946710948</v>
       </c>
       <c r="H5">
-        <v>0.1178526338526339</v>
+        <v>0.1268329868329869</v>
       </c>
       <c r="I5">
         <v>-0.00532930132930133</v>
       </c>
       <c r="J5">
-        <v>-0.2307237359267055</v>
+        <v>0.1846338707267886</v>
       </c>
       <c r="K5">
-        <v>0.00468006468006468</v>
+        <v>0.007497619497619499</v>
       </c>
       <c r="L5">
         <v>-0.03355170955170956</v>
@@ -692,10 +692,10 @@
         <v>0.05461731061731063</v>
       </c>
       <c r="N5">
-        <v>0.02042446442446443</v>
+        <v>-0.01155748755748756</v>
       </c>
       <c r="P5">
-        <v>-0.1344088584088584</v>
+        <v>-0.1731345411345411</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -704,7 +704,7 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-0.02059187659187659</v>
+        <v>-0.01757182157182157</v>
       </c>
       <c r="D6">
         <v>-0.05889766689766691</v>
@@ -713,19 +713,19 @@
         <v>-0.02928484128484128</v>
       </c>
       <c r="F6">
-        <v>0.1122046002046002</v>
+        <v>0.1024356664356665</v>
       </c>
       <c r="H6">
-        <v>0.0545969105969106</v>
+        <v>0.05476237876237876</v>
       </c>
       <c r="I6">
         <v>0.02813134013134014</v>
       </c>
       <c r="J6">
-        <v>0.1289922999356116</v>
+        <v>0.01137926975478567</v>
       </c>
       <c r="K6">
-        <v>-0.1033957633957634</v>
+        <v>-0.1052066492066492</v>
       </c>
       <c r="L6">
         <v>-0.5551046791046792</v>
@@ -734,10 +734,10 @@
         <v>-0.02797764397764398</v>
       </c>
       <c r="N6">
-        <v>0.5632484752484753</v>
+        <v>0.3132213252213252</v>
       </c>
       <c r="P6">
-        <v>0.1451037251037251</v>
+        <v>0.1284032004032004</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -746,7 +746,7 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>0.08241194241194241</v>
+        <v>0.07966122766122767</v>
       </c>
       <c r="D7">
         <v>0.1128295248295248</v>
@@ -755,19 +755,19 @@
         <v>0.00482050082050082</v>
       </c>
       <c r="F7">
-        <v>-0.120966840966841</v>
+        <v>-0.1074869274869275</v>
       </c>
       <c r="H7">
-        <v>-0.08380407580407581</v>
+        <v>-0.08355268755268756</v>
       </c>
       <c r="I7">
         <v>-0.05220785220785221</v>
       </c>
       <c r="J7">
-        <v>-0.05239161045528587</v>
+        <v>-0.0192572118926999</v>
       </c>
       <c r="K7">
-        <v>0.1375298095298095</v>
+        <v>0.1335063375063375</v>
       </c>
       <c r="L7">
         <v>0.7736304656304657</v>
@@ -776,10 +776,10 @@
         <v>-0.01611053211053212</v>
       </c>
       <c r="N7">
-        <v>-0.7684511764511764</v>
+        <v>-0.4482812562812563</v>
       </c>
       <c r="P7">
-        <v>-0.2133596133596134</v>
+        <v>-0.1847998247998248</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -788,7 +788,7 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.1616114936114936</v>
+        <v>0.1578608298608299</v>
       </c>
       <c r="D8">
         <v>0.0112010632010632</v>
@@ -797,19 +797,19 @@
         <v>-0.01888291888291889</v>
       </c>
       <c r="F8">
-        <v>0.141989205989206</v>
+        <v>0.124034128034128</v>
       </c>
       <c r="H8">
-        <v>0.9250558810558812</v>
+        <v>0.907915327915328</v>
       </c>
       <c r="I8">
         <v>0.977944025944026</v>
       </c>
       <c r="J8">
-        <v>-0.09807987210477222</v>
+        <v>-0.3274756882823862</v>
       </c>
       <c r="K8">
-        <v>-0.0288012888012888</v>
+        <v>-0.02194046194046194</v>
       </c>
       <c r="L8">
         <v>-0.0663948783948784</v>
@@ -818,10 +818,10 @@
         <v>0.0310983310983311</v>
       </c>
       <c r="N8">
-        <v>0.07577933177933178</v>
+        <v>0.05802094602094603</v>
       </c>
       <c r="P8">
-        <v>0.5258422778422779</v>
+        <v>0.4858709218709218</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,7 +830,7 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>0.01212777612777613</v>
+        <v>0.01345491745491745</v>
       </c>
       <c r="D9">
         <v>-0.008373404373404374</v>
@@ -839,19 +839,19 @@
         <v>-0.02416779616779617</v>
       </c>
       <c r="F9">
-        <v>0.05024985824985825</v>
+        <v>0.04774168774168774</v>
       </c>
       <c r="H9">
-        <v>0.03738909738909739</v>
+        <v>0.03732184932184932</v>
       </c>
       <c r="I9">
         <v>0.03047064647064647</v>
       </c>
       <c r="J9">
-        <v>-0.03815847751147289</v>
+        <v>0.02300513976430939</v>
       </c>
       <c r="K9">
-        <v>-0.03058281058281059</v>
+        <v>-0.02924674124674125</v>
       </c>
       <c r="L9">
         <v>-0.2191070311070311</v>
@@ -860,10 +860,10 @@
         <v>0.9831689271689272</v>
       </c>
       <c r="N9">
-        <v>0.1428406548406548</v>
+        <v>0.07657105657105658</v>
       </c>
       <c r="P9">
-        <v>-0.01800015000015</v>
+        <v>-0.02185917385917386</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -872,7 +872,7 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-0.01515800715800716</v>
+        <v>-0.01268656868656869</v>
       </c>
       <c r="D10">
         <v>0.03183227583227583</v>
@@ -881,19 +881,19 @@
         <v>-0.04458812058812059</v>
       </c>
       <c r="F10">
-        <v>0.03996137196137196</v>
+        <v>0.04083012483012483</v>
       </c>
       <c r="H10">
-        <v>-0.04734739134739135</v>
+        <v>-0.04444772044772045</v>
       </c>
       <c r="I10">
         <v>-0.0893987573987574</v>
       </c>
       <c r="J10">
-        <v>-0.06125019273532216</v>
+        <v>0.04542375492273887</v>
       </c>
       <c r="K10">
-        <v>-0.01963278763278764</v>
+        <v>-0.02535238935238936</v>
       </c>
       <c r="L10">
         <v>-0.07154943554943556</v>
@@ -902,10 +902,10 @@
         <v>0.03536417936417937</v>
       </c>
       <c r="N10">
-        <v>0.0484923604923605</v>
+        <v>-0.006716406716406716</v>
       </c>
       <c r="P10">
-        <v>0.001198729198729199</v>
+        <v>-0.01201078801078801</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -914,7 +914,7 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-0.02200477000477</v>
+        <v>-0.0231927111927112</v>
       </c>
       <c r="D11">
         <v>-0.025002637002637</v>
@@ -923,19 +923,19 @@
         <v>0.03443959043959044</v>
       </c>
       <c r="F11">
-        <v>-0.04172262572262573</v>
+        <v>-0.04084812484812485</v>
       </c>
       <c r="H11">
-        <v>-0.02871266871266872</v>
+        <v>-0.03075438675438676</v>
       </c>
       <c r="I11">
         <v>-0.01283276483276483</v>
       </c>
       <c r="J11">
-        <v>0.02725887794131635</v>
+        <v>0.001185511224633096</v>
       </c>
       <c r="K11">
-        <v>0.06845120045120046</v>
+        <v>0.0704925224925225</v>
       </c>
       <c r="L11">
         <v>0.08051429651429652</v>
@@ -944,10 +944,10 @@
         <v>0.1433018273018273</v>
       </c>
       <c r="N11">
-        <v>-0.06599993399993401</v>
+        <v>-0.0007574887574887575</v>
       </c>
       <c r="P11">
-        <v>-0.05019181419181419</v>
+        <v>-0.0290938250938251</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -956,7 +956,7 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>0.01838661038661039</v>
+        <v>0.01755983355983356</v>
       </c>
       <c r="D12">
         <v>0.02669022269022269</v>
@@ -965,19 +965,19 @@
         <v>-0.0116964476964477</v>
       </c>
       <c r="F12">
-        <v>-0.005136869136869137</v>
+        <v>-0.003258267258267258</v>
       </c>
       <c r="H12">
-        <v>-0.03493903093903094</v>
+        <v>-0.03247745647745648</v>
       </c>
       <c r="I12">
         <v>-0.03755493755493756</v>
       </c>
       <c r="J12">
-        <v>-0.3947969404127419</v>
+        <v>-0.01952971417419476</v>
       </c>
       <c r="K12">
-        <v>0.04540826140826142</v>
+        <v>0.0462946182946183</v>
       </c>
       <c r="L12">
         <v>0.08188229788229789</v>
@@ -986,10 +986,10 @@
         <v>0.01980683580683581</v>
       </c>
       <c r="N12">
-        <v>-0.08027344427344428</v>
+        <v>-0.05350919350919351</v>
       </c>
       <c r="P12">
-        <v>-0.08420892020892022</v>
+        <v>-0.08013543213543213</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -998,7 +998,7 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0.03908669108669108</v>
+        <v>0.03985986385986386</v>
       </c>
       <c r="D13">
         <v>0.03895865095865096</v>
@@ -1007,19 +1007,19 @@
         <v>-0.03671450471450471</v>
       </c>
       <c r="F13">
-        <v>0.03407759807759808</v>
+        <v>0.03533617133617133</v>
       </c>
       <c r="H13">
-        <v>0.02870111270111271</v>
+        <v>0.02935520935520936</v>
       </c>
       <c r="I13">
         <v>0.01813471813471814</v>
       </c>
       <c r="J13">
-        <v>-0.2039265887296992</v>
+        <v>0.0309902840129634</v>
       </c>
       <c r="K13">
-        <v>-0.007694455694455695</v>
+        <v>-0.0110995430995431</v>
       </c>
       <c r="L13">
         <v>0.01272358872358872</v>
@@ -1028,10 +1028,10 @@
         <v>-0.02107526107526108</v>
       </c>
       <c r="N13">
-        <v>-0.01122595122595123</v>
+        <v>-0.0474975594975595</v>
       </c>
       <c r="P13">
-        <v>-0.008287172287172288</v>
+        <v>-0.007846975846975848</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1042,7 +1042,7 @@
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0.5087011367011367</v>
+        <v>0.4944883224883225</v>
       </c>
       <c r="D14">
         <v>-0.06049876849876851</v>
@@ -1051,19 +1051,19 @@
         <v>0.05004536604536605</v>
       </c>
       <c r="F14">
-        <v>-0.0403928683928684</v>
+        <v>-0.04154450954450954</v>
       </c>
       <c r="H14">
-        <v>-0.008429648429648429</v>
+        <v>-0.0105029145029145</v>
       </c>
       <c r="I14">
         <v>0.002840966840966841</v>
       </c>
       <c r="J14">
-        <v>0.07057357776462059</v>
+        <v>0.0202871069565815</v>
       </c>
       <c r="K14">
-        <v>-0.628901272901273</v>
+        <v>-0.622924342924343</v>
       </c>
       <c r="L14">
         <v>-0.05092830292830293</v>
@@ -1072,10 +1072,10 @@
         <v>0.004642552642552643</v>
       </c>
       <c r="N14">
-        <v>0.03559233559233559</v>
+        <v>0.08232916632916634</v>
       </c>
       <c r="P14">
-        <v>0.07654367254367254</v>
+        <v>0.07736422136422137</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1086,7 +1086,7 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>0.5634742434742435</v>
+        <v>0.5499836499836501</v>
       </c>
       <c r="D15">
         <v>-0.01442781842781843</v>
@@ -1095,19 +1095,19 @@
         <v>0.02097242097242098</v>
       </c>
       <c r="F15">
-        <v>-0.03277287277287278</v>
+        <v>-0.03117846717846719</v>
       </c>
       <c r="H15">
-        <v>-0.06285525885525886</v>
+        <v>-0.06312644712644713</v>
       </c>
       <c r="I15">
         <v>-0.06332244332244331</v>
       </c>
       <c r="J15">
-        <v>0.01463221758713749</v>
+        <v>0.02399873479069306</v>
       </c>
       <c r="K15">
-        <v>0.7404229884229885</v>
+        <v>0.7433979953979954</v>
       </c>
       <c r="L15">
         <v>0.03854384654384654</v>
@@ -1116,10 +1116,10 @@
         <v>0.01392699792699793</v>
       </c>
       <c r="N15">
-        <v>-0.04255180255180255</v>
+        <v>-0.01178776778776779</v>
       </c>
       <c r="P15">
-        <v>-0.04954784554784555</v>
+        <v>-0.04887460887460888</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1130,7 +1130,7 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>-0.04442127242127242</v>
+        <v>-0.04426584826584827</v>
       </c>
       <c r="D16">
         <v>-0.01803598203598204</v>
@@ -1139,19 +1139,19 @@
         <v>0.01507987507987508</v>
       </c>
       <c r="F16">
-        <v>-0.01565959565959566</v>
+        <v>-0.01595469995469995</v>
       </c>
       <c r="H16">
-        <v>-0.006300282300282301</v>
+        <v>-0.006861606861606862</v>
       </c>
       <c r="I16">
         <v>-0.008551280551280552</v>
       </c>
       <c r="J16">
-        <v>0.03814710749314442</v>
+        <v>-0.01002586035671376</v>
       </c>
       <c r="K16">
-        <v>0.02007432807432807</v>
+        <v>0.02162897762897763</v>
       </c>
       <c r="L16">
         <v>-0.0147018867018867</v>
@@ -1160,10 +1160,10 @@
         <v>0.04806698406698407</v>
       </c>
       <c r="N16">
-        <v>0.0120992280992281</v>
+        <v>0.02258873858873859</v>
       </c>
       <c r="P16">
-        <v>0.002966342966342966</v>
+        <v>0.01402796602796603</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1174,7 +1174,7 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>0.04058852858852859</v>
+        <v>0.03324890124890125</v>
       </c>
       <c r="D17">
         <v>0.006927474927474928</v>
@@ -1183,19 +1183,19 @@
         <v>-0.006457230457230458</v>
       </c>
       <c r="F17">
-        <v>0.001987909987909988</v>
+        <v>0.002408582408582409</v>
       </c>
       <c r="H17">
-        <v>0.01050851850851851</v>
+        <v>0.01225959625959626</v>
       </c>
       <c r="I17">
         <v>0.001472761472761473</v>
       </c>
       <c r="J17">
-        <v>-0.01424905096947283</v>
+        <v>-0.03404621916974443</v>
       </c>
       <c r="K17">
-        <v>0.01324389724389725</v>
+        <v>0.02187738987738988</v>
       </c>
       <c r="L17">
         <v>0.008068532068532069</v>
@@ -1204,10 +1204,10 @@
         <v>-0.00938991338991339</v>
       </c>
       <c r="N17">
-        <v>-0.01235158835158835</v>
+        <v>-0.01244346044346044</v>
       </c>
       <c r="P17">
-        <v>-0.04487805287805288</v>
+        <v>-0.0432970512970513</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1216,7 +1216,7 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>0.08049393249393251</v>
+        <v>0.081993573993574</v>
       </c>
       <c r="D18">
         <v>0.05433136233136233</v>
@@ -1225,19 +1225,19 @@
         <v>-0.04998220998220999</v>
       </c>
       <c r="F18">
-        <v>0.04518896118896119</v>
+        <v>0.04557774957774958</v>
       </c>
       <c r="H18">
-        <v>-0.001010701010701011</v>
+        <v>0.0008977328977328978</v>
       </c>
       <c r="I18">
         <v>0.1891953571953572</v>
       </c>
       <c r="J18">
-        <v>-0.05358500037903065</v>
+        <v>0.02816583509530767</v>
       </c>
       <c r="K18">
-        <v>0.004183912183912184</v>
+        <v>-0.0004415404415404417</v>
       </c>
       <c r="L18">
         <v>0.01062849462849463</v>
@@ -1246,10 +1246,10 @@
         <v>-0.1346738426738427</v>
       </c>
       <c r="N18">
-        <v>-0.001212493212493213</v>
+        <v>-0.0536956016956017</v>
       </c>
       <c r="P18">
-        <v>-0.006421998421998423</v>
+        <v>-0.01426904626904627</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1258,7 +1258,7 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>-0.2176730776730777</v>
+        <v>-0.2105943905943906</v>
       </c>
       <c r="D19">
         <v>0.01541732741732742</v>
@@ -1267,19 +1267,19 @@
         <v>-0.01242469242469242</v>
       </c>
       <c r="F19">
-        <v>0.007249327249327249</v>
+        <v>0.00868943668943669</v>
       </c>
       <c r="H19">
-        <v>-0.003870375870375871</v>
+        <v>-0.003231411231411232</v>
       </c>
       <c r="I19">
         <v>-0.01142872742872743</v>
       </c>
       <c r="J19">
-        <v>-0.01454975945421496</v>
+        <v>0.02864605759137751</v>
       </c>
       <c r="K19">
-        <v>-0.09448160248160248</v>
+        <v>-0.09644532044532045</v>
       </c>
       <c r="L19">
         <v>0.04854196854196855</v>
@@ -1288,10 +1288,10 @@
         <v>-0.02926565326565327</v>
       </c>
       <c r="N19">
-        <v>-0.04994823794823795</v>
+        <v>-0.01376244176244176</v>
       </c>
       <c r="P19">
-        <v>-0.0307944547944548</v>
+        <v>-0.02062486462486463</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1302,7 +1302,7 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>0.04493597693597694</v>
+        <v>0.04410844410844411</v>
       </c>
       <c r="D20">
         <v>-0.001254313254313254</v>
@@ -1311,19 +1311,19 @@
         <v>-0.0003846363846363846</v>
       </c>
       <c r="F20">
-        <v>0.002156006156006156</v>
+        <v>0.001672585672585673</v>
       </c>
       <c r="H20">
-        <v>0.0186973746973747</v>
+        <v>0.01854306654306654</v>
       </c>
       <c r="I20">
         <v>0.01041791841791842</v>
       </c>
       <c r="J20">
-        <v>-0.03009217250858772</v>
+        <v>0.0103137586541127</v>
       </c>
       <c r="K20">
-        <v>0.02757747957747958</v>
+        <v>0.02843884043884044</v>
       </c>
       <c r="L20">
         <v>-0.004758268758268759</v>
@@ -1332,10 +1332,10 @@
         <v>0.02101792501792502</v>
       </c>
       <c r="N20">
-        <v>-0.003088203088203089</v>
+        <v>0.009667641667641669</v>
       </c>
       <c r="P20">
-        <v>0.003664527664527665</v>
+        <v>0.005071241071241072</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1346,7 +1346,7 @@
         <v>44</v>
       </c>
       <c r="C21">
-        <v>-0.005957429957429958</v>
+        <v>-0.004607380607380607</v>
       </c>
       <c r="D21">
         <v>0.01932310332310333</v>
@@ -1355,19 +1355,19 @@
         <v>-0.0168996168996169</v>
       </c>
       <c r="F21">
-        <v>0.01443307443307443</v>
+        <v>0.01538705138705139</v>
       </c>
       <c r="H21">
-        <v>-0.001418953418953419</v>
+        <v>-0.001155661155661156</v>
       </c>
       <c r="I21">
         <v>0.003907131907131907</v>
       </c>
       <c r="J21">
-        <v>-0.02262766847580582</v>
+        <v>0.02578636463731469</v>
       </c>
       <c r="K21">
-        <v>-0.004096780096780097</v>
+        <v>-0.004811512811512811</v>
       </c>
       <c r="L21">
         <v>0.009287193287193287</v>
@@ -1376,10 +1376,10 @@
         <v>-0.02871394071394072</v>
       </c>
       <c r="N21">
-        <v>-0.01374070974070974</v>
+        <v>-0.01106756306756307</v>
       </c>
       <c r="P21">
-        <v>-0.01943791943791944</v>
+        <v>-0.0157917757917758</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1390,7 +1390,7 @@
         <v>44</v>
       </c>
       <c r="C22">
-        <v>-0.03191045591045591</v>
+        <v>-0.03126273126273126</v>
       </c>
       <c r="D22">
         <v>-0.01436841836841837</v>
@@ -1399,19 +1399,19 @@
         <v>0.01100863100863101</v>
       </c>
       <c r="F22">
-        <v>-0.005862521862521863</v>
+        <v>-0.006104226104226105</v>
       </c>
       <c r="H22">
-        <v>0.01855889455889456</v>
+        <v>0.0183978423978424</v>
       </c>
       <c r="I22">
         <v>0.02280578280578281</v>
       </c>
       <c r="J22">
-        <v>0.02670395504678054</v>
+        <v>-0.04032669565747664</v>
       </c>
       <c r="K22">
-        <v>0.00345060345060345</v>
+        <v>0.005055377055377056</v>
       </c>
       <c r="L22">
         <v>-0.02589001389001389</v>
@@ -1420,10 +1420,10 @@
         <v>0.009458961458961459</v>
       </c>
       <c r="N22">
-        <v>0.02724668724668725</v>
+        <v>0.01157055557055557</v>
       </c>
       <c r="P22">
-        <v>0.001936585936585936</v>
+        <v>0.004980640980640981</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1432,7 +1432,7 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>-0.008621168621168622</v>
+        <v>-0.01001806601806602</v>
       </c>
       <c r="D23">
         <v>-0.028996552996553</v>
@@ -1441,19 +1441,19 @@
         <v>0.01948219948219948</v>
       </c>
       <c r="F23">
-        <v>-0.01075252675252675</v>
+        <v>-0.01162511962511963</v>
       </c>
       <c r="H23">
-        <v>0.01063459063459063</v>
+        <v>0.008321252321252321</v>
       </c>
       <c r="I23">
         <v>0.02353199953199953</v>
       </c>
       <c r="J23">
-        <v>0.01395770849982872</v>
+        <v>0.04679035833444019</v>
       </c>
       <c r="K23">
-        <v>0.001317469317469317</v>
+        <v>0.003523863523863525</v>
       </c>
       <c r="L23">
         <v>-0.06764699564699565</v>
@@ -1462,10 +1462,10 @@
         <v>0.02059338859338859</v>
       </c>
       <c r="N23">
-        <v>0.06250505050505051</v>
+        <v>0.06616223416223416</v>
       </c>
       <c r="P23">
-        <v>0.04086289686289687</v>
+        <v>0.04403445203445204</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1476,7 +1476,7 @@
         <v>46</v>
       </c>
       <c r="C24">
-        <v>0.004307908307908308</v>
+        <v>0.004313596313596313</v>
       </c>
       <c r="D24">
         <v>0.02865222465222465</v>
@@ -1485,19 +1485,19 @@
         <v>-0.02639099039099039</v>
       </c>
       <c r="F24">
-        <v>0.01676932076932077</v>
+        <v>0.01884685884685885</v>
       </c>
       <c r="H24">
-        <v>-0.03408158208158208</v>
+        <v>-0.03162809562809563</v>
       </c>
       <c r="I24">
         <v>-0.05177709977709978</v>
       </c>
       <c r="J24">
-        <v>0.0007460652026572464</v>
+        <v>0.01761580819712988</v>
       </c>
       <c r="K24">
-        <v>0.04808023208023209</v>
+        <v>0.04577704577704578</v>
       </c>
       <c r="L24">
         <v>0.03898431898431899</v>
@@ -1506,10 +1506,10 @@
         <v>-0.01383682983682984</v>
       </c>
       <c r="N24">
-        <v>-0.03514619914619915</v>
+        <v>-0.04873269673269674</v>
       </c>
       <c r="P24">
-        <v>-0.03922675522675523</v>
+        <v>-0.04377267177267178</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1520,7 +1520,7 @@
         <v>47</v>
       </c>
       <c r="C25">
-        <v>0.001133317133317133</v>
+        <v>-0.001007653007653008</v>
       </c>
       <c r="D25">
         <v>-0.02242093042093042</v>
@@ -1529,19 +1529,19 @@
         <v>0.03161657561657562</v>
       </c>
       <c r="F25">
-        <v>-0.03633528033528034</v>
+        <v>-0.03705560505560506</v>
       </c>
       <c r="H25">
-        <v>-0.02367116367116367</v>
+        <v>-0.02398396798396799</v>
       </c>
       <c r="I25">
         <v>-0.01576635976635977</v>
       </c>
       <c r="J25">
-        <v>0.009234578886142895</v>
+        <v>-0.02557333441725447</v>
       </c>
       <c r="K25">
-        <v>0.003975375975375976</v>
+        <v>0.005005853005853007</v>
       </c>
       <c r="L25">
         <v>0.04383222783222784</v>
@@ -1550,10 +1550,10 @@
         <v>-0.006384822384822386</v>
       </c>
       <c r="N25">
-        <v>-0.04455083655083655</v>
+        <v>-0.022003042003042</v>
       </c>
       <c r="P25">
-        <v>0.02083610083610084</v>
+        <v>0.02104720504720505</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1562,7 +1562,7 @@
         <v>48</v>
       </c>
       <c r="C26">
-        <v>0.04408726408726409</v>
+        <v>0.04556800556800557</v>
       </c>
       <c r="D26">
         <v>0.03833034233034233</v>
@@ -1571,19 +1571,19 @@
         <v>-0.03843140643140643</v>
       </c>
       <c r="F26">
-        <v>0.03635172035172036</v>
+        <v>0.03614800814800815</v>
       </c>
       <c r="H26">
-        <v>0.0157989877989878</v>
+        <v>0.0171989811989812</v>
       </c>
       <c r="I26">
         <v>0.001316821316821317</v>
       </c>
       <c r="J26">
-        <v>-0.0406868695872414</v>
+        <v>0.02191193863503262</v>
       </c>
       <c r="K26">
-        <v>-0.08032797232797233</v>
+        <v>-0.08105319305319306</v>
       </c>
       <c r="L26">
         <v>-0.01062041862041862</v>
@@ -1592,10 +1592,10 @@
         <v>0.0003569043569043569</v>
       </c>
       <c r="N26">
-        <v>0.01672152472152472</v>
+        <v>0.0002172362172362172</v>
       </c>
       <c r="P26">
-        <v>0.001788601788601789</v>
+        <v>-0.003624255624255624</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1604,7 +1604,7 @@
         <v>49</v>
       </c>
       <c r="C27">
-        <v>-0.001354885354885355</v>
+        <v>0.0004721644721644722</v>
       </c>
       <c r="D27">
         <v>0.01397793797793798</v>
@@ -1613,19 +1613,19 @@
         <v>-0.01985008385008385</v>
       </c>
       <c r="F27">
-        <v>0.02745414345414345</v>
+        <v>0.02612502212502213</v>
       </c>
       <c r="H27">
-        <v>-0.005186993186993187</v>
+        <v>-0.0040991800991801</v>
       </c>
       <c r="I27">
         <v>-0.01675240075240075</v>
       </c>
       <c r="J27">
-        <v>0.01713006961367543</v>
+        <v>-0.03363122874105931</v>
       </c>
       <c r="K27">
-        <v>-0.02011452811452812</v>
+        <v>-0.02553369753369754</v>
       </c>
       <c r="L27">
         <v>-0.025993825993826</v>
@@ -1634,10 +1634,10 @@
         <v>0.01114090714090714</v>
       </c>
       <c r="N27">
-        <v>0.03314139314139314</v>
+        <v>-0.01381768981768982</v>
       </c>
       <c r="P27">
-        <v>-0.007093111093111093</v>
+        <v>-0.009276213276213276</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1646,7 +1646,7 @@
         <v>50</v>
       </c>
       <c r="C28">
-        <v>-0.004396564396564396</v>
+        <v>-0.005404805404805406</v>
       </c>
       <c r="D28">
         <v>0.01196543996543997</v>
@@ -1655,19 +1655,19 @@
         <v>-0.005197889197889198</v>
       </c>
       <c r="F28">
-        <v>-0.002304434304434305</v>
+        <v>-0.001617001617001617</v>
       </c>
       <c r="H28">
-        <v>-0.02688230688230689</v>
+        <v>-0.02635341835341836</v>
       </c>
       <c r="I28">
         <v>-0.02799691599691599</v>
       </c>
       <c r="J28">
-        <v>-0.01011389830360596</v>
+        <v>-0.0003738723862101752</v>
       </c>
       <c r="K28">
-        <v>-0.005957597957597958</v>
+        <v>-0.005721377721377722</v>
       </c>
       <c r="L28">
         <v>0.02747625947625948</v>
@@ -1676,10 +1676,10 @@
         <v>0.005773241773241774</v>
       </c>
       <c r="N28">
-        <v>-0.02067606867606868</v>
+        <v>-0.01993636393636394</v>
       </c>
       <c r="P28">
-        <v>0.005763845763845764</v>
+        <v>-0.002308010308010308</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1690,7 +1690,7 @@
         <v>51</v>
       </c>
       <c r="C29">
-        <v>-0.02761703161703162</v>
+        <v>-0.02977214977214978</v>
       </c>
       <c r="D29">
         <v>-0.04866922866922867</v>
@@ -1699,19 +1699,19 @@
         <v>0.05163759963759965</v>
       </c>
       <c r="F29">
-        <v>-0.05057006657006657</v>
+        <v>-0.05065675465675466</v>
       </c>
       <c r="H29">
-        <v>-0.02034850434850435</v>
+        <v>-0.02243819843819844</v>
       </c>
       <c r="I29">
         <v>-0.00714010314010314</v>
       </c>
       <c r="J29">
-        <v>0.01972425179549759</v>
+        <v>-0.03631537351378087</v>
       </c>
       <c r="K29">
-        <v>-0.01451378651378651</v>
+        <v>-0.009992697992697993</v>
       </c>
       <c r="L29">
         <v>0.008167544167544168</v>
@@ -1720,10 +1720,10 @@
         <v>-0.0005731925731925733</v>
       </c>
       <c r="N29">
-        <v>-0.01062503862503863</v>
+        <v>0.02819384819384819</v>
       </c>
       <c r="P29">
-        <v>-0.02615779415779416</v>
+        <v>-0.01042933042933043</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1732,7 +1732,7 @@
         <v>52</v>
       </c>
       <c r="C30">
-        <v>0.01072616272616273</v>
+        <v>0.01090565890565891</v>
       </c>
       <c r="D30">
         <v>0.01470612270612271</v>
@@ -1741,19 +1741,19 @@
         <v>-0.009960837960837961</v>
       </c>
       <c r="F30">
-        <v>0.006717918717918717</v>
+        <v>0.006529998529998531</v>
       </c>
       <c r="H30">
-        <v>0.02854757254757255</v>
+        <v>0.02907527307527308</v>
       </c>
       <c r="I30">
         <v>0.02638017838017838</v>
       </c>
       <c r="J30">
-        <v>-0.02031590074923582</v>
+        <v>0.01991552057273276</v>
       </c>
       <c r="K30">
-        <v>0.02444533244533244</v>
+        <v>0.02343598743598744</v>
       </c>
       <c r="L30">
         <v>0.04938554538554538</v>
@@ -1762,10 +1762,10 @@
         <v>-0.04896690096690097</v>
       </c>
       <c r="N30">
-        <v>-0.03846947046947047</v>
+        <v>-0.02546445746445746</v>
       </c>
       <c r="P30">
-        <v>0.0436948156948157</v>
+        <v>0.04133420933420934</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Element</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>Stream-lipidcane</t>
+    <t>biorefinery</t>
   </si>
   <si>
     <t>Stream-ethanol</t>
@@ -82,16 +82,13 @@
     <t>Stream-natural gas</t>
   </si>
   <si>
-    <t>biorefinery</t>
-  </si>
-  <si>
     <t>Stream-crude glycerol</t>
   </si>
   <si>
     <t>Stream-pure glycerine</t>
   </si>
   <si>
-    <t>Stream-cellulase</t>
+    <t>cellulase</t>
   </si>
   <si>
     <t>Pretreatment reactor system</t>
@@ -103,76 +100,82 @@
     <t>Cofermenation</t>
   </si>
   <si>
+    <t>lipidcane</t>
+  </si>
+  <si>
+    <t>lipidsorghum</t>
+  </si>
+  <si>
+    <t>Lipid retention [%]</t>
+  </si>
+  <si>
+    <t>Bagasse lipid extraction efficiency [%]</t>
+  </si>
+  <si>
+    <t>Capacity [ton/hr]</t>
+  </si>
+  <si>
+    <t>Price [USD/gal]</t>
+  </si>
+  <si>
+    <t>Price [USD/cf]</t>
+  </si>
+  <si>
+    <t>Electricity price [USD/kWh]</t>
+  </si>
+  <si>
+    <t>Operating days [day/yr]</t>
+  </si>
+  <si>
+    <t>IRR [%]</t>
+  </si>
+  <si>
+    <t>Price [USD/kg]</t>
+  </si>
+  <si>
+    <t>Cellulase loading [wt. % cellulose]</t>
+  </si>
+  <si>
+    <t>Base cost [million USD]</t>
+  </si>
+  <si>
+    <t>Cane glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Cane xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Glucose to ethanol yield [%]</t>
+  </si>
+  <si>
+    <t>Xylose to ethanol yield [%]</t>
+  </si>
+  <si>
+    <t>Cane  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Cane  FFA [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  FFA [% lipid]</t>
+  </si>
+  <si>
     <t>Cane lipid content [dry wt. %]</t>
   </si>
   <si>
     <t>Relative sorghum lipid content [dry wt. %]</t>
   </si>
   <si>
-    <t>Lipid retention [%]</t>
-  </si>
-  <si>
-    <t>Bagasse lipid extraction efficiency [%]</t>
-  </si>
-  <si>
-    <t>Capacity [ton/hr]</t>
-  </si>
-  <si>
-    <t>Cane  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Cane  FFA [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  FFA [% lipid]</t>
-  </si>
-  <si>
     <t>TAG to  FFA conversion [% lipid]</t>
-  </si>
-  <si>
-    <t>Price [USD/gal]</t>
-  </si>
-  <si>
-    <t>Price [USD/cf]</t>
-  </si>
-  <si>
-    <t>Electricity price [USD/kWh]</t>
-  </si>
-  <si>
-    <t>Operating days [day/yr]</t>
-  </si>
-  <si>
-    <t>IRR [%]</t>
-  </si>
-  <si>
-    <t>Price [USD/kg]</t>
-  </si>
-  <si>
-    <t>Cellulase loading [wt. % cellulose]</t>
-  </si>
-  <si>
-    <t>Base cost [million USD]</t>
-  </si>
-  <si>
-    <t>Cane glucose yield [%]</t>
-  </si>
-  <si>
-    <t>Sorghum glucose yield [%]</t>
-  </si>
-  <si>
-    <t>Cane xylose yield [%]</t>
-  </si>
-  <si>
-    <t>Sorghum xylose yield [%]</t>
-  </si>
-  <si>
-    <t>Glucose to ethanol yield [%]</t>
-  </si>
-  <si>
-    <t>Xylose to ethanol yield [%]</t>
   </si>
 </sst>
 </file>
@@ -617,295 +620,303 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>0.4450587250587252</v>
+        <v>-0.06069999669999671</v>
       </c>
       <c r="D4">
-        <v>0.9837141837141837</v>
+        <v>-0.09030903030903031</v>
       </c>
       <c r="E4">
-        <v>-0.9963292803292804</v>
+        <v>-0.0009622929622929624</v>
       </c>
       <c r="F4">
-        <v>0.9815481935481936</v>
+        <v>0.06903298503298504</v>
       </c>
       <c r="H4">
-        <v>0.398956550956551</v>
+        <v>0.05077631077631078</v>
       </c>
       <c r="I4">
-        <v>0.02838746838746839</v>
+        <v>0.02172424572424573</v>
       </c>
       <c r="J4">
-        <v>0.2904358980202829</v>
+        <v>-0.06225773063127701</v>
       </c>
       <c r="K4">
-        <v>-0.03217824817824818</v>
+        <v>-0.05374522174522175</v>
       </c>
       <c r="L4">
-        <v>-0.02898331698331699</v>
+        <v>-0.5795591315591315</v>
       </c>
       <c r="M4">
-        <v>0.01361913761913762</v>
+        <v>0.02061470061470062</v>
       </c>
       <c r="N4">
-        <v>-0.7553534393534395</v>
+        <v>0.5653610893610893</v>
       </c>
       <c r="P4">
-        <v>-0.5370557490557492</v>
+        <v>0.1719276879276879</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>-0.02522546522546523</v>
+        <v>0.0961050721050721</v>
       </c>
       <c r="D5">
-        <v>0.06723693123693124</v>
+        <v>0.1236856116856117</v>
       </c>
       <c r="E5">
-        <v>-0.07527141927141927</v>
+        <v>-0.006191934191934192</v>
       </c>
       <c r="F5">
-        <v>0.07346710946710948</v>
+        <v>-0.07868058668058668</v>
       </c>
       <c r="H5">
-        <v>0.1268329868329869</v>
+        <v>-0.0004874044874044874</v>
       </c>
       <c r="I5">
-        <v>-0.00532930132930133</v>
+        <v>0.02876791676791677</v>
       </c>
       <c r="J5">
-        <v>0.1846338707267886</v>
+        <v>0.04146541771421022</v>
       </c>
       <c r="K5">
-        <v>0.007497619497619499</v>
+        <v>0.09569530769530769</v>
       </c>
       <c r="L5">
-        <v>-0.03355170955170956</v>
+        <v>0.7665313065313066</v>
       </c>
       <c r="M5">
-        <v>0.05461731061731063</v>
+        <v>0.02220814620814621</v>
       </c>
       <c r="N5">
-        <v>-0.01155748755748756</v>
+        <v>-0.7461026781026782</v>
       </c>
       <c r="P5">
-        <v>-0.1731345411345411</v>
+        <v>-0.1068465348465348</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>-0.01757182157182157</v>
+        <v>0.207024699024699</v>
       </c>
       <c r="D6">
-        <v>-0.05889766689766691</v>
+        <v>-0.006554766554766555</v>
       </c>
       <c r="E6">
-        <v>-0.02928484128484128</v>
+        <v>0.004305580305580306</v>
       </c>
       <c r="F6">
-        <v>0.1024356664356665</v>
+        <v>0.08908249708249709</v>
       </c>
       <c r="H6">
-        <v>0.05476237876237876</v>
+        <v>0.91795022995023</v>
       </c>
       <c r="I6">
-        <v>0.02813134013134014</v>
+        <v>0.9742967062967064</v>
       </c>
       <c r="J6">
-        <v>0.01137926975478567</v>
+        <v>-0.1436508365127415</v>
       </c>
       <c r="K6">
-        <v>-0.1052066492066492</v>
+        <v>0.04142488142488143</v>
       </c>
       <c r="L6">
-        <v>-0.5551046791046792</v>
+        <v>0.02353039153039153</v>
       </c>
       <c r="M6">
-        <v>-0.02797764397764398</v>
+        <v>-0.02134592134592135</v>
       </c>
       <c r="N6">
-        <v>0.3132213252213252</v>
+        <v>0.06070028470028471</v>
       </c>
       <c r="P6">
-        <v>0.1284032004032004</v>
+        <v>0.6128007728007729</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>0.07966122766122767</v>
+        <v>0.482942150942151</v>
       </c>
       <c r="D7">
-        <v>0.1128295248295248</v>
+        <v>0.024994140994141</v>
       </c>
       <c r="E7">
-        <v>0.00482050082050082</v>
+        <v>-0.03040456240456241</v>
       </c>
       <c r="F7">
-        <v>-0.1074869274869275</v>
+        <v>0.03529351129351129</v>
       </c>
       <c r="H7">
-        <v>-0.08355268755268756</v>
+        <v>0.01546385146385146</v>
       </c>
       <c r="I7">
-        <v>-0.05220785220785221</v>
+        <v>0.01506395106395106</v>
       </c>
       <c r="J7">
-        <v>-0.0192572118926999</v>
+        <v>0.05323796355739134</v>
       </c>
       <c r="K7">
-        <v>0.1335063375063375</v>
+        <v>-0.648032172032172</v>
       </c>
       <c r="L7">
-        <v>0.7736304656304657</v>
+        <v>-0.004632064632064632</v>
       </c>
       <c r="M7">
-        <v>-0.01611053211053212</v>
+        <v>0.03666201666201666</v>
       </c>
       <c r="N7">
-        <v>-0.4482812562812563</v>
+        <v>0.002682362682362683</v>
       </c>
       <c r="P7">
-        <v>-0.1847998247998248</v>
+        <v>-0.02085966885966886</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.1578608298608299</v>
+        <v>0.5106646746646747</v>
       </c>
       <c r="D8">
-        <v>0.0112010632010632</v>
+        <v>-0.02778933978933979</v>
       </c>
       <c r="E8">
-        <v>-0.01888291888291889</v>
+        <v>0.02938261738261739</v>
       </c>
       <c r="F8">
-        <v>0.124034128034128</v>
+        <v>-0.02700347100347101</v>
       </c>
       <c r="H8">
-        <v>0.907915327915328</v>
+        <v>0.008704748704748704</v>
       </c>
       <c r="I8">
-        <v>0.977944025944026</v>
+        <v>0.02235392235392235</v>
       </c>
       <c r="J8">
-        <v>-0.3274756882823862</v>
+        <v>-0.04573908401351852</v>
       </c>
       <c r="K8">
-        <v>-0.02194046194046194</v>
+        <v>0.7592078552078553</v>
       </c>
       <c r="L8">
-        <v>-0.0663948783948784</v>
+        <v>0.002681198681198681</v>
       </c>
       <c r="M8">
-        <v>0.0310983310983311</v>
+        <v>-0.05199505599505599</v>
       </c>
       <c r="N8">
-        <v>0.05802094602094603</v>
+        <v>0.006578730578730579</v>
       </c>
       <c r="P8">
-        <v>0.4858709218709218</v>
+        <v>0.01337077337077337</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>0.01345491745491745</v>
+        <v>0.01433793833793834</v>
       </c>
       <c r="D9">
-        <v>-0.008373404373404374</v>
+        <v>0.004502428502428503</v>
       </c>
       <c r="E9">
-        <v>-0.02416779616779617</v>
+        <v>-0.0009869649869649871</v>
       </c>
       <c r="F9">
-        <v>0.04774168774168774</v>
+        <v>-0.005241473241473242</v>
       </c>
       <c r="H9">
-        <v>0.03732184932184932</v>
+        <v>-0.02438136038136038</v>
       </c>
       <c r="I9">
-        <v>0.03047064647064647</v>
+        <v>-0.02097303297303297</v>
       </c>
       <c r="J9">
-        <v>0.02300513976430939</v>
+        <v>-0.04400487226890151</v>
       </c>
       <c r="K9">
-        <v>-0.02924674124674125</v>
+        <v>0.04604631404631405</v>
       </c>
       <c r="L9">
-        <v>-0.2191070311070311</v>
+        <v>0.02721035121035121</v>
       </c>
       <c r="M9">
-        <v>0.9831689271689272</v>
+        <v>-0.0182047742047742</v>
       </c>
       <c r="N9">
-        <v>0.07657105657105658</v>
+        <v>-0.04057925257925258</v>
       </c>
       <c r="P9">
-        <v>-0.02185917385917386</v>
+        <v>-0.008383604383604384</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-0.01268656868656869</v>
+        <v>0.009680889680889681</v>
       </c>
       <c r="D10">
-        <v>0.03183227583227583</v>
+        <v>-0.02002374802374803</v>
       </c>
       <c r="E10">
-        <v>-0.04458812058812059</v>
+        <v>0.01841598641598642</v>
       </c>
       <c r="F10">
-        <v>0.04083012483012483</v>
+        <v>-0.02463753663753664</v>
       </c>
       <c r="H10">
-        <v>-0.04444772044772045</v>
+        <v>-0.04674099474099475</v>
       </c>
       <c r="I10">
-        <v>-0.0893987573987574</v>
+        <v>-0.02926784926784927</v>
       </c>
       <c r="J10">
-        <v>0.04542375492273887</v>
+        <v>0.00563181566560656</v>
       </c>
       <c r="K10">
-        <v>-0.02535238935238936</v>
+        <v>0.0124983004983005</v>
       </c>
       <c r="L10">
-        <v>-0.07154943554943556</v>
+        <v>-0.01583772383772384</v>
       </c>
       <c r="M10">
-        <v>0.03536417936417937</v>
+        <v>0.0463944343944344</v>
       </c>
       <c r="N10">
-        <v>-0.006716406716406716</v>
+        <v>-0.007220191220191221</v>
       </c>
       <c r="P10">
-        <v>-0.01201078801078801</v>
+        <v>-0.02397069597069597</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -914,40 +925,40 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-0.0231927111927112</v>
+        <v>0.1266397986397987</v>
       </c>
       <c r="D11">
-        <v>-0.025002637002637</v>
+        <v>0.04193420993420993</v>
       </c>
       <c r="E11">
-        <v>0.03443959043959044</v>
+        <v>-0.03493064293064293</v>
       </c>
       <c r="F11">
-        <v>-0.04084812484812485</v>
+        <v>0.02715876315876316</v>
       </c>
       <c r="H11">
-        <v>-0.03075438675438676</v>
+        <v>-0.02921338121338122</v>
       </c>
       <c r="I11">
-        <v>-0.01283276483276483</v>
+        <v>0.1744210504210504</v>
       </c>
       <c r="J11">
-        <v>0.001185511224633096</v>
+        <v>0.009613323671003614</v>
       </c>
       <c r="K11">
-        <v>0.0704925224925225</v>
+        <v>-0.0008147528147528148</v>
       </c>
       <c r="L11">
-        <v>0.08051429651429652</v>
+        <v>0.008878076878076879</v>
       </c>
       <c r="M11">
-        <v>0.1433018273018273</v>
+        <v>0.01788954588954589</v>
       </c>
       <c r="N11">
-        <v>-0.0007574887574887575</v>
+        <v>-0.006815298815298815</v>
       </c>
       <c r="P11">
-        <v>-0.0290938250938251</v>
+        <v>-0.07853788253788253</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -956,826 +967,832 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>0.01755983355983356</v>
+        <v>-0.1978773538773539</v>
       </c>
       <c r="D12">
-        <v>0.02669022269022269</v>
+        <v>0.02857600057600058</v>
       </c>
       <c r="E12">
-        <v>-0.0116964476964477</v>
+        <v>-0.0262974502974503</v>
       </c>
       <c r="F12">
-        <v>-0.003258267258267258</v>
+        <v>0.02237384237384238</v>
       </c>
       <c r="H12">
-        <v>-0.03247745647745648</v>
+        <v>-0.02638820638820639</v>
       </c>
       <c r="I12">
-        <v>-0.03755493755493756</v>
+        <v>-0.0290987330987331</v>
       </c>
       <c r="J12">
-        <v>-0.01952971417419476</v>
+        <v>0.02675238891290325</v>
       </c>
       <c r="K12">
-        <v>0.0462946182946183</v>
+        <v>-0.1185793305793306</v>
       </c>
       <c r="L12">
-        <v>0.08188229788229789</v>
+        <v>0.02156844956844957</v>
       </c>
       <c r="M12">
-        <v>0.01980683580683581</v>
+        <v>-0.02325773925773926</v>
       </c>
       <c r="N12">
-        <v>-0.05350919350919351</v>
+        <v>-0.01184677184677185</v>
       </c>
       <c r="P12">
-        <v>-0.08013543213543213</v>
+        <v>0.009671409671409673</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0.03985986385986386</v>
+        <v>0.04291315891315892</v>
       </c>
       <c r="D13">
-        <v>0.03895865095865096</v>
+        <v>0.002271314271314271</v>
       </c>
       <c r="E13">
-        <v>-0.03671450471450471</v>
+        <v>-0.006328962328962328</v>
       </c>
       <c r="F13">
-        <v>0.03533617133617133</v>
+        <v>0.009724485724485725</v>
       </c>
       <c r="H13">
-        <v>0.02935520935520936</v>
+        <v>0.01297698097698098</v>
       </c>
       <c r="I13">
-        <v>0.01813471813471814</v>
+        <v>0.0061001461001461</v>
       </c>
       <c r="J13">
-        <v>0.0309902840129634</v>
+        <v>-0.01363525371706524</v>
       </c>
       <c r="K13">
-        <v>-0.0110995430995431</v>
+        <v>0.002342174342174342</v>
       </c>
       <c r="L13">
-        <v>0.01272358872358872</v>
+        <v>-0.03005566205566206</v>
       </c>
       <c r="M13">
-        <v>-0.02107526107526108</v>
+        <v>0.04994709794709795</v>
       </c>
       <c r="N13">
-        <v>-0.0474975594975595</v>
+        <v>0.02026899226899227</v>
       </c>
       <c r="P13">
-        <v>-0.007846975846975848</v>
+        <v>0.01988033588033588</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>0.4944883224883225</v>
+        <v>-0.04501706101706102</v>
       </c>
       <c r="D14">
-        <v>-0.06049876849876851</v>
+        <v>0.004142080142080142</v>
       </c>
       <c r="E14">
-        <v>0.05004536604536605</v>
+        <v>-0.001074097074097074</v>
       </c>
       <c r="F14">
-        <v>-0.04154450954450954</v>
+        <v>0.002105306105306105</v>
       </c>
       <c r="H14">
-        <v>-0.0105029145029145</v>
+        <v>0.03911769911769912</v>
       </c>
       <c r="I14">
-        <v>0.002840966840966841</v>
+        <v>0.03047980247980248</v>
       </c>
       <c r="J14">
-        <v>0.0202871069565815</v>
+        <v>0.005195765226939819</v>
       </c>
       <c r="K14">
-        <v>-0.622924342924343</v>
+        <v>-0.01176965976965977</v>
       </c>
       <c r="L14">
-        <v>-0.05092830292830293</v>
+        <v>0.03571216771216772</v>
       </c>
       <c r="M14">
-        <v>0.004642552642552643</v>
+        <v>-0.05247912447912448</v>
       </c>
       <c r="N14">
-        <v>0.08232916632916634</v>
+        <v>-0.01032290232290232</v>
       </c>
       <c r="P14">
-        <v>0.07736422136422137</v>
+        <v>-0.008053664053664054</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>-0.04206809406809407</v>
+      </c>
+      <c r="D15">
+        <v>-0.02751823551823552</v>
+      </c>
+      <c r="E15">
+        <v>0.02913749313749314</v>
+      </c>
+      <c r="F15">
+        <v>-0.02601981801981803</v>
+      </c>
+      <c r="H15">
+        <v>-0.008465048465048466</v>
+      </c>
+      <c r="I15">
+        <v>0.01214672414672415</v>
+      </c>
+      <c r="J15">
+        <v>-0.065258723650276</v>
+      </c>
+      <c r="K15">
+        <v>-0.0688016968016968</v>
+      </c>
+      <c r="L15">
+        <v>-0.007452367452367452</v>
+      </c>
+      <c r="M15">
+        <v>0.01162057162057162</v>
+      </c>
+      <c r="N15">
+        <v>0.02138999738999739</v>
+      </c>
+      <c r="P15">
+        <v>-0.00543922143922144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15">
-        <v>0.5499836499836501</v>
-      </c>
-      <c r="D15">
-        <v>-0.01442781842781843</v>
-      </c>
-      <c r="E15">
-        <v>0.02097242097242098</v>
-      </c>
-      <c r="F15">
-        <v>-0.03117846717846719</v>
-      </c>
-      <c r="H15">
-        <v>-0.06312644712644713</v>
-      </c>
-      <c r="I15">
-        <v>-0.06332244332244331</v>
-      </c>
-      <c r="J15">
-        <v>0.02399873479069306</v>
-      </c>
-      <c r="K15">
-        <v>0.7433979953979954</v>
-      </c>
-      <c r="L15">
-        <v>0.03854384654384654</v>
-      </c>
-      <c r="M15">
-        <v>0.01392699792699793</v>
-      </c>
-      <c r="N15">
-        <v>-0.01178776778776779</v>
-      </c>
-      <c r="P15">
-        <v>-0.04887460887460888</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C16">
-        <v>-0.04426584826584827</v>
+        <v>0.001924345924345924</v>
       </c>
       <c r="D16">
-        <v>-0.01803598203598204</v>
+        <v>-0.002696846696846697</v>
       </c>
       <c r="E16">
-        <v>0.01507987507987508</v>
+        <v>0.005153981153981154</v>
       </c>
       <c r="F16">
-        <v>-0.01595469995469995</v>
+        <v>-0.00536038136038136</v>
       </c>
       <c r="H16">
-        <v>-0.006861606861606862</v>
+        <v>-0.01160841560841561</v>
       </c>
       <c r="I16">
-        <v>-0.008551280551280552</v>
+        <v>-0.002931770931770932</v>
       </c>
       <c r="J16">
-        <v>-0.01002586035671376</v>
+        <v>0.002287934301661907</v>
       </c>
       <c r="K16">
-        <v>0.02162897762897763</v>
+        <v>0.00492990492990493</v>
       </c>
       <c r="L16">
-        <v>-0.0147018867018867</v>
+        <v>0.007748263748263749</v>
       </c>
       <c r="M16">
-        <v>0.04806698406698407</v>
+        <v>-0.02398729198729199</v>
       </c>
       <c r="N16">
-        <v>0.02258873858873859</v>
+        <v>-0.0008704448704448704</v>
       </c>
       <c r="P16">
-        <v>0.01402796602796603</v>
+        <v>-0.03301791301791302</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>0.009235773235773235</v>
+      </c>
+      <c r="D17">
+        <v>0.04383527583527584</v>
+      </c>
+      <c r="E17">
+        <v>-0.0384911784911785</v>
+      </c>
+      <c r="F17">
+        <v>0.03062273462273462</v>
+      </c>
+      <c r="H17">
+        <v>0.01821235821235822</v>
+      </c>
+      <c r="I17">
+        <v>-0.007610803610803612</v>
+      </c>
+      <c r="J17">
+        <v>0.0122325483059436</v>
+      </c>
+      <c r="K17">
+        <v>-0.006256806256806257</v>
+      </c>
+      <c r="L17">
+        <v>0.04289254289254289</v>
+      </c>
+      <c r="M17">
+        <v>0.04717815517815518</v>
+      </c>
+      <c r="N17">
+        <v>-0.05091979491979493</v>
+      </c>
+      <c r="P17">
+        <v>-0.01432260232260233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17">
-        <v>0.03324890124890125</v>
-      </c>
-      <c r="D17">
-        <v>0.006927474927474928</v>
-      </c>
-      <c r="E17">
-        <v>-0.006457230457230458</v>
-      </c>
-      <c r="F17">
-        <v>0.002408582408582409</v>
-      </c>
-      <c r="H17">
-        <v>0.01225959625959626</v>
-      </c>
-      <c r="I17">
-        <v>0.001472761472761473</v>
-      </c>
-      <c r="J17">
-        <v>-0.03404621916974443</v>
-      </c>
-      <c r="K17">
-        <v>0.02187738987738988</v>
-      </c>
-      <c r="L17">
-        <v>0.008068532068532069</v>
-      </c>
-      <c r="M17">
-        <v>-0.00938991338991339</v>
-      </c>
-      <c r="N17">
-        <v>-0.01244346044346044</v>
-      </c>
-      <c r="P17">
-        <v>-0.0432970512970513</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C18">
-        <v>0.081993573993574</v>
+        <v>-0.01895509895509896</v>
       </c>
       <c r="D18">
-        <v>0.05433136233136233</v>
+        <v>0.001451497451497452</v>
       </c>
       <c r="E18">
-        <v>-0.04998220998220999</v>
+        <v>-0.009897201897201899</v>
       </c>
       <c r="F18">
-        <v>0.04557774957774958</v>
+        <v>0.01792009792009792</v>
       </c>
       <c r="H18">
-        <v>0.0008977328977328978</v>
+        <v>0.02688895488895489</v>
       </c>
       <c r="I18">
-        <v>0.1891953571953572</v>
+        <v>0.01905475905475906</v>
       </c>
       <c r="J18">
-        <v>0.02816583509530767</v>
+        <v>0.007357777401924066</v>
       </c>
       <c r="K18">
-        <v>-0.0004415404415404417</v>
+        <v>-0.04942858942858943</v>
       </c>
       <c r="L18">
-        <v>0.01062849462849463</v>
+        <v>-0.04775128775128776</v>
       </c>
       <c r="M18">
-        <v>-0.1346738426738427</v>
+        <v>-0.02516546516546517</v>
       </c>
       <c r="N18">
-        <v>-0.0536956016956017</v>
+        <v>0.05858293058293059</v>
       </c>
       <c r="P18">
-        <v>-0.01426904626904627</v>
+        <v>0.01783878583878584</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>-0.02210530610530611</v>
+      </c>
+      <c r="D19">
+        <v>-0.04281550281550282</v>
+      </c>
+      <c r="E19">
+        <v>0.04137367737367738</v>
+      </c>
+      <c r="F19">
+        <v>-0.03782982182982183</v>
+      </c>
+      <c r="H19">
+        <v>-0.03518573918573918</v>
+      </c>
+      <c r="I19">
+        <v>-0.02550434550434551</v>
+      </c>
+      <c r="J19">
+        <v>-0.004646494674373642</v>
+      </c>
+      <c r="K19">
+        <v>-0.02531412131412132</v>
+      </c>
+      <c r="L19">
+        <v>-0.01131469131469132</v>
+      </c>
+      <c r="M19">
+        <v>-0.01335019335019335</v>
+      </c>
+      <c r="N19">
+        <v>0.005461193461193461</v>
+      </c>
+      <c r="P19">
+        <v>-0.03452371052371053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C19">
-        <v>-0.2105943905943906</v>
-      </c>
-      <c r="D19">
-        <v>0.01541732741732742</v>
-      </c>
-      <c r="E19">
-        <v>-0.01242469242469242</v>
-      </c>
-      <c r="F19">
-        <v>0.00868943668943669</v>
-      </c>
-      <c r="H19">
-        <v>-0.003231411231411232</v>
-      </c>
-      <c r="I19">
-        <v>-0.01142872742872743</v>
-      </c>
-      <c r="J19">
-        <v>0.02864605759137751</v>
-      </c>
-      <c r="K19">
-        <v>-0.09644532044532045</v>
-      </c>
-      <c r="L19">
-        <v>0.04854196854196855</v>
-      </c>
-      <c r="M19">
-        <v>-0.02926565326565327</v>
-      </c>
-      <c r="N19">
-        <v>-0.01376244176244176</v>
-      </c>
-      <c r="P19">
-        <v>-0.02062486462486463</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C20">
-        <v>0.04410844410844411</v>
+        <v>-0.07209900009900011</v>
       </c>
       <c r="D20">
-        <v>-0.001254313254313254</v>
+        <v>-0.03186901986901988</v>
       </c>
       <c r="E20">
-        <v>-0.0003846363846363846</v>
+        <v>0.04235795435795436</v>
       </c>
       <c r="F20">
-        <v>0.001672585672585673</v>
+        <v>-0.05636174036174037</v>
       </c>
       <c r="H20">
-        <v>0.01854306654306654</v>
+        <v>-0.09991729591729592</v>
       </c>
       <c r="I20">
-        <v>0.01041791841791842</v>
+        <v>-0.08208890208890209</v>
       </c>
       <c r="J20">
-        <v>0.0103137586541127</v>
+        <v>0.02696641512821362</v>
       </c>
       <c r="K20">
-        <v>0.02843884043884044</v>
+        <v>0.04141883341883342</v>
       </c>
       <c r="L20">
-        <v>-0.004758268758268759</v>
+        <v>0.04547711747711748</v>
       </c>
       <c r="M20">
-        <v>0.02101792501792502</v>
+        <v>0.02227235827235827</v>
       </c>
       <c r="N20">
-        <v>0.009667641667641669</v>
+        <v>-0.05052917052917053</v>
       </c>
       <c r="P20">
-        <v>0.005071241071241072</v>
+        <v>-0.04252078252078252</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C21">
-        <v>-0.004607380607380607</v>
+        <v>-0.03984150384150384</v>
       </c>
       <c r="D21">
-        <v>0.01932310332310333</v>
+        <v>-0.05060504660504661</v>
       </c>
       <c r="E21">
-        <v>-0.0168996168996169</v>
+        <v>0.04894888894888896</v>
       </c>
       <c r="F21">
-        <v>0.01538705138705139</v>
+        <v>-0.04912707712707712</v>
       </c>
       <c r="H21">
-        <v>-0.001155661155661156</v>
+        <v>-0.03554229554229554</v>
       </c>
       <c r="I21">
-        <v>0.003907131907131907</v>
+        <v>-0.02391518391518392</v>
       </c>
       <c r="J21">
-        <v>0.02578636463731469</v>
+        <v>-0.02644551260418568</v>
       </c>
       <c r="K21">
-        <v>-0.004811512811512811</v>
+        <v>-0.008641460641460643</v>
       </c>
       <c r="L21">
-        <v>0.009287193287193287</v>
+        <v>-0.007182823182823183</v>
       </c>
       <c r="M21">
-        <v>-0.02871394071394072</v>
+        <v>0.01049162249162249</v>
       </c>
       <c r="N21">
-        <v>-0.01106756306756307</v>
+        <v>-0.01612589212589213</v>
       </c>
       <c r="P21">
-        <v>-0.0157917757917758</v>
+        <v>0.004169692169692169</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>-0.03126273126273126</v>
+        <v>0.02970814170814171</v>
       </c>
       <c r="D22">
-        <v>-0.01436841836841837</v>
+        <v>-0.00396906396906397</v>
       </c>
       <c r="E22">
-        <v>0.01100863100863101</v>
+        <v>0.003022455022455022</v>
       </c>
       <c r="F22">
-        <v>-0.006104226104226105</v>
+        <v>0.002124998124998125</v>
       </c>
       <c r="H22">
-        <v>0.0183978423978424</v>
+        <v>0.04762730362730364</v>
       </c>
       <c r="I22">
-        <v>0.02280578280578281</v>
+        <v>0.04107894507894508</v>
       </c>
       <c r="J22">
-        <v>-0.04032669565747664</v>
+        <v>0.01460126668887429</v>
       </c>
       <c r="K22">
-        <v>0.005055377055377056</v>
+        <v>0.01640896040896041</v>
       </c>
       <c r="L22">
-        <v>-0.02589001389001389</v>
+        <v>-0.00293000693000693</v>
       </c>
       <c r="M22">
-        <v>0.009458961458961459</v>
+        <v>0.01744430944430944</v>
       </c>
       <c r="N22">
-        <v>0.01157055557055557</v>
+        <v>-0.001589125589125589</v>
       </c>
       <c r="P22">
-        <v>0.004980640980640981</v>
+        <v>-0.005074301074301075</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23">
-        <v>-0.01001806601806602</v>
+        <v>-0.03991808791808792</v>
       </c>
       <c r="D23">
-        <v>-0.028996552996553</v>
+        <v>-0.003096975096975097</v>
       </c>
       <c r="E23">
-        <v>0.01948219948219948</v>
+        <v>0.008530028530028532</v>
       </c>
       <c r="F23">
-        <v>-0.01162511962511963</v>
+        <v>-0.01067265467265467</v>
       </c>
       <c r="H23">
-        <v>0.008321252321252321</v>
+        <v>-0.005550185550185551</v>
       </c>
       <c r="I23">
-        <v>0.02353199953199953</v>
+        <v>-0.002294846294846295</v>
       </c>
       <c r="J23">
-        <v>0.04679035833444019</v>
+        <v>-0.004884178913483988</v>
       </c>
       <c r="K23">
-        <v>0.003523863523863525</v>
+        <v>0.0665980505980506</v>
       </c>
       <c r="L23">
-        <v>-0.06764699564699565</v>
+        <v>0.02253455853455854</v>
       </c>
       <c r="M23">
-        <v>0.02059338859338859</v>
+        <v>-0.02876154476154476</v>
       </c>
       <c r="N23">
-        <v>0.06616223416223416</v>
+        <v>-0.02556937356937357</v>
       </c>
       <c r="P23">
-        <v>0.04403445203445204</v>
+        <v>-0.00864790464790465</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>0.004313596313596313</v>
+        <v>-0.03215336015336016</v>
       </c>
       <c r="D24">
-        <v>0.02865222465222465</v>
+        <v>-0.04584690984690985</v>
       </c>
       <c r="E24">
-        <v>-0.02639099039099039</v>
+        <v>0.01582659982659983</v>
       </c>
       <c r="F24">
-        <v>0.01884685884685885</v>
+        <v>0.002262926262926263</v>
       </c>
       <c r="H24">
-        <v>-0.03162809562809563</v>
+        <v>-0.01044945444945445</v>
       </c>
       <c r="I24">
-        <v>-0.05177709977709978</v>
+        <v>-0.009307569307569308</v>
       </c>
       <c r="J24">
-        <v>0.01761580819712988</v>
+        <v>-0.007096099138675733</v>
       </c>
       <c r="K24">
-        <v>0.04577704577704578</v>
+        <v>-0.07421946221946223</v>
       </c>
       <c r="L24">
-        <v>0.03898431898431899</v>
+        <v>-0.2327482967482967</v>
       </c>
       <c r="M24">
-        <v>-0.01383682983682984</v>
+        <v>0.9495477135477136</v>
       </c>
       <c r="N24">
-        <v>-0.04873269673269674</v>
+        <v>0.09875465075465076</v>
       </c>
       <c r="P24">
-        <v>-0.04377267177267178</v>
+        <v>0.005760197760197761</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25">
-        <v>-0.001007653007653008</v>
+        <v>0.03432313032313032</v>
       </c>
       <c r="D25">
-        <v>-0.02242093042093042</v>
+        <v>0.04467594867594868</v>
       </c>
       <c r="E25">
-        <v>0.03161657561657562</v>
+        <v>-0.05266921666921667</v>
       </c>
       <c r="F25">
-        <v>-0.03705560505560506</v>
+        <v>0.05398710598710599</v>
       </c>
       <c r="H25">
-        <v>-0.02398396798396799</v>
+        <v>-0.01830744630744631</v>
       </c>
       <c r="I25">
-        <v>-0.01576635976635977</v>
+        <v>-0.03137812337812338</v>
       </c>
       <c r="J25">
-        <v>-0.02557333441725447</v>
+        <v>0.01504668313696324</v>
       </c>
       <c r="K25">
-        <v>0.005005853005853007</v>
+        <v>-0.02778113178113178</v>
       </c>
       <c r="L25">
-        <v>0.04383222783222784</v>
+        <v>-0.06544351744351744</v>
       </c>
       <c r="M25">
-        <v>-0.006384822384822386</v>
+        <v>0.2660764340764341</v>
       </c>
       <c r="N25">
-        <v>-0.022003042003042</v>
+        <v>0.0363051483051483</v>
       </c>
       <c r="P25">
-        <v>0.02104720504720505</v>
+        <v>-0.006257562257562257</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26">
-        <v>0.04556800556800557</v>
+        <v>-0.02141926541926542</v>
       </c>
       <c r="D26">
-        <v>0.03833034233034233</v>
+        <v>0.009670161670161671</v>
       </c>
       <c r="E26">
-        <v>-0.03843140643140643</v>
+        <v>-0.0008117528117528118</v>
       </c>
       <c r="F26">
-        <v>0.03614800814800815</v>
+        <v>-0.006309378309378309</v>
       </c>
       <c r="H26">
-        <v>0.0171989811989812</v>
+        <v>-0.0278010878010878</v>
       </c>
       <c r="I26">
-        <v>0.001316821316821317</v>
+        <v>-0.03308152508152509</v>
       </c>
       <c r="J26">
-        <v>0.02191193863503262</v>
+        <v>0.07649708295606546</v>
       </c>
       <c r="K26">
-        <v>-0.08105319305319306</v>
+        <v>0.01929054729054729</v>
       </c>
       <c r="L26">
-        <v>-0.01062041862041862</v>
+        <v>0.03570562770562771</v>
       </c>
       <c r="M26">
-        <v>0.0003569043569043569</v>
+        <v>0.11998181998182</v>
       </c>
       <c r="N26">
-        <v>0.0002172362172362172</v>
+        <v>-0.04783126783126784</v>
       </c>
       <c r="P26">
-        <v>-0.003624255624255624</v>
+        <v>-0.05543279543279543</v>
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27">
-        <v>0.0004721644721644722</v>
+        <v>0.01694425694425695</v>
       </c>
       <c r="D27">
-        <v>0.01397793797793798</v>
+        <v>0.02683982683982684</v>
       </c>
       <c r="E27">
-        <v>-0.01985008385008385</v>
+        <v>-0.03006361806361807</v>
       </c>
       <c r="F27">
-        <v>0.02612502212502213</v>
+        <v>0.03240256440256441</v>
       </c>
       <c r="H27">
-        <v>-0.0040991800991801</v>
+        <v>0.04064504864504865</v>
       </c>
       <c r="I27">
-        <v>-0.01675240075240075</v>
+        <v>0.03942546342546343</v>
       </c>
       <c r="J27">
-        <v>-0.03363122874105931</v>
+        <v>0.04761704390274617</v>
       </c>
       <c r="K27">
-        <v>-0.02553369753369754</v>
+        <v>0.003755115755115755</v>
       </c>
       <c r="L27">
-        <v>-0.025993825993826</v>
+        <v>-0.02870796470796471</v>
       </c>
       <c r="M27">
-        <v>0.01114090714090714</v>
+        <v>0.03369088569088569</v>
       </c>
       <c r="N27">
-        <v>-0.01381768981768982</v>
+        <v>0.03081084681084681</v>
       </c>
       <c r="P27">
-        <v>-0.009276213276213276</v>
+        <v>0.03953663153663154</v>
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28">
-        <v>-0.005404805404805406</v>
+        <v>0.5105581385581386</v>
       </c>
       <c r="D28">
-        <v>0.01196543996543997</v>
+        <v>0.9843621723621723</v>
       </c>
       <c r="E28">
-        <v>-0.005197889197889198</v>
+        <v>-0.9974804774804775</v>
       </c>
       <c r="F28">
-        <v>-0.001617001617001617</v>
+        <v>0.9860692580692582</v>
       </c>
       <c r="H28">
-        <v>-0.02635341835341836</v>
+        <v>0.3695626775626776</v>
       </c>
       <c r="I28">
-        <v>-0.02799691599691599</v>
+        <v>0.003501615501615502</v>
       </c>
       <c r="J28">
-        <v>-0.0003738723862101752</v>
+        <v>0.3689142051276904</v>
       </c>
       <c r="K28">
-        <v>-0.005721377721377722</v>
+        <v>-0.005570717570717571</v>
       </c>
       <c r="L28">
-        <v>0.02747625947625948</v>
+        <v>0.008767616767616769</v>
       </c>
       <c r="M28">
-        <v>0.005773241773241774</v>
+        <v>0.004286968286968287</v>
       </c>
       <c r="N28">
-        <v>-0.01993636393636394</v>
+        <v>0.04952311352311353</v>
       </c>
       <c r="P28">
-        <v>-0.002308010308010308</v>
+        <v>-0.3523948483948484</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29">
-        <v>-0.02977214977214978</v>
+        <v>-0.03451137451137451</v>
       </c>
       <c r="D29">
-        <v>-0.04866922866922867</v>
+        <v>0.05130996330996332</v>
       </c>
       <c r="E29">
-        <v>0.05163759963759965</v>
+        <v>-0.05465237465237466</v>
       </c>
       <c r="F29">
-        <v>-0.05065675465675466</v>
+        <v>0.05154639954639954</v>
       </c>
       <c r="H29">
-        <v>-0.02243819843819844</v>
+        <v>0.04674548274548275</v>
       </c>
       <c r="I29">
-        <v>-0.00714010314010314</v>
+        <v>-0.0318975798975799</v>
       </c>
       <c r="J29">
-        <v>-0.03631537351378087</v>
+        <v>0.1234592081999634</v>
       </c>
       <c r="K29">
-        <v>-0.009992697992697993</v>
+        <v>0.01469171069171069</v>
       </c>
       <c r="L29">
-        <v>0.008167544167544168</v>
+        <v>-0.008559440559440561</v>
       </c>
       <c r="M29">
-        <v>-0.0005731925731925733</v>
+        <v>-0.0145965385965386</v>
       </c>
       <c r="N29">
-        <v>0.02819384819384819</v>
+        <v>0.01337750537750538</v>
       </c>
       <c r="P29">
-        <v>-0.01042933042933043</v>
+        <v>-0.1021582861582862</v>
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30">
-        <v>0.01090565890565891</v>
+        <v>0.02616425016425017</v>
       </c>
       <c r="D30">
-        <v>0.01470612270612271</v>
+        <v>0.00812862812862813</v>
       </c>
       <c r="E30">
-        <v>-0.009960837960837961</v>
+        <v>-0.0074001194001194</v>
       </c>
       <c r="F30">
-        <v>0.006529998529998531</v>
+        <v>0.009088173088173088</v>
       </c>
       <c r="H30">
-        <v>0.02907527307527308</v>
+        <v>0.01144017544017544</v>
       </c>
       <c r="I30">
-        <v>0.02638017838017838</v>
+        <v>0.01301083301083301</v>
       </c>
       <c r="J30">
-        <v>0.01991552057273276</v>
+        <v>0.0171712372742647</v>
       </c>
       <c r="K30">
-        <v>0.02343598743598744</v>
+        <v>-0.0308062988062988</v>
       </c>
       <c r="L30">
-        <v>0.04938554538554538</v>
+        <v>-0.002385890385890386</v>
       </c>
       <c r="M30">
-        <v>-0.04896690096690097</v>
+        <v>0.01966871566871567</v>
       </c>
       <c r="N30">
-        <v>-0.02546445746445746</v>
+        <v>-0.003813711813711814</v>
       </c>
       <c r="P30">
-        <v>0.04133420933420934</v>
+        <v>-0.000562020562020562</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C1:P1"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Element</t>
   </si>
@@ -100,6 +100,9 @@
     <t>Cofermenation</t>
   </si>
   <si>
+    <t>Cofermentation</t>
+  </si>
+  <si>
     <t>lipidcane</t>
   </si>
   <si>
@@ -157,16 +160,22 @@
     <t>Xylose to ethanol yield [%]</t>
   </si>
   <si>
-    <t>Cane  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Cane  FFA [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  FFA [% lipid]</t>
+    <t>Titer [g/L]</t>
+  </si>
+  <si>
+    <t>Productivity [g/L]</t>
+  </si>
+  <si>
+    <t>Cane  PL content [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  PL content [% lipid]</t>
+  </si>
+  <si>
+    <t>Cane  FFA content [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  FFA content [% lipid]</t>
   </si>
   <si>
     <t>Cane lipid content [dry wt. %]</t>
@@ -533,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,127 +629,127 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>-0.06069999669999671</v>
+        <v>-0.04744511986127996</v>
       </c>
       <c r="D4">
-        <v>-0.09030903030903031</v>
+        <v>-0.104604140151035</v>
       </c>
       <c r="E4">
-        <v>-0.0009622929622929624</v>
+        <v>-0.0235032463758116</v>
       </c>
       <c r="F4">
-        <v>0.06903298503298504</v>
+        <v>0.1293084098271025</v>
       </c>
       <c r="H4">
-        <v>0.05077631077631078</v>
+        <v>0.03500304125076031</v>
       </c>
       <c r="I4">
-        <v>0.02172424572424573</v>
+        <v>-0.01210015202503801</v>
       </c>
       <c r="J4">
-        <v>-0.06225773063127701</v>
+        <v>-0.05184251076043855</v>
       </c>
       <c r="K4">
-        <v>-0.05374522174522175</v>
+        <v>-0.1158789709697427</v>
       </c>
       <c r="L4">
-        <v>-0.5795591315591315</v>
+        <v>-0.684336216084054</v>
       </c>
       <c r="M4">
-        <v>0.02061470061470062</v>
+        <v>-0.01160848490212122</v>
       </c>
       <c r="N4">
-        <v>0.5653610893610893</v>
+        <v>0.3783428925857231</v>
       </c>
       <c r="P4">
-        <v>0.1719276879276879</v>
+        <v>0.1685060551265138</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>0.0961050721050721</v>
+        <v>0.08867162966790741</v>
       </c>
       <c r="D5">
-        <v>0.1236856116856117</v>
+        <v>0.1120656415164104</v>
       </c>
       <c r="E5">
-        <v>-0.006191934191934192</v>
+        <v>0.009849345962336491</v>
       </c>
       <c r="F5">
-        <v>-0.07868058668058668</v>
+        <v>-0.113653379913345</v>
       </c>
       <c r="H5">
-        <v>-0.0004874044874044874</v>
+        <v>-0.03282563770640943</v>
       </c>
       <c r="I5">
-        <v>0.02876791676791677</v>
+        <v>-0.001145158786289697</v>
       </c>
       <c r="J5">
-        <v>0.04146541771421022</v>
+        <v>-0.01660291648693818</v>
       </c>
       <c r="K5">
-        <v>0.09569530769530769</v>
+        <v>0.1451405297851324</v>
       </c>
       <c r="L5">
-        <v>0.7665313065313066</v>
+        <v>0.6506773206693302</v>
       </c>
       <c r="M5">
-        <v>0.02220814620814621</v>
+        <v>-0.03563182340795585</v>
       </c>
       <c r="N5">
-        <v>-0.7461026781026782</v>
+        <v>-0.3636258894064724</v>
       </c>
       <c r="P5">
-        <v>-0.1068465348465348</v>
+        <v>-0.1752946923236731</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>0.207024699024699</v>
+        <v>0.2447961476990369</v>
       </c>
       <c r="D6">
-        <v>-0.006554766554766555</v>
+        <v>-0.02437059609264902</v>
       </c>
       <c r="E6">
-        <v>0.004305580305580306</v>
+        <v>0.0276177804044451</v>
       </c>
       <c r="F6">
-        <v>0.08908249708249709</v>
+        <v>0.1642223495555874</v>
       </c>
       <c r="H6">
-        <v>0.91795022995023</v>
+        <v>0.9247951021987756</v>
       </c>
       <c r="I6">
-        <v>0.9742967062967064</v>
+        <v>0.9745527441381859</v>
       </c>
       <c r="J6">
-        <v>-0.1436508365127415</v>
+        <v>-0.3651238211747128</v>
       </c>
       <c r="K6">
-        <v>0.04142488142488143</v>
+        <v>0.03254695263673816</v>
       </c>
       <c r="L6">
-        <v>0.02353039153039153</v>
+        <v>0.008663493665873415</v>
       </c>
       <c r="M6">
-        <v>-0.02134592134592135</v>
+        <v>-0.01076258819064705</v>
       </c>
       <c r="N6">
-        <v>0.06070028470028471</v>
+        <v>0.1113432443358111</v>
       </c>
       <c r="P6">
-        <v>0.6128007728007729</v>
+        <v>0.5633202448300612</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -748,43 +757,43 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>0.482942150942151</v>
+        <v>0.4871466152866538</v>
       </c>
       <c r="D7">
-        <v>0.024994140994141</v>
+        <v>-0.03114823378705844</v>
       </c>
       <c r="E7">
-        <v>-0.03040456240456241</v>
+        <v>0.02615518103879526</v>
       </c>
       <c r="F7">
-        <v>0.03529351129351129</v>
+        <v>-0.01359807789951947</v>
       </c>
       <c r="H7">
-        <v>0.01546385146385146</v>
+        <v>0.004880875220218805</v>
       </c>
       <c r="I7">
-        <v>0.01506395106395106</v>
+        <v>0.01102662875665719</v>
       </c>
       <c r="J7">
-        <v>0.05323796355739134</v>
+        <v>-0.0272923881257679</v>
       </c>
       <c r="K7">
-        <v>-0.648032172032172</v>
+        <v>-0.6314519628629907</v>
       </c>
       <c r="L7">
-        <v>-0.004632064632064632</v>
+        <v>-0.0322701875675469</v>
       </c>
       <c r="M7">
-        <v>0.03666201666201666</v>
+        <v>-0.008717246179311543</v>
       </c>
       <c r="N7">
-        <v>0.002682362682362683</v>
+        <v>0.03169674942418736</v>
       </c>
       <c r="P7">
-        <v>-0.02085966885966886</v>
+        <v>0.03606711451677862</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -792,43 +801,43 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>0.5106646746646747</v>
+        <v>0.5727473256868314</v>
       </c>
       <c r="D8">
-        <v>-0.02778933978933979</v>
+        <v>0.04259113214778303</v>
       </c>
       <c r="E8">
-        <v>0.02938261738261739</v>
+        <v>-0.04156770289192572</v>
       </c>
       <c r="F8">
-        <v>-0.02700347100347101</v>
+        <v>0.03829666407416601</v>
       </c>
       <c r="H8">
-        <v>0.008704748704748704</v>
+        <v>0.01417694754423689</v>
       </c>
       <c r="I8">
-        <v>0.02235392235392235</v>
+        <v>-0.003187967296991824</v>
       </c>
       <c r="J8">
-        <v>-0.04573908401351852</v>
+        <v>0.02808102083889589</v>
       </c>
       <c r="K8">
-        <v>0.7592078552078553</v>
+        <v>0.7232469713117428</v>
       </c>
       <c r="L8">
-        <v>0.002681198681198681</v>
+        <v>0.004451557112889279</v>
       </c>
       <c r="M8">
-        <v>-0.05199505599505599</v>
+        <v>0.0006348451587112896</v>
       </c>
       <c r="N8">
-        <v>0.006578730578730579</v>
+        <v>-0.04635539808884952</v>
       </c>
       <c r="P8">
-        <v>0.01337077337077337</v>
+        <v>-0.02970620992655248</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -836,43 +845,43 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>0.01433793833793834</v>
+        <v>-0.01421462005365501</v>
       </c>
       <c r="D9">
-        <v>0.004502428502428503</v>
+        <v>0.004465520616380154</v>
       </c>
       <c r="E9">
-        <v>-0.0009869649869649871</v>
+        <v>0.0001179855294963824</v>
       </c>
       <c r="F9">
-        <v>-0.005241473241473242</v>
+        <v>-0.003849785462446366</v>
       </c>
       <c r="H9">
-        <v>-0.02438136038136038</v>
+        <v>0.001957308489327122</v>
       </c>
       <c r="I9">
-        <v>-0.02097303297303297</v>
+        <v>0.001443475860868965</v>
       </c>
       <c r="J9">
-        <v>-0.04400487226890151</v>
+        <v>-0.0007781432102932029</v>
       </c>
       <c r="K9">
-        <v>0.04604631404631405</v>
+        <v>0.001236967809241952</v>
       </c>
       <c r="L9">
-        <v>0.02721035121035121</v>
+        <v>0.009162554290638574</v>
       </c>
       <c r="M9">
-        <v>-0.0182047742047742</v>
+        <v>0.03863069015767254</v>
       </c>
       <c r="N9">
-        <v>-0.04057925257925258</v>
+        <v>-0.00910771427692857</v>
       </c>
       <c r="P9">
-        <v>-0.008383604383604384</v>
+        <v>0.0264431736107934</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,127 +889,127 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10">
-        <v>0.009680889680889681</v>
+        <v>0.110749136187284</v>
       </c>
       <c r="D10">
-        <v>-0.02002374802374803</v>
+        <v>0.01729512282378071</v>
       </c>
       <c r="E10">
-        <v>0.01841598641598642</v>
+        <v>-0.01744059886014971</v>
       </c>
       <c r="F10">
-        <v>-0.02463753663753664</v>
+        <v>0.02893873473468368</v>
       </c>
       <c r="H10">
-        <v>-0.04674099474099475</v>
+        <v>0.06251614262903567</v>
       </c>
       <c r="I10">
-        <v>-0.02926784926784927</v>
+        <v>0.05814675703668926</v>
       </c>
       <c r="J10">
-        <v>0.00563181566560656</v>
+        <v>0.01332530910116479</v>
       </c>
       <c r="K10">
-        <v>0.0124983004983005</v>
+        <v>0.06494111373527843</v>
       </c>
       <c r="L10">
-        <v>-0.01583772383772384</v>
+        <v>-0.0001404585351146338</v>
       </c>
       <c r="M10">
-        <v>0.0463944343944344</v>
+        <v>-0.0152673128168282</v>
       </c>
       <c r="N10">
-        <v>-0.007220191220191221</v>
+        <v>-0.01246854311713578</v>
       </c>
       <c r="P10">
-        <v>-0.02397069597069597</v>
+        <v>0.03568971592242898</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11">
-        <v>0.1266397986397987</v>
+        <v>0.07800049200012299</v>
       </c>
       <c r="D11">
-        <v>0.04193420993420993</v>
+        <v>0.01792740148185037</v>
       </c>
       <c r="E11">
-        <v>-0.03493064293064293</v>
+        <v>-0.01266603166650791</v>
       </c>
       <c r="F11">
-        <v>0.02715876315876316</v>
+        <v>0.00631140607785152</v>
       </c>
       <c r="H11">
-        <v>-0.02921338121338122</v>
+        <v>-0.01123830430957608</v>
       </c>
       <c r="I11">
-        <v>0.1744210504210504</v>
+        <v>0.2002529930632483</v>
       </c>
       <c r="J11">
-        <v>0.009613323671003614</v>
+        <v>0.01910362716275525</v>
       </c>
       <c r="K11">
-        <v>-0.0008147528147528148</v>
+        <v>0.006203973050993262</v>
       </c>
       <c r="L11">
-        <v>0.008878076878076879</v>
+        <v>0.01326627931656983</v>
       </c>
       <c r="M11">
-        <v>0.01788954588954589</v>
+        <v>0.01332846333211583</v>
       </c>
       <c r="N11">
-        <v>-0.006815298815298815</v>
+        <v>-0.02836772209193052</v>
       </c>
       <c r="P11">
-        <v>-0.07853788253788253</v>
+        <v>-0.04072118968029742</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12">
-        <v>-0.1978773538773539</v>
+        <v>-0.2208867597216899</v>
       </c>
       <c r="D12">
-        <v>0.02857600057600058</v>
+        <v>0.02403693300923325</v>
       </c>
       <c r="E12">
-        <v>-0.0262974502974503</v>
+        <v>-0.02574321193580298</v>
       </c>
       <c r="F12">
-        <v>0.02237384237384238</v>
+        <v>0.02230695707673927</v>
       </c>
       <c r="H12">
-        <v>-0.02638820638820639</v>
+        <v>-0.006966024241506059</v>
       </c>
       <c r="I12">
-        <v>-0.0290987330987331</v>
+        <v>-0.01069399617349904</v>
       </c>
       <c r="J12">
-        <v>0.02675238891290325</v>
+        <v>0.04408984941528182</v>
       </c>
       <c r="K12">
-        <v>-0.1185793305793306</v>
+        <v>-0.06895942273985568</v>
       </c>
       <c r="L12">
-        <v>0.02156844956844957</v>
+        <v>-0.01093682523420631</v>
       </c>
       <c r="M12">
-        <v>-0.02325773925773926</v>
+        <v>0.02425229856307464</v>
       </c>
       <c r="N12">
-        <v>-0.01184677184677185</v>
+        <v>-0.02196999549249887</v>
       </c>
       <c r="P12">
-        <v>0.009671409671409673</v>
+        <v>-0.01040832710208178</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1008,43 +1017,43 @@
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13">
-        <v>0.04291315891315892</v>
+        <v>0.02286942421735605</v>
       </c>
       <c r="D13">
-        <v>0.002271314271314271</v>
+        <v>0.0008823152205788052</v>
       </c>
       <c r="E13">
-        <v>-0.006328962328962328</v>
+        <v>-0.004022093505523377</v>
       </c>
       <c r="F13">
-        <v>0.009724485724485725</v>
+        <v>0.002836281709070427</v>
       </c>
       <c r="H13">
-        <v>0.01297698097698098</v>
+        <v>0.002289491072372768</v>
       </c>
       <c r="I13">
-        <v>0.0061001461001461</v>
+        <v>-0.002792030198007549</v>
       </c>
       <c r="J13">
-        <v>-0.01363525371706524</v>
+        <v>0.00741487625387031</v>
       </c>
       <c r="K13">
-        <v>0.002342174342174342</v>
+        <v>-0.0002093985523496381</v>
       </c>
       <c r="L13">
-        <v>-0.03005566205566206</v>
+        <v>-0.02139341034835258</v>
       </c>
       <c r="M13">
-        <v>0.04994709794709795</v>
+        <v>0.02459340614835154</v>
       </c>
       <c r="N13">
-        <v>0.02026899226899227</v>
+        <v>0.01041664010416003</v>
       </c>
       <c r="P13">
-        <v>0.01988033588033588</v>
+        <v>-0.01526142531535633</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1052,43 +1061,43 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14">
-        <v>-0.04501706101706102</v>
+        <v>-0.01702508075627019</v>
       </c>
       <c r="D14">
-        <v>0.004142080142080142</v>
+        <v>-0.01348802287200572</v>
       </c>
       <c r="E14">
-        <v>-0.001074097074097074</v>
+        <v>0.01587090096772524</v>
       </c>
       <c r="F14">
-        <v>0.002105306105306105</v>
+        <v>-0.01578876994719249</v>
       </c>
       <c r="H14">
-        <v>0.03911769911769912</v>
+        <v>0.0008459972114993029</v>
       </c>
       <c r="I14">
-        <v>0.03047980247980248</v>
+        <v>0.009062567265641816</v>
       </c>
       <c r="J14">
-        <v>0.005195765226939819</v>
+        <v>-0.03387207540392839</v>
       </c>
       <c r="K14">
-        <v>-0.01176965976965977</v>
+        <v>-0.03694093523523381</v>
       </c>
       <c r="L14">
-        <v>0.03571216771216772</v>
+        <v>0.005502572875643218</v>
       </c>
       <c r="M14">
-        <v>-0.05247912447912448</v>
+        <v>-0.02108572127143032</v>
       </c>
       <c r="N14">
-        <v>-0.01032290232290232</v>
+        <v>0.007812969453242363</v>
       </c>
       <c r="P14">
-        <v>-0.008053664053664054</v>
+        <v>0.001475733368933342</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1096,85 +1105,85 @@
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15">
-        <v>-0.04206809406809407</v>
+        <v>0.01291124572781143</v>
       </c>
       <c r="D15">
-        <v>-0.02751823551823552</v>
+        <v>-0.007710672427668107</v>
       </c>
       <c r="E15">
-        <v>0.02913749313749314</v>
+        <v>0.01325448031362008</v>
       </c>
       <c r="F15">
-        <v>-0.02601981801981803</v>
+        <v>-0.009888309972077493</v>
       </c>
       <c r="H15">
-        <v>-0.008465048465048466</v>
+        <v>0.01576248094062023</v>
       </c>
       <c r="I15">
-        <v>0.01214672414672415</v>
+        <v>0.03009894902473725</v>
       </c>
       <c r="J15">
-        <v>-0.065258723650276</v>
+        <v>-0.02074133435534561</v>
       </c>
       <c r="K15">
-        <v>-0.0688016968016968</v>
+        <v>0.01927218931804733</v>
       </c>
       <c r="L15">
-        <v>-0.007452367452367452</v>
+        <v>0.0188490452122613</v>
       </c>
       <c r="M15">
-        <v>0.01162057162057162</v>
+        <v>-0.004668506667126667</v>
       </c>
       <c r="N15">
-        <v>0.02138999738999739</v>
+        <v>-0.01064695766173942</v>
       </c>
       <c r="P15">
-        <v>-0.00543922143922144</v>
+        <v>0.03805552101388025</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>0.001924345924345924</v>
+        <v>0.02097952274488069</v>
       </c>
       <c r="D16">
-        <v>-0.002696846696846697</v>
+        <v>0.002287856071964018</v>
       </c>
       <c r="E16">
-        <v>0.005153981153981154</v>
+        <v>-0.003468084867021217</v>
       </c>
       <c r="F16">
-        <v>-0.00536038136038136</v>
+        <v>0.001209112802278201</v>
       </c>
       <c r="H16">
-        <v>-0.01160841560841561</v>
+        <v>-0.02280047070011767</v>
       </c>
       <c r="I16">
-        <v>-0.002931770931770932</v>
+        <v>-0.01877292169323042</v>
       </c>
       <c r="J16">
-        <v>0.002287934301661907</v>
+        <v>-0.004189045882089651</v>
       </c>
       <c r="K16">
-        <v>0.00492990492990493</v>
+        <v>0.02143357435839359</v>
       </c>
       <c r="L16">
-        <v>0.007748263748263749</v>
+        <v>-0.005856803964200991</v>
       </c>
       <c r="M16">
-        <v>-0.02398729198729199</v>
+        <v>0.009444537861134465</v>
       </c>
       <c r="N16">
-        <v>-0.0008704448704448704</v>
+        <v>-0.003751301437825359</v>
       </c>
       <c r="P16">
-        <v>-0.03301791301791302</v>
+        <v>-0.01012630753157688</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1182,43 +1191,43 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>0.009235773235773235</v>
+        <v>0.00127929031982258</v>
       </c>
       <c r="D17">
-        <v>0.04383527583527584</v>
+        <v>-0.0006819706704926676</v>
       </c>
       <c r="E17">
-        <v>-0.0384911784911785</v>
+        <v>-0.004387735096933774</v>
       </c>
       <c r="F17">
-        <v>0.03062273462273462</v>
+        <v>0.01308653427163357</v>
       </c>
       <c r="H17">
-        <v>0.01821235821235822</v>
+        <v>0.01156502089125522</v>
       </c>
       <c r="I17">
-        <v>-0.007610803610803612</v>
+        <v>0.00336371484092871</v>
       </c>
       <c r="J17">
-        <v>0.0122325483059436</v>
+        <v>0.007663991821193791</v>
       </c>
       <c r="K17">
-        <v>-0.006256806256806257</v>
+        <v>-0.005436076359019089</v>
       </c>
       <c r="L17">
-        <v>0.04289254289254289</v>
+        <v>-0.01794579898644975</v>
       </c>
       <c r="M17">
-        <v>0.04717815517815518</v>
+        <v>-0.004344995586248896</v>
       </c>
       <c r="N17">
-        <v>-0.05091979491979493</v>
+        <v>-0.00561802340450585</v>
       </c>
       <c r="P17">
-        <v>-0.01432260232260233</v>
+        <v>0.02135306483826621</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1226,169 +1235,169 @@
         <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>-0.01895509895509896</v>
+        <v>0.03253411413352853</v>
       </c>
       <c r="D18">
-        <v>0.001451497451497452</v>
+        <v>0.005379052344763086</v>
       </c>
       <c r="E18">
-        <v>-0.009897201897201899</v>
+        <v>-0.001604443901110975</v>
       </c>
       <c r="F18">
-        <v>0.01792009792009792</v>
+        <v>-0.0002952300738075185</v>
       </c>
       <c r="H18">
-        <v>0.02688895488895489</v>
+        <v>0.009660909915227479</v>
       </c>
       <c r="I18">
-        <v>0.01905475905475906</v>
+        <v>0.01021040955260239</v>
       </c>
       <c r="J18">
-        <v>0.007357777401924066</v>
+        <v>-0.004289805409319914</v>
       </c>
       <c r="K18">
-        <v>-0.04942858942858943</v>
+        <v>0.01781270395317599</v>
       </c>
       <c r="L18">
-        <v>-0.04775128775128776</v>
+        <v>0.01906744376686094</v>
       </c>
       <c r="M18">
-        <v>-0.02516546516546517</v>
+        <v>0.003691736422934105</v>
       </c>
       <c r="N18">
-        <v>0.05858293058293059</v>
+        <v>-0.01629802307450577</v>
       </c>
       <c r="P18">
-        <v>0.01783878583878584</v>
+        <v>-0.006751230187807546</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19">
-        <v>-0.02210530610530611</v>
+        <v>0.003673218918304729</v>
       </c>
       <c r="D19">
-        <v>-0.04281550281550282</v>
+        <v>0.006033498008374502</v>
       </c>
       <c r="E19">
-        <v>0.04137367737367738</v>
+        <v>-0.01298639274659819</v>
       </c>
       <c r="F19">
-        <v>-0.03782982182982183</v>
+        <v>0.0179611859902965</v>
       </c>
       <c r="H19">
-        <v>-0.03518573918573918</v>
+        <v>0.004612922653230663</v>
       </c>
       <c r="I19">
-        <v>-0.02550434550434551</v>
+        <v>-0.006414003103500775</v>
       </c>
       <c r="J19">
-        <v>-0.004646494674373642</v>
+        <v>0.003565600713603594</v>
       </c>
       <c r="K19">
-        <v>-0.02531412131412132</v>
+        <v>-0.05185054746263686</v>
       </c>
       <c r="L19">
-        <v>-0.01131469131469132</v>
+        <v>-0.03890073222518306</v>
       </c>
       <c r="M19">
-        <v>-0.01335019335019335</v>
+        <v>-0.03856347664086916</v>
       </c>
       <c r="N19">
-        <v>0.005461193461193461</v>
+        <v>0.0103355455838864</v>
       </c>
       <c r="P19">
-        <v>-0.03452371052371053</v>
+        <v>-0.0005548291387072847</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>-0.07209900009900011</v>
+        <v>-0.03312843378210845</v>
       </c>
       <c r="D20">
-        <v>-0.03186901986901988</v>
+        <v>-0.02778172144543036</v>
       </c>
       <c r="E20">
-        <v>0.04235795435795436</v>
+        <v>0.02634603358650839</v>
       </c>
       <c r="F20">
-        <v>-0.05636174036174037</v>
+        <v>-0.03305187976296994</v>
       </c>
       <c r="H20">
-        <v>-0.09991729591729592</v>
+        <v>-0.03903580575895144</v>
       </c>
       <c r="I20">
-        <v>-0.08208890208890209</v>
+        <v>-0.03152527688131922</v>
       </c>
       <c r="J20">
-        <v>0.02696641512821362</v>
+        <v>-0.00545210097343029</v>
       </c>
       <c r="K20">
-        <v>0.04141883341883342</v>
+        <v>-0.02687299421824856</v>
       </c>
       <c r="L20">
-        <v>0.04547711747711748</v>
+        <v>-0.002510621127655282</v>
       </c>
       <c r="M20">
-        <v>0.02227235827235827</v>
+        <v>0.00496183324045831</v>
       </c>
       <c r="N20">
-        <v>-0.05052917052917053</v>
+        <v>0.02190993697748424</v>
       </c>
       <c r="P20">
-        <v>-0.04252078252078252</v>
+        <v>-0.01542837535709384</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>-0.03984150384150384</v>
+        <v>0.0003510690877672719</v>
       </c>
       <c r="D21">
-        <v>-0.05060504660504661</v>
+        <v>0.03060067965016991</v>
       </c>
       <c r="E21">
-        <v>0.04894888894888896</v>
+        <v>-0.03109754727438682</v>
       </c>
       <c r="F21">
-        <v>-0.04912707712707712</v>
+        <v>0.02774614293653574</v>
       </c>
       <c r="H21">
-        <v>-0.03554229554229554</v>
+        <v>-0.01612663003165751</v>
       </c>
       <c r="I21">
-        <v>-0.02391518391518392</v>
+        <v>-0.0364499056124764</v>
       </c>
       <c r="J21">
-        <v>-0.02644551260418568</v>
+        <v>0.02486441621960849</v>
       </c>
       <c r="K21">
-        <v>-0.008641460641460643</v>
+        <v>-0.0116471384117846</v>
       </c>
       <c r="L21">
-        <v>-0.007182823182823183</v>
+        <v>6.977251744312936E-05</v>
       </c>
       <c r="M21">
-        <v>0.01049162249162249</v>
+        <v>0.03026572356643089</v>
       </c>
       <c r="N21">
-        <v>-0.01612589212589213</v>
+        <v>-0.03506733426683357</v>
       </c>
       <c r="P21">
-        <v>0.004169692169692169</v>
+        <v>-0.005619007404751851</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1396,85 +1405,85 @@
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22">
-        <v>0.02970814170814171</v>
+        <v>0.00746817636704409</v>
       </c>
       <c r="D22">
-        <v>-0.00396906396906397</v>
+        <v>-0.007152835788208948</v>
       </c>
       <c r="E22">
-        <v>0.003022455022455022</v>
+        <v>0.001260196815049204</v>
       </c>
       <c r="F22">
-        <v>0.002124998124998125</v>
+        <v>0.004702993175748293</v>
       </c>
       <c r="H22">
-        <v>0.04762730362730364</v>
+        <v>-0.0001427055356763839</v>
       </c>
       <c r="I22">
-        <v>0.04107894507894508</v>
+        <v>0.003379823344955836</v>
       </c>
       <c r="J22">
-        <v>0.01460126668887429</v>
+        <v>-0.001393777126668269</v>
       </c>
       <c r="K22">
-        <v>0.01640896040896041</v>
+        <v>0.02161171290292823</v>
       </c>
       <c r="L22">
-        <v>-0.00293000693000693</v>
+        <v>-0.03298286624571656</v>
       </c>
       <c r="M22">
-        <v>0.01744430944430944</v>
+        <v>-0.01422714655678664</v>
       </c>
       <c r="N22">
-        <v>-0.001589125589125589</v>
+        <v>0.01401824300456075</v>
       </c>
       <c r="P22">
-        <v>-0.005074301074301075</v>
+        <v>0.007923735480933869</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23">
-        <v>-0.03991808791808792</v>
+        <v>-0.009154332788583196</v>
       </c>
       <c r="D23">
-        <v>-0.003096975096975097</v>
+        <v>-0.009310101827525456</v>
       </c>
       <c r="E23">
-        <v>0.008530028530028532</v>
+        <v>0.008264702066175517</v>
       </c>
       <c r="F23">
-        <v>-0.01067265467265467</v>
+        <v>-0.012078528019632</v>
       </c>
       <c r="H23">
-        <v>-0.005550185550185551</v>
+        <v>-0.02244932661233165</v>
       </c>
       <c r="I23">
-        <v>-0.002294846294846295</v>
+        <v>-0.02689557072389268</v>
       </c>
       <c r="J23">
-        <v>-0.004884178913483988</v>
+        <v>0.01760013850643743</v>
       </c>
       <c r="K23">
-        <v>0.0665980505980506</v>
+        <v>0.01758313189578297</v>
       </c>
       <c r="L23">
-        <v>0.02253455853455854</v>
+        <v>0.01296606174151544</v>
       </c>
       <c r="M23">
-        <v>-0.02876154476154476</v>
+        <v>-0.002765505691376423</v>
       </c>
       <c r="N23">
-        <v>-0.02556937356937357</v>
+        <v>0.008453474113368527</v>
       </c>
       <c r="P23">
-        <v>-0.00864790464790465</v>
+        <v>-0.003287586821896705</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1482,317 +1491,404 @@
         <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24">
-        <v>-0.03215336015336016</v>
+        <v>-0.003285558821389705</v>
       </c>
       <c r="D24">
-        <v>-0.04584690984690985</v>
+        <v>0.02973085643271411</v>
       </c>
       <c r="E24">
-        <v>0.01582659982659983</v>
+        <v>-0.02969496742374185</v>
       </c>
       <c r="F24">
-        <v>0.002262926262926263</v>
+        <v>0.02036611259152815</v>
       </c>
       <c r="H24">
-        <v>-0.01044945444945445</v>
+        <v>-0.01822357355589339</v>
       </c>
       <c r="I24">
-        <v>-0.009307569307569308</v>
+        <v>-0.02417199454299863</v>
       </c>
       <c r="J24">
-        <v>-0.007096099138675733</v>
+        <v>0.04457346154597799</v>
       </c>
       <c r="K24">
-        <v>-0.07421946221946223</v>
+        <v>-0.01037749909437477</v>
       </c>
       <c r="L24">
-        <v>-0.2327482967482967</v>
+        <v>0.001003872250968063</v>
       </c>
       <c r="M24">
-        <v>0.9495477135477136</v>
+        <v>-0.02006184351546087</v>
       </c>
       <c r="N24">
-        <v>0.09875465075465076</v>
+        <v>-0.01979795744948936</v>
       </c>
       <c r="P24">
-        <v>0.005760197760197761</v>
+        <v>-0.04989355847338962</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25">
-        <v>0.03432313032313032</v>
+        <v>-0.03307862476965619</v>
       </c>
       <c r="D25">
-        <v>0.04467594867594868</v>
+        <v>-0.001607257901814475</v>
       </c>
       <c r="E25">
-        <v>-0.05266921666921667</v>
+        <v>0.003665936416484104</v>
       </c>
       <c r="F25">
-        <v>0.05398710598710599</v>
+        <v>-0.007134759283689822</v>
       </c>
       <c r="H25">
-        <v>-0.01830744630744631</v>
+        <v>-0.004164728541182135</v>
       </c>
       <c r="I25">
-        <v>-0.03137812337812338</v>
+        <v>-0.009120605280151319</v>
       </c>
       <c r="J25">
-        <v>0.01504668313696324</v>
+        <v>0.00176769272771896</v>
       </c>
       <c r="K25">
-        <v>-0.02778113178113178</v>
+        <v>-0.007118628279657068</v>
       </c>
       <c r="L25">
-        <v>-0.06544351744351744</v>
+        <v>0.02757573539393385</v>
       </c>
       <c r="M25">
-        <v>0.2660764340764341</v>
+        <v>-0.006464734616183653</v>
       </c>
       <c r="N25">
-        <v>0.0363051483051483</v>
+        <v>-0.01662641965660491</v>
       </c>
       <c r="P25">
-        <v>-0.006257562257562257</v>
+        <v>0.001148011787002947</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>-0.02141926541926542</v>
+        <v>-0.03239982509995627</v>
       </c>
       <c r="D26">
-        <v>0.009670161670161671</v>
+        <v>-0.03554053338513334</v>
       </c>
       <c r="E26">
-        <v>-0.0008117528117528118</v>
+        <v>0.005091689772922444</v>
       </c>
       <c r="F26">
-        <v>-0.006309378309378309</v>
+        <v>0.01612861303215326</v>
       </c>
       <c r="H26">
-        <v>-0.0278010878010878</v>
+        <v>-0.005567372891843223</v>
       </c>
       <c r="I26">
-        <v>-0.03308152508152509</v>
+        <v>0.0003313155828288957</v>
       </c>
       <c r="J26">
-        <v>0.07649708295606546</v>
+        <v>0.009838638408892033</v>
       </c>
       <c r="K26">
-        <v>0.01929054729054729</v>
+        <v>-0.01827486006871501</v>
       </c>
       <c r="L26">
-        <v>0.03570562770562771</v>
+        <v>-0.1865992021498005</v>
       </c>
       <c r="M26">
-        <v>0.11998181998182</v>
+        <v>0.9503061515765379</v>
       </c>
       <c r="N26">
-        <v>-0.04783126783126784</v>
+        <v>0.06830798157699539</v>
       </c>
       <c r="P26">
-        <v>-0.05543279543279543</v>
+        <v>0.001656459414114853</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>0.01694425694425695</v>
+        <v>-0.02991030447757612</v>
       </c>
       <c r="D27">
-        <v>0.02683982683982684</v>
+        <v>-0.0408915312228828</v>
       </c>
       <c r="E27">
-        <v>-0.03006361806361807</v>
+        <v>0.02183181995795499</v>
       </c>
       <c r="F27">
-        <v>0.03240256440256441</v>
+        <v>-0.008154780538695134</v>
       </c>
       <c r="H27">
-        <v>0.04064504864504865</v>
+        <v>-0.01579653694913424</v>
       </c>
       <c r="I27">
-        <v>0.03942546342546343</v>
+        <v>-0.02435210708802677</v>
       </c>
       <c r="J27">
-        <v>0.04761704390274617</v>
+        <v>-0.01823946942921662</v>
       </c>
       <c r="K27">
-        <v>0.003755115755115755</v>
+        <v>-0.03267782166945542</v>
       </c>
       <c r="L27">
-        <v>-0.02870796470796471</v>
+        <v>-0.1218311344577836</v>
       </c>
       <c r="M27">
-        <v>0.03369088569088569</v>
+        <v>0.2989522692380673</v>
       </c>
       <c r="N27">
-        <v>0.03081084681084681</v>
+        <v>0.06032430008107503</v>
       </c>
       <c r="P27">
-        <v>0.03953663153663154</v>
+        <v>0.03232795108198777</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28">
-        <v>0.5105581385581386</v>
+        <v>0.05593799448449862</v>
       </c>
       <c r="D28">
-        <v>0.9843621723621723</v>
+        <v>0.0212767088191772</v>
       </c>
       <c r="E28">
-        <v>-0.9974804774804775</v>
+        <v>-0.02662115015528754</v>
       </c>
       <c r="F28">
-        <v>0.9860692580692582</v>
+        <v>0.02926482881620721</v>
       </c>
       <c r="H28">
-        <v>0.3695626775626776</v>
+        <v>0.005875204468801117</v>
       </c>
       <c r="I28">
-        <v>0.003501615501615502</v>
+        <v>-0.005935952983988245</v>
       </c>
       <c r="J28">
-        <v>0.3689142051276904</v>
+        <v>0.02878475802908087</v>
       </c>
       <c r="K28">
-        <v>-0.005570717570717571</v>
+        <v>-0.04350952837738209</v>
       </c>
       <c r="L28">
-        <v>0.008767616767616769</v>
+        <v>-0.03117600779400194</v>
       </c>
       <c r="M28">
-        <v>0.004286968286968287</v>
+        <v>0.1644528666132166</v>
       </c>
       <c r="N28">
-        <v>0.04952311352311353</v>
+        <v>0.01536096684024171</v>
       </c>
       <c r="P28">
-        <v>-0.3523948483948484</v>
+        <v>-0.01969189392297348</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29">
-        <v>-0.03451137451137451</v>
+        <v>-0.01515627528906882</v>
       </c>
       <c r="D29">
-        <v>0.05130996330996332</v>
+        <v>-0.01425823406455852</v>
       </c>
       <c r="E29">
-        <v>-0.05465237465237466</v>
+        <v>0.01825126056281514</v>
       </c>
       <c r="F29">
-        <v>0.05154639954639954</v>
+        <v>-0.02164986091246523</v>
       </c>
       <c r="H29">
-        <v>0.04674548274548275</v>
+        <v>-0.01055965163991291</v>
       </c>
       <c r="I29">
-        <v>-0.0318975798975799</v>
+        <v>0.002337033584258396</v>
       </c>
       <c r="J29">
-        <v>0.1234592081999634</v>
+        <v>-0.005120953383937654</v>
       </c>
       <c r="K29">
-        <v>0.01469171069171069</v>
+        <v>0.01524040131010033</v>
       </c>
       <c r="L29">
-        <v>-0.008559440559440561</v>
+        <v>0.02263092415773104</v>
       </c>
       <c r="M29">
-        <v>-0.0145965385965386</v>
+        <v>0.05594608248652063</v>
       </c>
       <c r="N29">
-        <v>0.01337750537750538</v>
+        <v>0.01864477366119341</v>
       </c>
       <c r="P29">
-        <v>-0.1021582861582862</v>
+        <v>0.0004713661178415294</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30">
+        <v>0.4390263962565991</v>
+      </c>
+      <c r="D30">
+        <v>0.9779429369857341</v>
+      </c>
+      <c r="E30">
+        <v>-0.9975548868887217</v>
+      </c>
+      <c r="F30">
+        <v>0.9638129169532291</v>
+      </c>
+      <c r="H30">
+        <v>0.3301651965412991</v>
+      </c>
+      <c r="I30">
+        <v>-0.02634610408652602</v>
+      </c>
+      <c r="J30">
+        <v>0.6887782823923311</v>
+      </c>
+      <c r="K30">
+        <v>-0.03752311688077922</v>
+      </c>
+      <c r="L30">
+        <v>-0.02235680658920165</v>
+      </c>
+      <c r="M30">
+        <v>-0.006090942022735506</v>
+      </c>
+      <c r="N30">
+        <v>-0.7551782772945693</v>
+      </c>
+      <c r="P30">
+        <v>-0.4217932204483051</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31">
+        <v>0.03225538256384564</v>
+      </c>
+      <c r="D31">
+        <v>0.0661681380420345</v>
+      </c>
+      <c r="E31">
+        <v>-0.06721533330383332</v>
+      </c>
+      <c r="F31">
+        <v>0.0597082184270546</v>
+      </c>
+      <c r="H31">
+        <v>0.07814055453513863</v>
+      </c>
+      <c r="I31">
+        <v>0.007047027261756816</v>
+      </c>
+      <c r="J31">
+        <v>0.193164121952604</v>
+      </c>
+      <c r="K31">
+        <v>0.03158943189735797</v>
+      </c>
+      <c r="L31">
+        <v>0.01403128550782138</v>
+      </c>
+      <c r="M31">
+        <v>0.03157944489486122</v>
+      </c>
+      <c r="N31">
+        <v>-0.0431583887895972</v>
+      </c>
+      <c r="P31">
+        <v>-0.08947137136784285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30">
-        <v>0.02616425016425017</v>
-      </c>
-      <c r="D30">
-        <v>0.00812862812862813</v>
-      </c>
-      <c r="E30">
-        <v>-0.0074001194001194</v>
-      </c>
-      <c r="F30">
-        <v>0.009088173088173088</v>
-      </c>
-      <c r="H30">
-        <v>0.01144017544017544</v>
-      </c>
-      <c r="I30">
-        <v>0.01301083301083301</v>
-      </c>
-      <c r="J30">
-        <v>0.0171712372742647</v>
-      </c>
-      <c r="K30">
-        <v>-0.0308062988062988</v>
-      </c>
-      <c r="L30">
-        <v>-0.002385890385890386</v>
-      </c>
-      <c r="M30">
-        <v>0.01966871566871567</v>
-      </c>
-      <c r="N30">
-        <v>-0.003813711813711814</v>
-      </c>
-      <c r="P30">
-        <v>-0.000562020562020562</v>
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>-0.03952172938043234</v>
+      </c>
+      <c r="D32">
+        <v>0.004927444231861058</v>
+      </c>
+      <c r="E32">
+        <v>-0.003968175992043997</v>
+      </c>
+      <c r="F32">
+        <v>0.004755854688963672</v>
+      </c>
+      <c r="H32">
+        <v>0.01168936642234161</v>
+      </c>
+      <c r="I32">
+        <v>0.009839577959894491</v>
+      </c>
+      <c r="J32">
+        <v>0.02194402793037355</v>
+      </c>
+      <c r="K32">
+        <v>-0.00303660075915019</v>
+      </c>
+      <c r="L32">
+        <v>0.002124582531145633</v>
+      </c>
+      <c r="M32">
+        <v>-0.03830244957561239</v>
+      </c>
+      <c r="N32">
+        <v>-0.006818365704591426</v>
+      </c>
+      <c r="P32">
+        <v>0.003492065373016343</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Element</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Price [USD/kg]</t>
+  </si>
+  <si>
+    <t>Tau</t>
   </si>
   <si>
     <t>Cellulase loading [wt. % cellulose]</t>
@@ -542,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -632,40 +635,40 @@
         <v>31</v>
       </c>
       <c r="C4">
-        <v>-0.04744511986127996</v>
+        <v>-0.1021593824223753</v>
       </c>
       <c r="D4">
-        <v>-0.104604140151035</v>
+        <v>-0.1353639366145575</v>
       </c>
       <c r="E4">
-        <v>-0.0235032463758116</v>
+        <v>0.001622180032887201</v>
       </c>
       <c r="F4">
-        <v>0.1293084098271025</v>
+        <v>0.1177142075565683</v>
       </c>
       <c r="H4">
-        <v>0.03500304125076031</v>
+        <v>0.05475039761401589</v>
       </c>
       <c r="I4">
-        <v>-0.01210015202503801</v>
+        <v>0.01973275000531</v>
       </c>
       <c r="J4">
-        <v>-0.05184251076043855</v>
+        <v>-0.05295462585496394</v>
       </c>
       <c r="K4">
-        <v>-0.1158789709697427</v>
+        <v>-0.1107069063482762</v>
       </c>
       <c r="L4">
-        <v>-0.684336216084054</v>
+        <v>-0.7097035989801438</v>
       </c>
       <c r="M4">
-        <v>-0.01160848490212122</v>
+        <v>0.01743417237736689</v>
       </c>
       <c r="N4">
-        <v>0.3783428925857231</v>
+        <v>0.4147843742233749</v>
       </c>
       <c r="P4">
-        <v>0.1685060551265138</v>
+        <v>0.2054464047938562</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -674,40 +677,40 @@
         <v>32</v>
       </c>
       <c r="C5">
-        <v>0.08867162966790741</v>
+        <v>0.08256903795876151</v>
       </c>
       <c r="D5">
-        <v>0.1120656415164104</v>
+        <v>0.1259096082683843</v>
       </c>
       <c r="E5">
-        <v>0.009849345962336491</v>
+        <v>-0.001781418791256751</v>
       </c>
       <c r="F5">
-        <v>-0.113653379913345</v>
+        <v>-0.0985434184377367</v>
       </c>
       <c r="H5">
-        <v>-0.03282563770640943</v>
+        <v>-0.004831476385259054</v>
       </c>
       <c r="I5">
-        <v>-0.001145158786289697</v>
+        <v>0.0217038475241539</v>
       </c>
       <c r="J5">
-        <v>-0.01660291648693818</v>
+        <v>-0.01090809682171136</v>
       </c>
       <c r="K5">
-        <v>0.1451405297851324</v>
+        <v>0.1006544677381787</v>
       </c>
       <c r="L5">
-        <v>0.6506773206693302</v>
+        <v>0.6532761309310451</v>
       </c>
       <c r="M5">
-        <v>-0.03563182340795585</v>
+        <v>0.01720635313625412</v>
       </c>
       <c r="N5">
-        <v>-0.3636258894064724</v>
+        <v>-0.3775537732141509</v>
       </c>
       <c r="P5">
-        <v>-0.1752946923236731</v>
+        <v>-0.1427077180283087</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -716,40 +719,40 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <v>0.2447961476990369</v>
+        <v>0.2508385351215414</v>
       </c>
       <c r="D6">
-        <v>-0.02437059609264902</v>
+        <v>0.02208441045137641</v>
       </c>
       <c r="E6">
-        <v>0.0276177804044451</v>
+        <v>-0.02133625640545025</v>
       </c>
       <c r="F6">
-        <v>0.1642223495555874</v>
+        <v>0.2094257820730313</v>
       </c>
       <c r="H6">
-        <v>0.9247951021987756</v>
+        <v>0.9268941073157642</v>
       </c>
       <c r="I6">
-        <v>0.9745527441381859</v>
+        <v>0.9749380372055213</v>
       </c>
       <c r="J6">
-        <v>-0.3651238211747128</v>
+        <v>-0.3468581118030737</v>
       </c>
       <c r="K6">
-        <v>0.03254695263673816</v>
+        <v>0.05460211610408464</v>
       </c>
       <c r="L6">
-        <v>0.008663493665873415</v>
+        <v>0.003787004407480176</v>
       </c>
       <c r="M6">
-        <v>-0.01076258819064705</v>
+        <v>-0.02696667707866708</v>
       </c>
       <c r="N6">
-        <v>0.1113432443358111</v>
+        <v>0.07614086877363475</v>
       </c>
       <c r="P6">
-        <v>0.5633202448300612</v>
+        <v>0.5232784141471365</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -760,40 +763,40 @@
         <v>34</v>
       </c>
       <c r="C7">
-        <v>0.4871466152866538</v>
+        <v>0.5139944732317788</v>
       </c>
       <c r="D7">
-        <v>-0.03114823378705844</v>
+        <v>-0.003509823404392936</v>
       </c>
       <c r="E7">
-        <v>0.02615518103879526</v>
+        <v>0.007038167705526707</v>
       </c>
       <c r="F7">
-        <v>-0.01359807789951947</v>
+        <v>-0.01055770103030804</v>
       </c>
       <c r="H7">
-        <v>0.004880875220218805</v>
+        <v>-0.007393342855733713</v>
       </c>
       <c r="I7">
-        <v>0.01102662875665719</v>
+        <v>0.0009388744695549788</v>
       </c>
       <c r="J7">
-        <v>-0.0272923881257679</v>
+        <v>-0.01553886244028546</v>
       </c>
       <c r="K7">
-        <v>-0.6314519628629907</v>
+        <v>-0.6098537132261485</v>
       </c>
       <c r="L7">
-        <v>-0.0322701875675469</v>
+        <v>0.01291315635652625</v>
       </c>
       <c r="M7">
-        <v>-0.008717246179311543</v>
+        <v>0.02279327611173104</v>
       </c>
       <c r="N7">
-        <v>0.03169674942418736</v>
+        <v>-0.004479642707185707</v>
       </c>
       <c r="P7">
-        <v>0.03606711451677862</v>
+        <v>0.004664100570564022</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -804,40 +807,40 @@
         <v>34</v>
       </c>
       <c r="C8">
-        <v>0.5727473256868314</v>
+        <v>0.5590814045712561</v>
       </c>
       <c r="D8">
-        <v>0.04259113214778303</v>
+        <v>-0.00508519700340788</v>
       </c>
       <c r="E8">
-        <v>-0.04156770289192572</v>
+        <v>0.005594811487792458</v>
       </c>
       <c r="F8">
-        <v>0.03829666407416601</v>
+        <v>-0.002038000209520008</v>
       </c>
       <c r="H8">
-        <v>0.01417694754423689</v>
+        <v>0.01114734198189368</v>
       </c>
       <c r="I8">
-        <v>-0.003187967296991824</v>
+        <v>0.01705725879429035</v>
       </c>
       <c r="J8">
-        <v>0.02808102083889589</v>
+        <v>-0.007474348781704938</v>
       </c>
       <c r="K8">
-        <v>0.7232469713117428</v>
+        <v>0.7226293914331756</v>
       </c>
       <c r="L8">
-        <v>0.004451557112889279</v>
+        <v>-0.008756717918268715</v>
       </c>
       <c r="M8">
-        <v>0.0006348451587112896</v>
+        <v>0.002731457965258318</v>
       </c>
       <c r="N8">
-        <v>-0.04635539808884952</v>
+        <v>0.01100707714428308</v>
       </c>
       <c r="P8">
-        <v>-0.02970620992655248</v>
+        <v>0.01558805380752215</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -848,40 +851,40 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <v>-0.01421462005365501</v>
+        <v>-0.002576296903051876</v>
       </c>
       <c r="D9">
-        <v>0.004465520616380154</v>
+        <v>0.009990475215619007</v>
       </c>
       <c r="E9">
-        <v>0.0001179855294963824</v>
+        <v>-0.01150037095601484</v>
       </c>
       <c r="F9">
-        <v>-0.003849785462446366</v>
+        <v>0.01050222099608884</v>
       </c>
       <c r="H9">
-        <v>0.001957308489327122</v>
+        <v>-0.008836566401462655</v>
       </c>
       <c r="I9">
-        <v>0.001443475860868965</v>
+        <v>-0.01634195143767805</v>
       </c>
       <c r="J9">
-        <v>-0.0007781432102932029</v>
+        <v>0.0124696063541129</v>
       </c>
       <c r="K9">
-        <v>0.001236967809241952</v>
+        <v>-0.00158932124757285</v>
       </c>
       <c r="L9">
-        <v>0.009162554290638574</v>
+        <v>-0.01338967675958707</v>
       </c>
       <c r="M9">
-        <v>0.03863069015767254</v>
+        <v>0.004880619843224793</v>
       </c>
       <c r="N9">
-        <v>-0.00910771427692857</v>
+        <v>-0.005477030907081236</v>
       </c>
       <c r="P9">
-        <v>0.0264431736107934</v>
+        <v>-0.01286512659460506</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -892,40 +895,40 @@
         <v>36</v>
       </c>
       <c r="C10">
-        <v>0.110749136187284</v>
+        <v>0.08838627339145091</v>
       </c>
       <c r="D10">
-        <v>0.01729512282378071</v>
+        <v>-0.002994886295795451</v>
       </c>
       <c r="E10">
-        <v>-0.01744059886014971</v>
+        <v>0.003938151613526064</v>
       </c>
       <c r="F10">
-        <v>0.02893873473468368</v>
+        <v>-0.003128430557137222</v>
       </c>
       <c r="H10">
-        <v>0.06251614262903567</v>
+        <v>0.0143632274865291</v>
       </c>
       <c r="I10">
-        <v>0.05814675703668926</v>
+        <v>0.01517028415881136</v>
       </c>
       <c r="J10">
-        <v>0.01332530910116479</v>
+        <v>-0.01210088550407213</v>
       </c>
       <c r="K10">
-        <v>0.06494111373527843</v>
+        <v>0.05874461082978442</v>
       </c>
       <c r="L10">
-        <v>-0.0001404585351146338</v>
+        <v>0.006708811852352472</v>
       </c>
       <c r="M10">
-        <v>-0.0152673128168282</v>
+        <v>0.02119400388776015</v>
       </c>
       <c r="N10">
-        <v>-0.01246854311713578</v>
+        <v>-0.002588073415522936</v>
       </c>
       <c r="P10">
-        <v>0.03568971592242898</v>
+        <v>0.01892551736502069</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -934,40 +937,40 @@
         <v>37</v>
       </c>
       <c r="C11">
-        <v>0.07800049200012299</v>
+        <v>0.1155670836626833</v>
       </c>
       <c r="D11">
-        <v>0.01792740148185037</v>
+        <v>-0.01247928846717154</v>
       </c>
       <c r="E11">
-        <v>-0.01266603166650791</v>
+        <v>0.01687706025908241</v>
       </c>
       <c r="F11">
-        <v>0.00631140607785152</v>
+        <v>-0.01666582953063318</v>
       </c>
       <c r="H11">
-        <v>-0.01123830430957608</v>
+        <v>0.001445195673807827</v>
       </c>
       <c r="I11">
-        <v>0.2002529930632483</v>
+        <v>0.2239009458520378</v>
       </c>
       <c r="J11">
-        <v>0.01910362716275525</v>
+        <v>-0.01726694052483686</v>
       </c>
       <c r="K11">
-        <v>0.006203973050993262</v>
+        <v>0.02288417409936696</v>
       </c>
       <c r="L11">
-        <v>0.01326627931656983</v>
+        <v>0.003984773823390952</v>
       </c>
       <c r="M11">
-        <v>0.01332846333211583</v>
+        <v>0.004542912565716502</v>
       </c>
       <c r="N11">
-        <v>-0.02836772209193052</v>
+        <v>0.01307655325906213</v>
       </c>
       <c r="P11">
-        <v>-0.04072118968029742</v>
+        <v>0.004055394114215764</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -976,40 +979,40 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>-0.2208867597216899</v>
+        <v>-0.2137836029833441</v>
       </c>
       <c r="D12">
-        <v>0.02403693300923325</v>
+        <v>0.007185764447430578</v>
       </c>
       <c r="E12">
-        <v>-0.02574321193580298</v>
+        <v>-0.01019803615192144</v>
       </c>
       <c r="F12">
-        <v>0.02230695707673927</v>
+        <v>0.01528161843526473</v>
       </c>
       <c r="H12">
-        <v>-0.006966024241506059</v>
+        <v>0.01962090558483622</v>
       </c>
       <c r="I12">
-        <v>-0.01069399617349904</v>
+        <v>0.01745732441029297</v>
       </c>
       <c r="J12">
-        <v>0.04408984941528182</v>
+        <v>-0.007659298022754134</v>
       </c>
       <c r="K12">
-        <v>-0.06895942273985568</v>
+        <v>-0.04609118152364725</v>
       </c>
       <c r="L12">
-        <v>-0.01093682523420631</v>
+        <v>-0.01144749616989985</v>
       </c>
       <c r="M12">
-        <v>0.02425229856307464</v>
+        <v>-0.00223028101721124</v>
       </c>
       <c r="N12">
-        <v>-0.02196999549249887</v>
+        <v>0.00844412203376488</v>
       </c>
       <c r="P12">
-        <v>-0.01040832710208178</v>
+        <v>0.008654865466194617</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1020,40 +1023,40 @@
         <v>39</v>
       </c>
       <c r="C13">
-        <v>0.02286942421735605</v>
+        <v>0.03664754556190182</v>
       </c>
       <c r="D13">
-        <v>0.0008823152205788052</v>
+        <v>-0.005656162594246503</v>
       </c>
       <c r="E13">
-        <v>-0.004022093505523377</v>
+        <v>0.002406540096261604</v>
       </c>
       <c r="F13">
-        <v>0.002836281709070427</v>
+        <v>-0.0004971359238854369</v>
       </c>
       <c r="H13">
-        <v>0.002289491072372768</v>
+        <v>-0.003574462894978515</v>
       </c>
       <c r="I13">
-        <v>-0.002792030198007549</v>
+        <v>-0.00490474877218995</v>
       </c>
       <c r="J13">
-        <v>0.00741487625387031</v>
+        <v>-0.002396836677272425</v>
       </c>
       <c r="K13">
-        <v>-0.0002093985523496381</v>
+        <v>0.01847472688298907</v>
       </c>
       <c r="L13">
-        <v>-0.02139341034835258</v>
+        <v>-0.02000627686425107</v>
       </c>
       <c r="M13">
-        <v>0.02459340614835154</v>
+        <v>-0.009944382061775281</v>
       </c>
       <c r="N13">
-        <v>0.01041664010416003</v>
+        <v>0.0173176277007051</v>
       </c>
       <c r="P13">
-        <v>-0.01526142531535633</v>
+        <v>0.0134872876434915</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1064,256 +1067,258 @@
         <v>39</v>
       </c>
       <c r="C14">
-        <v>-0.01702508075627019</v>
+        <v>-0.03334538562181542</v>
       </c>
       <c r="D14">
-        <v>-0.01348802287200572</v>
+        <v>0.008981766791270671</v>
       </c>
       <c r="E14">
-        <v>0.01587090096772524</v>
+        <v>-0.008742802333712092</v>
       </c>
       <c r="F14">
-        <v>-0.01578876994719249</v>
+        <v>0.008085044771401789</v>
       </c>
       <c r="H14">
-        <v>0.0008459972114993029</v>
+        <v>0.003729319541172782</v>
       </c>
       <c r="I14">
-        <v>0.009062567265641816</v>
+        <v>-0.008074700962988037</v>
       </c>
       <c r="J14">
-        <v>-0.03387207540392839</v>
+        <v>0.007738903626649076</v>
       </c>
       <c r="K14">
-        <v>-0.03694093523523381</v>
+        <v>-0.04856481823059271</v>
       </c>
       <c r="L14">
-        <v>0.005502572875643218</v>
+        <v>0.009144967853798713</v>
       </c>
       <c r="M14">
-        <v>-0.02108572127143032</v>
+        <v>0.001247647537905901</v>
       </c>
       <c r="N14">
-        <v>0.007812969453242363</v>
+        <v>-0.01258684216747369</v>
       </c>
       <c r="P14">
-        <v>0.001475733368933342</v>
+        <v>-0.01344087644163506</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>-0.009612495648499824</v>
+      </c>
+      <c r="D15">
+        <v>-0.01238121611124864</v>
+      </c>
+      <c r="E15">
+        <v>0.0145272274610891</v>
+      </c>
+      <c r="F15">
+        <v>-0.0167441301097652</v>
+      </c>
+      <c r="H15">
+        <v>-0.009566168734646748</v>
+      </c>
+      <c r="I15">
+        <v>-0.00791711676468467</v>
+      </c>
+      <c r="J15">
+        <v>0.004413727943954881</v>
+      </c>
+      <c r="K15">
+        <v>0.01648261669130466</v>
+      </c>
+      <c r="L15">
+        <v>0.01319193105567724</v>
+      </c>
+      <c r="M15">
+        <v>-0.01267461727498469</v>
+      </c>
+      <c r="N15">
+        <v>0.009557793118311723</v>
+      </c>
+      <c r="P15">
+        <v>-0.01100548575221943</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15">
-        <v>0.01291124572781143</v>
-      </c>
-      <c r="D15">
-        <v>-0.007710672427668107</v>
-      </c>
-      <c r="E15">
-        <v>0.01325448031362008</v>
-      </c>
-      <c r="F15">
-        <v>-0.009888309972077493</v>
-      </c>
-      <c r="H15">
-        <v>0.01576248094062023</v>
-      </c>
-      <c r="I15">
-        <v>0.03009894902473725</v>
-      </c>
-      <c r="J15">
-        <v>-0.02074133435534561</v>
-      </c>
-      <c r="K15">
-        <v>0.01927218931804733</v>
-      </c>
-      <c r="L15">
-        <v>0.0188490452122613</v>
-      </c>
-      <c r="M15">
-        <v>-0.004668506667126667</v>
-      </c>
-      <c r="N15">
-        <v>-0.01064695766173942</v>
-      </c>
-      <c r="P15">
-        <v>0.03805552101388025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C16">
-        <v>0.02097952274488069</v>
+        <v>-0.004725901629036065</v>
       </c>
       <c r="D16">
-        <v>0.002287856071964018</v>
+        <v>0.007992962143718484</v>
       </c>
       <c r="E16">
-        <v>-0.003468084867021217</v>
+        <v>-0.007344226853769073</v>
       </c>
       <c r="F16">
-        <v>0.001209112802278201</v>
+        <v>0.007502262540090501</v>
       </c>
       <c r="H16">
-        <v>-0.02280047070011767</v>
+        <v>0.00861207605648304</v>
       </c>
       <c r="I16">
-        <v>-0.01877292169323042</v>
+        <v>0.007431940713277627</v>
       </c>
       <c r="J16">
-        <v>-0.004189045882089651</v>
+        <v>0.01497131554851653</v>
       </c>
       <c r="K16">
-        <v>0.02143357435839359</v>
+        <v>-0.01434891023795641</v>
       </c>
       <c r="L16">
-        <v>-0.005856803964200991</v>
+        <v>0.0003029169721166788</v>
       </c>
       <c r="M16">
-        <v>0.009444537861134465</v>
+        <v>-0.02294241096569644</v>
       </c>
       <c r="N16">
-        <v>-0.003751301437825359</v>
+        <v>-0.002398514591940584</v>
       </c>
       <c r="P16">
-        <v>-0.01012630753157688</v>
+        <v>-0.001488946619557865</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C17">
-        <v>0.00127929031982258</v>
+        <v>0.004817740896709635</v>
       </c>
       <c r="D17">
-        <v>-0.0006819706704926676</v>
+        <v>-0.001212025296481012</v>
       </c>
       <c r="E17">
-        <v>-0.004387735096933774</v>
+        <v>-0.003953656574146262</v>
       </c>
       <c r="F17">
-        <v>0.01308653427163357</v>
+        <v>0.009246300369852014</v>
       </c>
       <c r="H17">
-        <v>0.01156502089125522</v>
+        <v>0.009012467496498698</v>
       </c>
       <c r="I17">
-        <v>0.00336371484092871</v>
+        <v>0.006111149044445961</v>
       </c>
       <c r="J17">
-        <v>0.007663991821193791</v>
+        <v>-0.0002992388306411575</v>
       </c>
       <c r="K17">
-        <v>-0.005436076359019089</v>
+        <v>-0.005343763413750536</v>
       </c>
       <c r="L17">
-        <v>-0.01794579898644975</v>
+        <v>-0.02176489200659568</v>
       </c>
       <c r="M17">
-        <v>-0.004344995586248896</v>
+        <v>-0.005090282219611288</v>
       </c>
       <c r="N17">
-        <v>-0.00561802340450585</v>
+        <v>0.01048660957146438</v>
       </c>
       <c r="P17">
-        <v>0.02135306483826621</v>
+        <v>0.015652299986092</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C18">
-        <v>0.03253411413352853</v>
+        <v>0.0007475618219024728</v>
       </c>
       <c r="D18">
-        <v>0.005379052344763086</v>
+        <v>-0.01731514859660594</v>
       </c>
       <c r="E18">
-        <v>-0.001604443901110975</v>
+        <v>0.01620014743200589</v>
       </c>
       <c r="F18">
-        <v>-0.0002952300738075185</v>
+        <v>-0.01595090166203606</v>
       </c>
       <c r="H18">
-        <v>0.009660909915227479</v>
+        <v>-0.004046276033851041</v>
       </c>
       <c r="I18">
-        <v>0.01021040955260239</v>
+        <v>-0.0001069800042792002</v>
       </c>
       <c r="J18">
-        <v>-0.004289805409319914</v>
+        <v>-0.01462582237961224</v>
       </c>
       <c r="K18">
-        <v>0.01781270395317599</v>
+        <v>-0.006105445588217823</v>
       </c>
       <c r="L18">
-        <v>0.01906744376686094</v>
+        <v>-0.006491594275663771</v>
       </c>
       <c r="M18">
-        <v>0.003691736422934105</v>
+        <v>0.01223635306545412</v>
       </c>
       <c r="N18">
-        <v>-0.01629802307450577</v>
+        <v>0.01317407659096306</v>
       </c>
       <c r="P18">
-        <v>-0.006751230187807546</v>
+        <v>-0.004576813047072521</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C19">
-        <v>0.003673218918304729</v>
+        <v>0.01455189879007595</v>
       </c>
       <c r="D19">
-        <v>0.006033498008374502</v>
+        <v>0.009071423882856955</v>
       </c>
       <c r="E19">
-        <v>-0.01298639274659819</v>
+        <v>-0.008116150116646003</v>
       </c>
       <c r="F19">
-        <v>0.0179611859902965</v>
+        <v>0.008889801859592074</v>
       </c>
       <c r="H19">
-        <v>0.004612922653230663</v>
+        <v>0.002342323293692931</v>
       </c>
       <c r="I19">
-        <v>-0.006414003103500775</v>
+        <v>0.002195564631822585</v>
       </c>
       <c r="J19">
-        <v>0.003565600713603594</v>
+        <v>0.01205287585372311</v>
       </c>
       <c r="K19">
-        <v>-0.05185054746263686</v>
+        <v>-0.0001445463417818536</v>
       </c>
       <c r="L19">
-        <v>-0.03890073222518306</v>
+        <v>0.004996506823860272</v>
       </c>
       <c r="M19">
-        <v>-0.03856347664086916</v>
+        <v>-0.01551631492465259</v>
       </c>
       <c r="N19">
-        <v>0.0103355455838864</v>
+        <v>-0.008647115001884599</v>
       </c>
       <c r="P19">
-        <v>-0.0005548291387072847</v>
+        <v>0.01666778917871157</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1322,40 +1327,40 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>-0.03312843378210845</v>
+        <v>-0.00180160125606405</v>
       </c>
       <c r="D20">
-        <v>-0.02778172144543036</v>
+        <v>0.02562092828883713</v>
       </c>
       <c r="E20">
-        <v>0.02634603358650839</v>
+        <v>-0.02126471019458841</v>
       </c>
       <c r="F20">
-        <v>-0.03305187976296994</v>
+        <v>0.01295724877428995</v>
       </c>
       <c r="H20">
-        <v>-0.03903580575895144</v>
+        <v>-0.0008963062438522495</v>
       </c>
       <c r="I20">
-        <v>-0.03152527688131922</v>
+        <v>-0.002348462397938495</v>
       </c>
       <c r="J20">
-        <v>-0.00545210097343029</v>
+        <v>0.03207030238513575</v>
       </c>
       <c r="K20">
-        <v>-0.02687299421824856</v>
+        <v>0.007652640402105615</v>
       </c>
       <c r="L20">
-        <v>-0.002510621127655282</v>
+        <v>0.02322260108890404</v>
       </c>
       <c r="M20">
-        <v>0.00496183324045831</v>
+        <v>-0.01118723919948957</v>
       </c>
       <c r="N20">
-        <v>0.02190993697748424</v>
+        <v>-0.02536005567040223</v>
       </c>
       <c r="P20">
-        <v>-0.01542837535709384</v>
+        <v>-0.02784766671390666</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1364,520 +1369,562 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>0.0003510690877672719</v>
+        <v>-0.0191731874869275</v>
       </c>
       <c r="D21">
-        <v>0.03060067965016991</v>
+        <v>-0.0100759650430386</v>
       </c>
       <c r="E21">
-        <v>-0.03109754727438682</v>
+        <v>0.006972169718886788</v>
       </c>
       <c r="F21">
-        <v>0.02774614293653574</v>
+        <v>-0.004401399248055969</v>
       </c>
       <c r="H21">
-        <v>-0.01612663003165751</v>
+        <v>0.002670929098837164</v>
       </c>
       <c r="I21">
-        <v>-0.0364499056124764</v>
+        <v>0.003811498328459933</v>
       </c>
       <c r="J21">
-        <v>0.02486441621960849</v>
+        <v>-0.005216433087229638</v>
       </c>
       <c r="K21">
-        <v>-0.0116471384117846</v>
+        <v>0.004358014926320597</v>
       </c>
       <c r="L21">
-        <v>6.977251744312936E-05</v>
+        <v>-0.01256213272648531</v>
       </c>
       <c r="M21">
-        <v>0.03026572356643089</v>
+        <v>-0.002949254709970188</v>
       </c>
       <c r="N21">
-        <v>-0.03506733426683357</v>
+        <v>0.02073146722925868</v>
       </c>
       <c r="P21">
-        <v>-0.005619007404751851</v>
+        <v>0.00315638201425528</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C22">
-        <v>0.00746817636704409</v>
+        <v>-0.02972025392481015</v>
       </c>
       <c r="D22">
-        <v>-0.007152835788208948</v>
+        <v>-0.007453131082125243</v>
       </c>
       <c r="E22">
-        <v>0.001260196815049204</v>
+        <v>0.002078756819150273</v>
       </c>
       <c r="F22">
-        <v>0.004702993175748293</v>
+        <v>-0.00174184701367388</v>
       </c>
       <c r="H22">
-        <v>-0.0001427055356763839</v>
+        <v>-0.01081326705653068</v>
       </c>
       <c r="I22">
-        <v>0.003379823344955836</v>
+        <v>-0.01083848654553946</v>
       </c>
       <c r="J22">
-        <v>-0.001393777126668269</v>
+        <v>-0.0005915109409414473</v>
       </c>
       <c r="K22">
-        <v>0.02161171290292823</v>
+        <v>-0.001295669811826792</v>
       </c>
       <c r="L22">
-        <v>-0.03298286624571656</v>
+        <v>-0.009172177902887116</v>
       </c>
       <c r="M22">
-        <v>-0.01422714655678664</v>
+        <v>0.01012099653283986</v>
       </c>
       <c r="N22">
-        <v>0.01401824300456075</v>
+        <v>0.01340622956024918</v>
       </c>
       <c r="P22">
-        <v>0.007923735480933869</v>
+        <v>-0.01296887120675485</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C23">
-        <v>-0.009154332788583196</v>
+        <v>-0.009913409868536394</v>
       </c>
       <c r="D23">
-        <v>-0.009310101827525456</v>
+        <v>0.001008615016344601</v>
       </c>
       <c r="E23">
-        <v>0.008264702066175517</v>
+        <v>-0.00510741927629677</v>
       </c>
       <c r="F23">
-        <v>-0.012078528019632</v>
+        <v>0.005308056500322259</v>
       </c>
       <c r="H23">
-        <v>-0.02244932661233165</v>
+        <v>-0.009557857822314312</v>
       </c>
       <c r="I23">
-        <v>-0.02689557072389268</v>
+        <v>-0.01244677700987108</v>
       </c>
       <c r="J23">
-        <v>0.01760013850643743</v>
+        <v>0.003650503714611846</v>
       </c>
       <c r="K23">
-        <v>0.01758313189578297</v>
+        <v>-0.01163450715338029</v>
       </c>
       <c r="L23">
-        <v>0.01296606174151544</v>
+        <v>-0.02095956199038248</v>
       </c>
       <c r="M23">
-        <v>-0.002765505691376423</v>
+        <v>0.001303142740125709</v>
       </c>
       <c r="N23">
-        <v>0.008453474113368527</v>
+        <v>0.008905734980229398</v>
       </c>
       <c r="P23">
-        <v>-0.003287586821896705</v>
+        <v>-0.002944560405782416</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C24">
-        <v>-0.003285558821389705</v>
+        <v>0.00368416152336646</v>
       </c>
       <c r="D24">
-        <v>0.02973085643271411</v>
+        <v>0.007503440172137606</v>
       </c>
       <c r="E24">
-        <v>-0.02969496742374185</v>
+        <v>-0.008441158417646335</v>
       </c>
       <c r="F24">
-        <v>0.02036611259152815</v>
+        <v>0.007465641706625668</v>
       </c>
       <c r="H24">
-        <v>-0.01822357355589339</v>
+        <v>0.01165297813011912</v>
       </c>
       <c r="I24">
-        <v>-0.02417199454299863</v>
+        <v>0.0122876524915061</v>
       </c>
       <c r="J24">
-        <v>0.04457346154597799</v>
+        <v>-0.004982630499790145</v>
       </c>
       <c r="K24">
-        <v>-0.01037749909437477</v>
+        <v>0.01911067497242699</v>
       </c>
       <c r="L24">
-        <v>0.001003872250968063</v>
+        <v>-0.001186401935456077</v>
       </c>
       <c r="M24">
-        <v>-0.02006184351546087</v>
+        <v>-0.01395043630201745</v>
       </c>
       <c r="N24">
-        <v>-0.01979795744948936</v>
+        <v>-0.002334096573363863</v>
       </c>
       <c r="P24">
-        <v>-0.04989355847338962</v>
+        <v>-0.002399975039999001</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C25">
-        <v>-0.03307862476965619</v>
+        <v>-0.0004011356320454252</v>
       </c>
       <c r="D25">
-        <v>-0.001607257901814475</v>
+        <v>-0.01692377107695084</v>
       </c>
       <c r="E25">
-        <v>0.003665936416484104</v>
+        <v>0.01453882666155306</v>
       </c>
       <c r="F25">
-        <v>-0.007134759283689822</v>
+        <v>-0.008538675125547004</v>
       </c>
       <c r="H25">
-        <v>-0.004164728541182135</v>
+        <v>0.01119875775995031</v>
       </c>
       <c r="I25">
-        <v>-0.009120605280151319</v>
+        <v>0.01928701613148064</v>
       </c>
       <c r="J25">
-        <v>0.00176769272771896</v>
+        <v>-0.01294869701755385</v>
       </c>
       <c r="K25">
-        <v>-0.007118628279657068</v>
+        <v>-0.009856986922279477</v>
       </c>
       <c r="L25">
-        <v>0.02757573539393385</v>
+        <v>-0.02187194573887782</v>
       </c>
       <c r="M25">
-        <v>-0.006464734616183653</v>
+        <v>-0.01432912194916488</v>
       </c>
       <c r="N25">
-        <v>-0.01662641965660491</v>
+        <v>0.02677733943909357</v>
       </c>
       <c r="P25">
-        <v>0.001148011787002947</v>
+        <v>0.008439543697581747</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C26">
-        <v>-0.03239982509995627</v>
+        <v>0.01309066929162677</v>
       </c>
       <c r="D26">
-        <v>-0.03554053338513334</v>
+        <v>0.0005631094305243771</v>
       </c>
       <c r="E26">
-        <v>0.005091689772922444</v>
+        <v>0.002028959313158372</v>
       </c>
       <c r="F26">
-        <v>0.01612861303215326</v>
+        <v>-0.002806577968263119</v>
       </c>
       <c r="H26">
-        <v>-0.005567372891843223</v>
+        <v>0.009499491835979671</v>
       </c>
       <c r="I26">
-        <v>0.0003313155828288957</v>
+        <v>0.0122017175120687</v>
       </c>
       <c r="J26">
-        <v>0.009838638408892033</v>
+        <v>-0.007051444905013096</v>
       </c>
       <c r="K26">
-        <v>-0.01827486006871501</v>
+        <v>-0.01746825276273011</v>
       </c>
       <c r="L26">
-        <v>-0.1865992021498005</v>
+        <v>0.01233595930943837</v>
       </c>
       <c r="M26">
-        <v>0.9503061515765379</v>
+        <v>-0.007042045433681816</v>
       </c>
       <c r="N26">
-        <v>0.06830798157699539</v>
+        <v>-0.008594595703783828</v>
       </c>
       <c r="P26">
-        <v>0.001656459414114853</v>
+        <v>-0.001849015081960603</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C27">
-        <v>-0.02991030447757612</v>
+        <v>-0.01558889582355583</v>
       </c>
       <c r="D27">
-        <v>-0.0408915312228828</v>
+        <v>-0.04376736069469443</v>
       </c>
       <c r="E27">
-        <v>0.02183181995795499</v>
+        <v>0.01183038479321539</v>
       </c>
       <c r="F27">
-        <v>-0.008154780538695134</v>
+        <v>0.008171529158861164</v>
       </c>
       <c r="H27">
-        <v>-0.01579653694913424</v>
+        <v>-0.02428226525929061</v>
       </c>
       <c r="I27">
-        <v>-0.02435210708802677</v>
+        <v>-0.02272702074908083</v>
       </c>
       <c r="J27">
-        <v>-0.01823946942921662</v>
+        <v>-0.003203520252741838</v>
       </c>
       <c r="K27">
-        <v>-0.03267782166945542</v>
+        <v>-0.04319403676776147</v>
       </c>
       <c r="L27">
-        <v>-0.1218311344577836</v>
+        <v>-0.1947605303184212</v>
       </c>
       <c r="M27">
-        <v>0.2989522692380673</v>
+        <v>0.9488816735392669</v>
       </c>
       <c r="N27">
-        <v>0.06032430008107503</v>
+        <v>0.06581691776867671</v>
       </c>
       <c r="P27">
-        <v>0.03232795108198777</v>
+        <v>-0.01335718315828732</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C28">
-        <v>0.05593799448449862</v>
+        <v>-0.01480747700829908</v>
       </c>
       <c r="D28">
-        <v>0.0212767088191772</v>
+        <v>-0.002887368307494732</v>
       </c>
       <c r="E28">
-        <v>-0.02662115015528754</v>
+        <v>-0.003407809672312387</v>
       </c>
       <c r="F28">
-        <v>0.02926482881620721</v>
+        <v>0.008534389109375562</v>
       </c>
       <c r="H28">
-        <v>0.005875204468801117</v>
+        <v>0.01715938331037533</v>
       </c>
       <c r="I28">
-        <v>-0.005935952983988245</v>
+        <v>0.009357163574286542</v>
       </c>
       <c r="J28">
-        <v>0.02878475802908087</v>
+        <v>-0.009278428629974956</v>
       </c>
       <c r="K28">
-        <v>-0.04350952837738209</v>
+        <v>-0.004391481199659248</v>
       </c>
       <c r="L28">
-        <v>-0.03117600779400194</v>
+        <v>-0.0503241602849664</v>
       </c>
       <c r="M28">
-        <v>0.1644528666132166</v>
+        <v>0.2939912667356506</v>
       </c>
       <c r="N28">
-        <v>0.01536096684024171</v>
+        <v>0.01049632659585306</v>
       </c>
       <c r="P28">
-        <v>-0.01969189392297348</v>
+        <v>0.03849656707586267</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C29">
-        <v>-0.01515627528906882</v>
+        <v>-0.0006652875146115005</v>
       </c>
       <c r="D29">
-        <v>-0.01425823406455852</v>
+        <v>0.006053020466120818</v>
       </c>
       <c r="E29">
-        <v>0.01825126056281514</v>
+        <v>0.000864885826595433</v>
       </c>
       <c r="F29">
-        <v>-0.02164986091246523</v>
+        <v>-0.002473522466940898</v>
       </c>
       <c r="H29">
-        <v>-0.01055965163991291</v>
+        <v>-0.003897081371883254</v>
       </c>
       <c r="I29">
-        <v>0.002337033584258396</v>
+        <v>-0.007644891473795657</v>
       </c>
       <c r="J29">
-        <v>-0.005120953383937654</v>
+        <v>0.005972065012201197</v>
       </c>
       <c r="K29">
-        <v>0.01524040131010033</v>
+        <v>-0.01451250077250003</v>
       </c>
       <c r="L29">
-        <v>0.02263092415773104</v>
+        <v>0.03006651134666045</v>
       </c>
       <c r="M29">
-        <v>0.05594608248652063</v>
+        <v>0.08553334758133389</v>
       </c>
       <c r="N29">
-        <v>0.01864477366119341</v>
+        <v>0.0002568583782743351</v>
       </c>
       <c r="P29">
-        <v>0.0004713661178415294</v>
+        <v>0.008027292417091696</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C30">
-        <v>0.4390263962565991</v>
+        <v>0.01158719345548774</v>
       </c>
       <c r="D30">
-        <v>0.9779429369857341</v>
+        <v>0.007675788403031535</v>
       </c>
       <c r="E30">
-        <v>-0.9975548868887217</v>
+        <v>-0.001480763963230558</v>
       </c>
       <c r="F30">
-        <v>0.9638129169532291</v>
+        <v>-0.001574709662988386</v>
       </c>
       <c r="H30">
-        <v>0.3301651965412991</v>
+        <v>0.00116986199879448</v>
       </c>
       <c r="I30">
-        <v>-0.02634610408652602</v>
+        <v>0.002834183729367349</v>
       </c>
       <c r="J30">
-        <v>0.6887782823923311</v>
+        <v>0.007856235744389903</v>
       </c>
       <c r="K30">
-        <v>-0.03752311688077922</v>
+        <v>-0.006987280503491219</v>
       </c>
       <c r="L30">
-        <v>-0.02235680658920165</v>
+        <v>0.03301694340067773</v>
       </c>
       <c r="M30">
-        <v>-0.006090942022735506</v>
+        <v>0.04609672984386919</v>
       </c>
       <c r="N30">
-        <v>-0.7551782772945693</v>
+        <v>-0.01747311775492471</v>
       </c>
       <c r="P30">
-        <v>-0.4217932204483051</v>
+        <v>0.00380329301613172</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C31">
-        <v>0.03225538256384564</v>
+        <v>0.4299008543160341</v>
       </c>
       <c r="D31">
-        <v>0.0661681380420345</v>
+        <v>0.9777534640701384</v>
       </c>
       <c r="E31">
-        <v>-0.06721533330383332</v>
+        <v>-0.9975526806381071</v>
       </c>
       <c r="F31">
-        <v>0.0597082184270546</v>
+        <v>0.9637844004073759</v>
       </c>
       <c r="H31">
-        <v>0.07814055453513863</v>
+        <v>0.3715312638532505</v>
       </c>
       <c r="I31">
-        <v>0.007047027261756816</v>
+        <v>0.01635504967820198</v>
       </c>
       <c r="J31">
-        <v>0.193164121952604</v>
+        <v>0.7095604199173721</v>
       </c>
       <c r="K31">
-        <v>0.03158943189735797</v>
+        <v>-0.06977401911096075</v>
       </c>
       <c r="L31">
-        <v>0.01403128550782138</v>
+        <v>0.0007638616625544664</v>
       </c>
       <c r="M31">
-        <v>0.03157944489486122</v>
+        <v>-0.005173027598921103</v>
       </c>
       <c r="N31">
-        <v>-0.0431583887895972</v>
+        <v>-0.7540124576804982</v>
       </c>
       <c r="P31">
-        <v>-0.08947137136784285</v>
+        <v>-0.4342172599606904</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C32">
-        <v>-0.03952172938043234</v>
+        <v>0.02485998291439931</v>
       </c>
       <c r="D32">
-        <v>0.004927444231861058</v>
+        <v>0.07381084135243364</v>
       </c>
       <c r="E32">
-        <v>-0.003968175992043997</v>
+        <v>-0.07704823872992954</v>
       </c>
       <c r="F32">
-        <v>0.004755854688963672</v>
+        <v>0.07104880805795231</v>
       </c>
       <c r="H32">
-        <v>0.01168936642234161</v>
+        <v>0.07936731706269268</v>
       </c>
       <c r="I32">
-        <v>0.009839577959894491</v>
+        <v>0.0032590325143613</v>
       </c>
       <c r="J32">
-        <v>0.02194402793037355</v>
+        <v>0.2202589693208309</v>
       </c>
       <c r="K32">
-        <v>-0.00303660075915019</v>
+        <v>-0.01201003152040126</v>
       </c>
       <c r="L32">
-        <v>0.002124582531145633</v>
+        <v>0.002475335043013402</v>
       </c>
       <c r="M32">
-        <v>-0.03830244957561239</v>
+        <v>0.003871352218854088</v>
       </c>
       <c r="N32">
-        <v>-0.006818365704591426</v>
+        <v>-0.05096973813478952</v>
       </c>
       <c r="P32">
-        <v>0.003492065373016343</v>
+        <v>-0.1079042983641719</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33">
+        <v>-0.002956288822251552</v>
+      </c>
+      <c r="D33">
+        <v>-0.001321556788862272</v>
+      </c>
+      <c r="E33">
+        <v>-0.0009317891892715673</v>
+      </c>
+      <c r="F33">
+        <v>-8.680320347212812E-06</v>
+      </c>
+      <c r="H33">
+        <v>-0.007486256747450269</v>
+      </c>
+      <c r="I33">
+        <v>-0.005349035637961424</v>
+      </c>
+      <c r="J33">
+        <v>0.01120746755635897</v>
+      </c>
+      <c r="K33">
+        <v>-0.01166284472251379</v>
+      </c>
+      <c r="L33">
+        <v>-0.01826990789879631</v>
+      </c>
+      <c r="M33">
+        <v>0.009803182856127312</v>
+      </c>
+      <c r="N33">
+        <v>0.004820009280800371</v>
+      </c>
+      <c r="P33">
+        <v>-0.003871426234857049</v>
       </c>
     </row>
   </sheetData>
@@ -1885,10 +1932,10 @@
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
